--- a/data-files/topcv_data_analyst_jobs.xlsx
+++ b/data-files/topcv_data_analyst_jobs.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/948277.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/948277.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -664,7 +664,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Hanoi Grade-A Office (IT, Marketing, Back Office Department): 36 P. Hoang Cau, Cho Dua, Dong Da, Ha Noi. Review and CSR Office: 2nd Floor, HTP Building, 434 Tran Khat Chan, Hai Ba Trung, Hanoi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông Panasonic Vietnam Co., Ltd. Sản xuất Tập Đoàn Novaon IT - Phần mềm CÔNG TY CỔ PHẦN THANH TOÁN ĐIỆN TỬ VNPT IT - Phần mềm CÔNG TY TNHH MITEK VIỆT NAM Xây dựng TỔNG CÔNG TY CỔ PHẦN BƯU CHÍNH VIETTEL IT - Phần mềm Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng Ngân hàng TMCP Hàng Hải Việt Nam (MSB) Ngân hàng CÔNG TY CỔ PHẦN MÁY TÍNH VĨNH XUÂN IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 7, tòa nhà Geleximco, 36 phố Hoàng Cầu, Đống Đa, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Hanoi Grade-A Office (IT, Marketing, Back Office Department): 36 P. Hoang Cau, Cho Dua, Dong Da, Ha Noi. Review and CSR Office: 2nd Floor, HTP Building, 434 Tran Khat Chan, Hai Ba Trung, Hanoi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Công ty Cổ phần Bán lẻ Kỹ thuật số FPT Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần MISA IT - Phần mềm Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng Công ty CPDV Trực tuyến Cộng Đồng Việt (VietUnion) Tài chính Tổng Công ty Cổ phần Công trình Viettel Xây dựng FPT Software IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 7, tòa nhà Geleximco, 36 phố Hoàng Cầu, Đống Đa, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-giam-sat-phan-tich-du-lieu-monitoring-data-officer/1863574.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-giam-sat-phan-tich-du-lieu-monitoring-data-officer/1863574.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/truong-nhom-phan-tich-du-lieu-nganh-tai-chinh/1631299.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/truong-nhom-phan-tich-du-lieu-nganh-tai-chinh/1631299.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-nganh-tai-chinh/1631270.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-nganh-tai-chinh/1631270.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/financial-planning-analysis-executive-fpa/1775463.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/financial-planning-analysis-executive-fpa/1775463.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1113,7 +1113,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Top 01 Công ty kinh doanh hiệu quả do Nhịp cầu đầu tư bình chọn. Top 50 thương hiệu Việt Nam giá trị nhất do Brand Finance (Anh) bình chọn. Top 50 Công ty niêm yết tốt nhất Việt Nam (Forbes bình chọn) Top 100 Doanh nghiệp phát triển bền vững tại Việt Nam (CSI100) Digiworld tiếp tục mở rộng hoạt động sang hai ngành hàng đầy tiềm năng là Chăm sóc sức khỏe (Healthcare), tiêu dùng nhanh (FMCG) và thiết bị gia dụng (Home Appliances) Digiworld mang đến cho các thương hiệu giải pháp trọn gói và linh hoạt để nhanh chóng thâm nhập và mở rộng thị trường Việt Nam thông qua 6 dịch vụ giá trị gia tăng: Phân tích thị trường – Marketing – Bán hàng – Hậu cần – Hậu mãi – TMĐT D2C và Quản lý chuỗi cửa hàng. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty TNHH SANAKY VIỆT NAM Điện tử / Điện lạnh Công ty CP Cáp điện Thịnh Phát Sản xuất Công ty Cổ phần Cao su Sài Gòn - KYMDAN Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN BIBICA Sản xuất Chi nhánh Công trình Viettel Phú Thọ - Tổng Công ty CP Công trình Viettel Viễn thông NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN PHÁT TRIỂN NĂNG LƯỢNG SƠN HÀ Sản xuất Công ty CP Đầu tư Thương mại và Phát triển Công nghệ FSI - CN HCM IT - Phần mềm Công ty Cổ phần FSI Việt Nam Điện tử / Điện lạnh Công ty Cổ phần Tập đoàn Karofi Điện tử / Điện lạnh Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 15, Tòa nhà Etown Central, số 11 Đoàn Văn Bơ, Phường 13, Quận 4, Thành Phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Top 01 Công ty kinh doanh hiệu quả do Nhịp cầu đầu tư bình chọn. Top 50 thương hiệu Việt Nam giá trị nhất do Brand Finance (Anh) bình chọn. Top 50 Công ty niêm yết tốt nhất Việt Nam (Forbes bình chọn) Top 100 Doanh nghiệp phát triển bền vững tại Việt Nam (CSI100) Digiworld tiếp tục mở rộng hoạt động sang hai ngành hàng đầy tiềm năng là Chăm sóc sức khỏe (Healthcare), tiêu dùng nhanh (FMCG) và thiết bị gia dụng (Home Appliances) Digiworld mang đến cho các thương hiệu giải pháp trọn gói và linh hoạt để nhanh chóng thâm nhập và mở rộng thị trường Việt Nam thông qua 6 dịch vụ giá trị gia tăng: Phân tích thị trường – Marketing – Bán hàng – Hậu cần – Hậu mãi – TMĐT D2C và Quản lý chuỗi cửa hàng. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần MediaMart Việt Nam Thương mại điện tử CÔNG TY CỔ PHẦN SỮA QUỐC TẾ Bán lẻ - Hàng tiêu dùng - FMCG Ban Quản Lý TTTM Crescent Mall Nhà hàng / Khách sạn CHI NHÁNH CÔNG TY CỔ PHẦN TẬP ĐOÀN VÀNG BẠC ĐÁ QUÝ DOJI TẠI ĐÀ NẴNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH THƯƠNG MẠI VÀ VẬN TẢI THÁI TÂN Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH VN ĐẠI PHONG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN SMARTOSC IT - Phần mềm CÔNG TY TNHH ROHTO-MENTHOLATUM (VIỆT NAM) Dược phẩm / Y tế / Công nghệ sinh học Công ty cổ phần đầu tư Phát triển Máy Việt Nam Cơ khí Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 15, Tòa nhà Etown Central, số 11 Đoàn Văn Bơ, Phường 13, Quận 4, Thành Phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-erp-data-analyst/1856534.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-erp-data-analyst/1856534.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1857623.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1857623.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1856053.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1856053.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/logistics-data-analysis/1642078.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/logistics-data-analysis/1642078.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1852398.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1852398.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-phan-tich-du-lieu-va-xu-ly-don-hang-data-analyst/1852297.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-phan-tich-du-lieu-va-xu-ly-don-hang-data-analyst/1852297.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-nghiep-vu-it-business-analyst-2-nam-kinh-nghiem-thu-nhap-canh-tranh/1851292.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-nghiep-vu-it-business-analyst-2-nam-kinh-nghiem-thu-nhap-canh-tranh/1851292.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-analyst-banking/1812934.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/business-analyst-banking/1812934.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1981,7 +1981,7 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>System Integration, Cloud Services &amp; Software, SVTECH is honored to be trusted to accompany customers who are large organizations in many fields, national enterprises, typically: Viettel, Mobiphone, Vinaphone, VNPT, ACB, VPBank, Techcombank, Sacombank, Ministry of Finance, Ministry of Natural Resources and Environment, EVN, Sawaco, PVOIL, PVEP, Toyota, Ericsson, National University, RMIT University, Vinamilk, Vingroup, etc.. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng Công ty Cổ phần Hệ thống Công nghệ ETC IT - Phần mềm Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng Hệ thống Bán lẻ Viettel store - Công ty TM &amp; XNK Viettel Viễn thông Công ty Cổ phần Tập đoàn HiPT IT - Phần mềm TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG Viễn thông Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông FPT IS IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty HCM: 2A Phan Thúc Duyện - P4 - Q Tân Bình; HN: IC Building - 82 Duy Tân - Cầu Giấy Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>System Integration, Cloud Services &amp; Software, SVTECH is honored to be trusted to accompany customers who are large organizations in many fields, national enterprises, typically: Viettel, Mobiphone, Vinaphone, VNPT, ACB, VPBank, Techcombank, Sacombank, Ministry of Finance, Ministry of Natural Resources and Environment, EVN, Sawaco, PVOIL, PVEP, Toyota, Ericsson, National University, RMIT University, Vinamilk, Vingroup, etc.. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG Viễn thông Công ty Cổ phần viễn thông FPT Viễn thông Công ty cổ phần tư vấn chuyển giao công nghệ ITC Viễn thông Chi nhánh MOBIFONE SERVICE Hà Nội - Công Ty Cổ phần Dịch vụ kỹ thuật MobiFone Viễn thông Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng VIEN SON COMPUTER TECHNOLOGY COMPANY LIMITED IT - Phần cứng Công ty Cổ phần Công nghệ mạng và Truyền thông IT - Phần cứng FPT IS IT - Phần mềm Công ty Cổ phần Hệ thống Công nghệ ETC IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty HCM: 2A Phan Thúc Duyện - P4 - Q Tân Bình; HN: IC Building - 82 Duy Tân - Cầu Giấy Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1863583.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1863583.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>inda.vn), là một trong những doanh nghiệp hàng đầu trong lĩnh vực Công nghệ thông tin, đi tiên phong trong việc cung cấp các giải pháp chuyển đổi số cho doanh nghiệp. Insight Data hoạt động trong nhiều lĩnh vực: Cung cấp giải pháp tích hợp cho hệ thống CNTT; Cung cấp dịch vụ triển khai kho dữ liệu; Dịch vụ outsourcing - cho thuê nhân sự ngành Data, cung cấp bản quyền phần mềm chính hãng và Dịch vụ đào tạo toàn diện phù hợp với mọi phòng ban trong doanh nghiệp,... Được đánh giá là một trong những công ty hàng đầu trong lĩnh vực tích hợp giải pháp CNTT quy mô lớn, Insight Data đang trên đà phát triển vươn lên tầm khu vực lẫn toàn thế giới. Mang trong mình nhiều tiềm lực cũng như khả năng bắt kịp xu thế nhanh chóng và mạnh mẽ, Insight Data đã và đang cùng với đối tác triển khai nhiều dự án quan trọng của các ngân hàng lớn như VPBank, Seabank, Techcombank, Sacombank, WorldBank, .... Insight Data là đối tác tin cậy của nhiều tập đoàn hàng đầu thế giới như Masan, Đạm Phú Mỹ, Novaland, Mutosi, PTI,..... Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Viettel Digital IT - Phần mềm TỔNG CÔNG TY CỔ PHẦN BƯU CHÍNH VIETTEL IT - Phần mềm Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL PHÚ YÊN - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL IT - Phần mềm Tập đoàn FPT IT - Phần mềm Ngân hàng TMCP Hàng Hải Việt Nam (MSB) Ngân hàng TẬP ĐOÀN CÔNG NGHIỆP - VIỄN THÔNG QUÂN ĐỘI Viễn thông Công ty Cổ Phần Rikkeisoft IT - Phần mềm Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5, Tòa A, 47 Nguyễn Tuân, Thanh xuân, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>inda.vn), là một trong những doanh nghiệp hàng đầu trong lĩnh vực Công nghệ thông tin, đi tiên phong trong việc cung cấp các giải pháp chuyển đổi số cho doanh nghiệp. Insight Data hoạt động trong nhiều lĩnh vực: Cung cấp giải pháp tích hợp cho hệ thống CNTT; Cung cấp dịch vụ triển khai kho dữ liệu; Dịch vụ outsourcing - cho thuê nhân sự ngành Data, cung cấp bản quyền phần mềm chính hãng và Dịch vụ đào tạo toàn diện phù hợp với mọi phòng ban trong doanh nghiệp,... Được đánh giá là một trong những công ty hàng đầu trong lĩnh vực tích hợp giải pháp CNTT quy mô lớn, Insight Data đang trên đà phát triển vươn lên tầm khu vực lẫn toàn thế giới. Mang trong mình nhiều tiềm lực cũng như khả năng bắt kịp xu thế nhanh chóng và mạnh mẽ, Insight Data đã và đang cùng với đối tác triển khai nhiều dự án quan trọng của các ngân hàng lớn như VPBank, Seabank, Techcombank, Sacombank, WorldBank, .... Insight Data là đối tác tin cậy của nhiều tập đoàn hàng đầu thế giới như Masan, Đạm Phú Mỹ, Novaland, Mutosi, PTI,..... Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo FPT IS IT - Phần mềm Ngân hàng TMCP Hàng Hải Việt Nam (MSB) Ngân hàng Công ty Cổ phần Tập đoàn HiPT IT - Phần mềm Công Ty Cổ Phần Đầu Tư Thương Mại Và Phát Triển Công Nghệ FSI IT - Phần mềm Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng CÔNG TY CỔ PHẦN SMARTOSC IT - Phần mềm Trung tâm Dịch vụ số MobiFone - Chi nhánh Tổng Công ty Viễn Thông Mobifone IT - Phần mềm FPT Software IT - Phần mềm CÔNG TY TNHH SAMSUNG SDS VIỆT NAM IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5, Tòa A, 47 Nguyễn Tuân, Thanh xuân, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-bao-cao-trung-tam-the/1863452.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-bao-cao-trung-tam-the/1863452.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2208,7 +2208,7 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
-          <t>201-203 Cách Mạng Tháng Tám, Phường 4, Quận 3, Thành phố Hồ Chí Minh, Việt Nam Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN TẬP ĐOÀN KHẢI HOÀN LAND Bất động sản Ngân hàng TMCP Đông Nam Á - SEABANK Ngân hàng NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN QUÂN ĐỘI Ngân hàng Công ty CP Kinh doanh F88 Tài chính NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN VIỆT NAM THỊNH VƯỢNG - CHI NHÁNH HÀ NỘI Ngân hàng Công ty CPDV Trực tuyến Cộng Đồng Việt (VietUnion) Tài chính Ngân Hàng Thương Mại Cổ Phần Thịnh Vượng Và Phát Triển – PGBank Ngân hàng Công ty Tài chính tín dụng tiêu dùng TNHH MB SHINSEI (Mcredit) Tài chính Ngân Hàng TNHH MTV Shinhan Việt Nam Ngân hàng CÔNG TY TÀI CHÍNH TRÁCH NHIỆM HỮU HẠN MỘT THÀNH VIÊN SHINHAN VIỆT NAM - CHI NHÁNH BÌNH DƯƠNG Tài chính Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 201-203 Cách Mạng Tháng Tám, Phường Bàn Cờ, Thành phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>201-203 Cách Mạng Tháng Tám, Phường 4, Quận 3, Thành phố Hồ Chí Minh, Việt Nam Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. GENERALI VIETNAM Bảo hiểm Công Ty TNHH Bảo Hiểm Nhân Thọ AIA (Việt Nam) Bảo hiểm SHINHAN FINANCE Tài chính Công Ty Tài Chính TNHH HD SAISON Tài chính NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN KỸ THƯƠNG VIỆT NAM Ngân hàng NGÂN HÀNG TMCP VIỆT Á - VIETABANK Ngân hàng Woori Bank Vietnam Ngân hàng Ngân Hàng Bảo Việt Ngân hàng Công Ty Cổ Phần Dây Cáp Điện Việt Thái Điện tử / Điện lạnh Công Ty Tài Chính Tổng hợp Cổ Phần Tín Việt Tài chính Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 201-203 Cách Mạng Tháng Tám, Phường Bàn Cờ, Thành phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-tai-chinh-data-analysis/1784960.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-tai-chinh-data-analysis/1784960.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh-data-business-analyst/1862469.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh-data-business-analyst/1862469.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/operations-analyst/1862011.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/operations-analyst/1862011.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-du-lieu-data-engineer/1861439.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-du-lieu-data-engineer/1861439.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/performance-marketing-lead-data-analysis/1717704.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/performance-marketing-lead-data-analysis/1717704.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2746,7 +2746,7 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Fitmar Agency là một công ty chuyên cung cấp dịch vụ Digital marketing đa kênh cho các doanh nghiệp trong lĩnh vực F&amp;B, thời trang, bán lẻ với sứ mệnh đồng hành lâu dài và hướng tới giá trị chuyển đổi số bền vững. Đội ngũ nhân lực trẻ trung và nhiệt huyết với giá trị văn hoá cốt lõi: F (Flexibility) I (Innovative), T (Transcendent), hứa hẹn là môi trường lý tưởng để phát triển cùng lộ trình thăng tiến rõ ràng, minh bạch, cân bằng giữa chuyên môn năng lực và kỹ năng mềm để phá bỏ các giới hạn an toàn và phát triển thành những chuyên gia trong lĩnh vực marketing. Thông tin truy cập: - https://fitmar.vn/ - https://www.tiktok.com/@fitmar.agency?_t=8XQ7eyom0UU&amp;_r=1 - http://www.facebook.com/fitmaragency Tầm nhìn và sứ mệnh: Đồng hành cùng doanh nghiệp vừa và nhỏ với mục tiêu tối ưu chi phí và tăng trưởng doanh thu thông qua các nền tảng chuyển đổi số. Đối với khách hàng: Hỗ trợ vận hành, giám sát, cố vấn chiến lược, thấu hiểu thị trường và tư duy ngành hàng, tạo giá trị và đem lại sự hài lòng, Đối với người tiêu dùng: tạo giá trị cho nền kinh tế số Việt Nam, lan tỏa những sản phẩm dịch vụ tốt đến tay người tiêu dùng. Đối với nhân viên: Tạo ra môi trường phát huy năng lực tư duy, Giúp nhân sự hoàn thiện TRÍ TUỆ - NGHỊ LỰC, tạo ra giá trị cho tổ chức và xã hội. Một tập thể được lắng nghe và tôn trọng, thấu hiểu bản thân, cải tiến quy trình, cải tiến năng lực và tầm nhìn liên tục để có thể phục vụ sứ mệnh tốt đẹp cho nền kinh tế số Việt Nam. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty TNHH Dịch vụ EB (Khối Bán lẻ Thực Phẩm (GO!/Big C, Tops Market, go!) Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo Ban Quản Lý TTTM Crescent Mall Nhà hàng / Khách sạn CÔNG TY TNHH TRUYỀN THÔNG BEE Marketing / Truyền thông / Quảng cáo CÔNG TY CỔ PHẦN TẬP ĐOÀN PELIO Nhà hàng / Khách sạn CÔNG TY CỔ PHẦN CLEVERADS Marketing / Truyền thông / Quảng cáo Tập Đoàn Novaon IT - Phần mềm BÁO ĐIỆN TỬ VNEXPRESS.NET Marketing / Truyền thông / Quảng cáo CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông CHI NHÁNH ĐÀ NẴNG - CÔNG TY CỔ PHẦN CLEVER GROUP Marketing / Truyền thông / Quảng cáo Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty The Sun Building, số 8 đường 66, Thảo Điền, Quận 2 Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Fitmar Agency là một công ty chuyên cung cấp dịch vụ Digital marketing đa kênh cho các doanh nghiệp trong lĩnh vực F&amp;B, thời trang, bán lẻ với sứ mệnh đồng hành lâu dài và hướng tới giá trị chuyển đổi số bền vững. Đội ngũ nhân lực trẻ trung và nhiệt huyết với giá trị văn hoá cốt lõi: F (Flexibility) I (Innovative), T (Transcendent), hứa hẹn là môi trường lý tưởng để phát triển cùng lộ trình thăng tiến rõ ràng, minh bạch, cân bằng giữa chuyên môn năng lực và kỹ năng mềm để phá bỏ các giới hạn an toàn và phát triển thành những chuyên gia trong lĩnh vực marketing. Thông tin truy cập: - https://fitmar.vn/ - https://www.tiktok.com/@fitmar.agency?_t=8XQ7eyom0UU&amp;_r=1 - http://www.facebook.com/fitmaragency Tầm nhìn và sứ mệnh: Đồng hành cùng doanh nghiệp vừa và nhỏ với mục tiêu tối ưu chi phí và tăng trưởng doanh thu thông qua các nền tảng chuyển đổi số. Đối với khách hàng: Hỗ trợ vận hành, giám sát, cố vấn chiến lược, thấu hiểu thị trường và tư duy ngành hàng, tạo giá trị và đem lại sự hài lòng, Đối với người tiêu dùng: tạo giá trị cho nền kinh tế số Việt Nam, lan tỏa những sản phẩm dịch vụ tốt đến tay người tiêu dùng. Đối với nhân viên: Tạo ra môi trường phát huy năng lực tư duy, Giúp nhân sự hoàn thiện TRÍ TUỆ - NGHỊ LỰC, tạo ra giá trị cho tổ chức và xã hội. Một tập thể được lắng nghe và tôn trọng, thấu hiểu bản thân, cải tiến quy trình, cải tiến năng lực và tầm nhìn liên tục để có thể phục vụ sứ mệnh tốt đẹp cho nền kinh tế số Việt Nam. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN TẬP ĐOÀN YEAH1 Marketing / Truyền thông / Quảng cáo CÔNG TY TNHH TRUYỀN THÔNG BEE Marketing / Truyền thông / Quảng cáo CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông CHI NHÁNH TẠI HÀ NỘI - CÔNG TY CỔ PHẦN GỖ AN CƯỜNG Sản xuất Công ty Cổ phần Thế Giới Số (DIGIWORLD) IT - Phần cứng Chi nhánh Công Trình Viettel Cao Bằng - Viettel Construction Viễn thông CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông CÔNG TY CỔ PHẦN CÔNG NGHỆ THÔNG TIN TRUYỀN THÔNG THIÊN HY LONG VIỆT NAM Marketing / Truyền thông / Quảng cáo CÔNG TY CỔ PHẦN CLEVERADS Marketing / Truyền thông / Quảng cáo Ban Quản Lý TTTM Crescent Mall Nhà hàng / Khách sạn Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty The Sun Building, số 8 đường 66, Thảo Điền, Quận 2 Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-cong-nghe-thong-tin-moi-ra-truong/1860449.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-cong-nghe-thong-tin-moi-ra-truong/1860449.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-tu-van-giai-phap-phan-mem/1810584.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-tu-van-giai-phap-phan-mem/1810584.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2960,7 +2960,7 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Hiện FSI là Nhà cung cấp hàng đầu trong lĩnh vực giải pháp, dịch vụ số hóa tài liệu và Tích hợp hệ thống Công nghệ thông tin. FSI là nhà phân phối độc quyền, duy nhất Máy scan Plustek, Kodak, SMA tại thị trường miền Bắc, Nhà phân phối độc quyền máy scan, in khổ A0 của ROWE tại khu vực Đông Dương, Gold Partner của Hp, IBM, Canon, Fujitsu... FSI đã triển khai thành công nhiều dự án số hóa tài liệu, tích hợp hệ thống trọng điểm tại các Bộ, Sở, Ngành của Hà Nội và các tỉnh Sứ mệnh của chúng tôi là: Nghiên cứu, chuyển giao các giải pháp công nghệ tiên tiến trên cơ sở thấu hiểu nhu cầu của khách hàng để cung cấp các giải pháp CNTT thông minh, phù hợp với thực tế, nhằm mang lại giá trị và hiệu quả cao FSI đang hướng tới mục tiêu trở thành Đơn vị cung cấp giải pháp, dịch vụ số hóa tài liệu số 1 tại Việt Nam trước năm 2020 Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Tập đoàn FPT IT - Phần mềm CÔNG TY CỔ PHẦN TẬP ĐOÀN KIDO Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH Sông Hồng Việt ( Sanaky) Sản xuất CÔNG TY CỔ PHẦN THỦY SẢN VÀ THƯƠNG MẠI THUẬN PHƯỚC Nông Lâm Ngư nghiệp Chi nhánh công ty CPDV Ô tô Hàng Xanh tại Hà Nội Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Bán lẻ Kỹ thuật số FPT Bán lẻ - Hàng tiêu dùng - FMCG Công ty cổ phần đầu tư Phát triển Máy Việt Nam Cơ khí CÔNG TY CỔ PHẦN CÔNG NGHIỆP - DỊCH VỤ - THƯƠNG MẠI NGỌC NGHĨA Sản xuất Công ty Cổ phần Thế Giới Số (DIGIWORLD) IT - Phần cứng Công ty TNHH Nhựa Đạt Hòa Sản xuất Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5A – Tòa nhà Lâm Viên – 107A Nguyễn Phong Sắc – Cầu Giấy – Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Hiện FSI là Nhà cung cấp hàng đầu trong lĩnh vực giải pháp, dịch vụ số hóa tài liệu và Tích hợp hệ thống Công nghệ thông tin. FSI là nhà phân phối độc quyền, duy nhất Máy scan Plustek, Kodak, SMA tại thị trường miền Bắc, Nhà phân phối độc quyền máy scan, in khổ A0 của ROWE tại khu vực Đông Dương, Gold Partner của Hp, IBM, Canon, Fujitsu... FSI đã triển khai thành công nhiều dự án số hóa tài liệu, tích hợp hệ thống trọng điểm tại các Bộ, Sở, Ngành của Hà Nội và các tỉnh Sứ mệnh của chúng tôi là: Nghiên cứu, chuyển giao các giải pháp công nghệ tiên tiến trên cơ sở thấu hiểu nhu cầu của khách hàng để cung cấp các giải pháp CNTT thông minh, phù hợp với thực tế, nhằm mang lại giá trị và hiệu quả cao FSI đang hướng tới mục tiêu trở thành Đơn vị cung cấp giải pháp, dịch vụ số hóa tài liệu số 1 tại Việt Nam trước năm 2020 Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty TNHH Dreamtech Việt Nam Điện tử / Điện lạnh CÔNG TY CỔ PHẦN LIÊN DOANH KANGAROO QUỐC TẾ Điện tử / Điện lạnh CÔNG TY TNHH CN CAO SU CHÍNH TÂN VN Sản xuất CÔNG TY CỔ PHẦN CHỨNG KHOÁN VPS - CHI NHÁNH THÀNH PHỐ HỒ CHÍ MINH Chứng khoán CÔNG TY TNHH THƯƠNG MẠI-DỊCH VỤ ĐIỆN MẠNH PHƯƠNG Điện tử / Điện lạnh Chi nhánh Công ty TNHH MM Mega Market (Việt Nam) tại TP Hà Nội Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN THANH TOÁN ĐIỆN TỬ VNPT IT - Phần mềm Công ty Cổ phần Tập đoàn Khoáng sản và Thương mại VQB Sản xuất Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo Công ty Cổ phần Tập đoàn Karofi Điện tử / Điện lạnh Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5A – Tòa nhà Lâm Viên – 107A Nguyễn Phong Sắc – Cầu Giấy – Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-xu-ly-du-lieu-va-hang-bao-hanh/1822540.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-xu-ly-du-lieu-va-hang-bao-hanh/1822540.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-bao-hang-hoa/1856154.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-bao-hang-hoa/1856154.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3174,7 +3174,7 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>thuộc Top 500 nhà bán lẻ hàng đầu Châu Á Thái Bình Dương, Giải thưởng Chất lượng Châu Á Thái Bình Dương, Thương hiệu quốc gia, … Để tiếp tục khẳng định vị thế PNJ tại VN và thế giới, chúng tôi đang mở rộng hệ thống phát triển kinh doanh và cần bổ sung những ứng viên tài năng vào đội ngũ nhân sự chuyên nghiệp của mình. Tại PNJ, sự nghiệp của các bạn sẽ được phát triển cùng với sự lớn mạnh không ngừng của chúng tôi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN MASAN MEATLIFE Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TRÁCH NHIỆM HỮU HẠN BẢO HIỂM NHÂN THỌ MB AGEAS (MB LIFE) Bảo hiểm Công ty Cổ phần Tập đoàn Khoáng sản và Thương mại VQB Sản xuất Công ty cổ phần Tập đoàn BGI Bất động sản Công ty Cổ phần Quốc tế Tam Sơn Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN THUONG MẠI VÀ DỊCH VỤ NGỌC HÀ Thương mại tổng hợp CÔNG TY CỔ PHẦN MAY MẶC BÌNH DƯƠNG Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Tập đoàn ASG Logistics - Vận tải Công ty Cổ phần Truyền thông IRIS IT - Phần mềm CÔNG TY CỔ PHẦN THỜI TRANG SIXDO. Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 170E Phan Đăng Lưu, Phường 3, Phú Nhuận, Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>thuộc Top 500 nhà bán lẻ hàng đầu Châu Á Thái Bình Dương, Giải thưởng Chất lượng Châu Á Thái Bình Dương, Thương hiệu quốc gia, … Để tiếp tục khẳng định vị thế PNJ tại VN và thế giới, chúng tôi đang mở rộng hệ thống phát triển kinh doanh và cần bổ sung những ứng viên tài năng vào đội ngũ nhân sự chuyên nghiệp của mình. Tại PNJ, sự nghiệp của các bạn sẽ được phát triển cùng với sự lớn mạnh không ngừng của chúng tôi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY TNHH KỸ NGHỆ PHÚC ANH Sản xuất CÔNG TY CỔ PHẦN TẬP ĐOÀN KIDO Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Kỹ thuật Công nghiệp Á Châu Sản xuất CÔNG TY CỔ PHẦN TẬP ĐOÀN TRƯỜNG HẢI Sản xuất CÔNG TY CỔ PHẦN MAY MẶC BÌNH DƯƠNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH ĐIỆN MÁY GIA KHANG Điện tử / Điện lạnh NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN BIBICA Sản xuất Liên Hiệp HTX Thương mại TP.HCM (Saigon Co.op) Bán lẻ - Hàng tiêu dùng - FMCG Tập Đoàn Vàng Bạc Đá Quý DOJI Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 170E Phan Đăng Lưu, Phường 3, Phú Nhuận, Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/research-analyst-associate-manager/1774757.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/research-analyst-associate-manager/1774757.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-thong-ke-du-lieu-kho-van/1851788.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-thong-ke-du-lieu-kho-van/1851788.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>- Chế độ thu nhập: không giới hạn, hưởng theo năng lực và kết quả kinh doanh. - Chế độ thưởng sản phẩm dành riêng cho nhân viên tư vấn bán hàng và quản lý ngành hàng. - Phụ cấp khác theo tính chất công việc: điện thoại, xăng xe, đi đường… Các chính sách phúc lợi khác: - Thưởng thành tích, tháng, quý, năm. - Chế độ liên quan đến thưởng ngày nghỉ lễ, tết nguyên Đán, ngày Quốc khánh, ngày Sinh nhật Công ty…. - Chế độ liên quan đến bảo vệ quyền lợi cho người lao động như: Sinh nhật, hiếu, hỉ, ốm đau, kết hôn…. - Khám sức khỏe 1 năm một lần - Chế độ bảo hiểm (xã hội, y tế, thất nghiệp), bảo hiểm tai nạn lao động, bệnh nghề nghiệp, tử tuất theo quy định của luật lao động. - Các chế độ khác liên quan đên việc tổ chức các hoạt động văn hóa, thể thao, văn nghệ của tổ chức công đoàn Công ty… Đào tạo và phát triển: “ VHC cung cấp chương trình đào tạo và phát triển ở tất cả các cấp giúp bạn mài giũa kỹ năng, tiến bộ ở vị trí hiện tại và sẵn sàng cho việc chấp nhận thách thức ở những vị trí cao hơn” Trung tâm đào tạo VHC với đội ngũ hơn 50 giảng viên là các quản lý dày dạn kinh nghiệm cung cấp cho mỗi nhân viên VHC kiến thức và kỹ năng chuyên biệt cho nghề Bán lẻ, cũng như các kỹ năng chuyên môn khác. - Chương trình đào tạo Kỹ năng bán hàng - Chương trình đào tạo Sản phẩm - Chương trình đào tạo Quy trình - Chương trình đào tạo Kỹ năng mềm - Chương trình đào tạo Kỹ năng quản lý - Chương trình liên kết đào tạo với các hãng, nhà cung cấp, các tổ chức đào tạo giúp nhân viên tiếp cận với các kiến thức, tri thức mới. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN MASAN MEATLIFE Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH ROHTO-MENTHOLATUM (VIỆT NAM) Dược phẩm / Y tế / Công nghệ sinh học Công ty TNHH TM&amp;SX Hoàng Mai Sản xuất CÔNG TY CỔ PHẦN SỮA QUỐC TẾ Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN THƯƠNG MẠI IMEXCO VIỆT NAM Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN DỊCH VỤ CÀ PHÊ CAO NGUYÊN - HIGHLAND COFFEE SERVICE JSC Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH THƯƠNG MẠI VÀ VẬN TẢI THÁI TÂN Bán lẻ - Hàng tiêu dùng - FMCG Chi nhánh BMW Lê Văn Lương - Công ty Cổ phần Dịch vụ Vận tải Ô Tô Số 8 Bảo trì / Sửa chữa Liên Hiệp HTX Thương mại TP.HCM (Saigon Co.op) Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Số 399 đường Phạm Văn Đồng, Phường Xuân Đỉnh, Quận Bắc Từ Liêm, Thành phố Hà Nội, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>- Chế độ thu nhập: không giới hạn, hưởng theo năng lực và kết quả kinh doanh. - Chế độ thưởng sản phẩm dành riêng cho nhân viên tư vấn bán hàng và quản lý ngành hàng. - Phụ cấp khác theo tính chất công việc: điện thoại, xăng xe, đi đường… Các chính sách phúc lợi khác: - Thưởng thành tích, tháng, quý, năm. - Chế độ liên quan đến thưởng ngày nghỉ lễ, tết nguyên Đán, ngày Quốc khánh, ngày Sinh nhật Công ty…. - Chế độ liên quan đến bảo vệ quyền lợi cho người lao động như: Sinh nhật, hiếu, hỉ, ốm đau, kết hôn…. - Khám sức khỏe 1 năm một lần - Chế độ bảo hiểm (xã hội, y tế, thất nghiệp), bảo hiểm tai nạn lao động, bệnh nghề nghiệp, tử tuất theo quy định của luật lao động. - Các chế độ khác liên quan đên việc tổ chức các hoạt động văn hóa, thể thao, văn nghệ của tổ chức công đoàn Công ty… Đào tạo và phát triển: “ VHC cung cấp chương trình đào tạo và phát triển ở tất cả các cấp giúp bạn mài giũa kỹ năng, tiến bộ ở vị trí hiện tại và sẵn sàng cho việc chấp nhận thách thức ở những vị trí cao hơn” Trung tâm đào tạo VHC với đội ngũ hơn 50 giảng viên là các quản lý dày dạn kinh nghiệm cung cấp cho mỗi nhân viên VHC kiến thức và kỹ năng chuyên biệt cho nghề Bán lẻ, cũng như các kỹ năng chuyên môn khác. - Chương trình đào tạo Kỹ năng bán hàng - Chương trình đào tạo Sản phẩm - Chương trình đào tạo Quy trình - Chương trình đào tạo Kỹ năng mềm - Chương trình đào tạo Kỹ năng quản lý - Chương trình liên kết đào tạo với các hãng, nhà cung cấp, các tổ chức đào tạo giúp nhân viên tiếp cận với các kiến thức, tri thức mới. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN VĨNH HOÀN Nông Lâm Ngư nghiệp CÔNG TY TNHH DỊCH VỤ VÀ THƯƠNG MẠI MESA Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Cao su Sài Gòn - KYMDAN Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH SX HTD Bình Tiên (Biti's) - Chi nhánh Tiên Phong Bán lẻ - Hàng tiêu dùng - FMCG Chi nhánh BMW Lê Văn Lương - Công ty Cổ phần Dịch vụ Vận tải Ô Tô Số 8 Bảo trì / Sửa chữa CÔNG TY CỔ PHẦN THỰC PHẨM VÀ NƯỚC GIẢI KHÁT NAM VIỆT Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH AEON Việt Nam Bán lẻ - Hàng tiêu dùng - FMCG Liên Hiệp HTX Thương mại TP.HCM (Saigon Co.op) Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN MAY MẶC BÌNH DƯƠNG Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ Phần Thực Phẩm Á Châu Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Số 399 đường Phạm Văn Đồng, Phường Xuân Đỉnh, Quận Bắc Từ Liêm, Thành phố Hà Nội, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-iso/1350663.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-iso/1350663.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-van-hanh-kinh-doanh/1808035.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-van-hanh-kinh-doanh/1808035.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/can-bo-xa-hoi-ma-so-hr-cbxh/1843182.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/can-bo-xa-hoi-ma-so-hr-cbxh/1843182.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-ke-hoach-manh-xu-ly-so-lieu/1838313.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-ke-hoach-manh-xu-ly-so-lieu/1838313.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-danh-gia-hieu-suat/1839194.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-danh-gia-hieu-suat/1839194.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-van-hanh-dich-vu-fpt-play/1836228.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-van-hanh-dich-vu-fpt-play/1836228.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-quan-ly-hieu-suat-kinh-doanh/1835128.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-quan-ly-hieu-suat-kinh-doanh/1835128.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/truong-phong-quan-ly-hieu-suat-kinh-doanh/1835121.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/truong-phong-quan-ly-hieu-suat-kinh-doanh/1835121.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-thong-ke/1831456.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-thong-ke/1831456.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1862735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1862735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4459,7 +4459,7 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần viễn thông FPT Viễn thông Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Công ty Cổ phần Truyền thông IRIS IT - Phần mềm Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông CÔNG TY CỔ PHẦN CÔNG NGHỆ VÀ DỊCH VỤ IMEDIA IT - Phần mềm Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông Công ty cổ phần tư vấn chuyển giao công nghệ ITC Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL BÌNH ĐỊNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông TẬP ĐOÀN CÔNG NGHIỆP - VIỄN THÔNG QUÂN ĐỘI Viễn thông Tập đoàn FPT IT - Phần mềm Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Công ty Cổ phần viễn thông FPT Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm CÔNG TY CỔ PHẦN CÔNG NGHỆ VÀ DỊCH VỤ IMEDIA IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh/1862546.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh/1862546.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4570,7 +4570,7 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông Trung Tâm Nghiên Cứu Và Phát Triển Mobifone - Tổng Công Ty Viễn Thông Mobifone Viễn thông Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Chi nhánh MOBIFONE SERVICE Hà Nội - Công Ty Cổ phần Dịch vụ kỹ thuật MobiFone Viễn thông CÔNG TY CỔ PHẦN CÔNG NGHỆ VÀ DỊCH VỤ IMEDIA IT - Phần mềm Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông Công ty Cổ phần Truyền thông IRIS IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Tập đoàn FPT IT - Phần mềm Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công ty Cổ phần viễn thông FPT Viễn thông Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Công ty Cổ phần Truyền thông IRIS IT - Phần mềm Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Viettel IDC Viễn thông Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
@@ -4578,17 +4578,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Business Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Business Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1480832.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1480809.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4633,12 +4633,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Không yêu cầu</t>
+          <t>2 năm</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Không yêu cầu</t>
+          <t>2 năm</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Chuyên môn Business Analyst (Phân tích nghiệp vụ); Nghỉ thứ 7</t>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Làm việc với các đơn vị có nhu cầu để khảo sát, phân tích và nhận diện và hiểu rõ vấn đề/cơ hội để xây dựng các hệ thống hỗ trợ ra quyết định dựa trên dữ liệu như hệ thống Data Lake, Data Warehouse, hệ thống BI tại các đơn vị. Phối hợp với các bên liên quan để phân tích và làm rõ bài toán, xác định phạm vi, mục tiêu bài toán, mô hình hóa nghiệp vụ Cung cấp giải pháp luồng nghiệp vụ, phối hợp với đội kỹ thuật đánh giá tính khả thi giải pháp Viết các tài liệu phân tích nghiệp vụ, thiết kế giao diện mẫu (prototype) Truyền tải và hỗ trợ các thành viên dự án hiểu và làm đúng theo yêu cầu khách hàng. Tổ chức hướng dẫn, hỗ trợ đào tạo người dùng sử dụng sản phẩm và quản lý được vấn đề của khách hàng về sản phẩm. Chốt thống nhất với khách hàng về yêu cầu bài toán. Quản lý và lưu trữ các yêu cầu thay đổi theo đúng quy trình.</t>
+          <t>Phối hợp với bộ phận Data Scientist và Data Engineer xây dựng các mô hình dữ liệu và báo cáo, phân tích đánh giá kết quả triển khai bài toán phân tích dữ liệu. Xây dựng bộ KPI, cách đo để xác định mức độ thành công của chương trình, dịch vụ hay sản phẩm từ hành vi của khách hàng trên Web/App và các kênh khác (Google Analysis, App Store, Hệ thống quản trị nội bộ, survey người dùng, tương tác mạng xã hội...). Thiết kế, xây dựng các Dashboard, Report cho các đơn vị kinh doanh. Tìm hiểu dữ liệu, thu thập các nguồn dữ liệu, đánh giá và trích xuất các đặc tính dữ liệu. Trực quan hóa các kết quả phân tích dữ liệu. Theo dõi dữ liệu, phân tích kết quả dữ liệu hành vi, xây dựng profile người dùng, dịch vụ, đối tác bằng các công cụ thống kê Tiếp cận dữ liệu từ đa dạng nguồn thông tin và duy trì hệ thống dữ liệu Xác định, phân tích, diễn giải các xu hướng trong một mẫu dữ liệu phức tạp, tìm kiếm các các giá trị dữ liệu Lọc và làm sạch dữ liệu qua các báo cáo, văn bản, và các chỉ số kết quả để điều chỉnh các lỗi code phát sinh.</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Tốt nghiệp đại học loại Khá trở lên, ưu tiên chuyên ngành Công nghệ thông tin, Kỹ sư phần mềm. Đặc biệt ưu tiên các trường Học viện Công nghệ Bưu chính Viễn thông, Đại học Bách khoa Hà Nội,... Tiếng Anh tương đương 650+ TOEIC trở lên Có kiến thức nền tảng CNTT và am hiểu quy trình phát triển phần mềm Kỹ năng điều phối và khảo sát bài toán Kỹ năng phân tích và mô hình nghiệp vụ: UML, Use Case, BPMN Kỹ năng và kiến thức phân tích thiết kế phần mềm: ERD, Activity Diagram, DFD của hệ thống.. Có kiến thức UX (Hiểu được những khái niệm chính và phương pháp, Cách tiếp cận hướng UX trong dự án, có thể đứng ở vai trò người dùng để trải nghiệm sản phẩm) Thành tạo ít nhất một công cụ thiết kế prototype như figma, Axure, Balsamiq... Kỹ năng sử dụng ngôn ngữ SQL Kiến thức về các loại CSDL (RDBMS, NoSQL, ...) Kiến thức về xử lý dữ liệu phân tán, xử lý dữ liệu lớn (Hadoop, Spark) Kỹ năng giao tiếp, thuyết trình, trình bày vấn đề trực quan, ngắn gọn, hiệu quả</t>
+          <t>Tốt nghiệp Đại học loại Khá trở lên từ các chuyên ngành Kinh tế, Khoa học máy tính, và các chuyên ngành liên quan Tiếng Anh tương đương TOEIC 650+ Có ít nhất 02 năm kinh nghiệm làm việc với các mô hình dữ liệu, ưu tiên kinh nghiệm phân tích dữ liệu tài chính, ví điện tử, thương mại điện tử trên mobile Có kinh nghiệm sử dụng các công cụ để thu thập và xử lý dữ liệu. Thành thạo các tác vụ trên các database (SQL) để làm việc với dữ liệu Có kinh nghiệm với ít nhất một trong các công cụ Tableau, Qlik, PowerBI, Google Data Studio. Có kinh nghiệm sử dụng ít nhất một trong hai ngôn ngữ Python, R. Có kinh nghiệm làm việc với Dữ liệu lớn là lợi thế. Nắm vững xác suất thống kê, hiểu biết về học máy là lợi thế.</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4685,17 +4685,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Business Data Analyst</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Business Data Analyst</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1480809.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1480832.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2 năm</t>
+          <t>Không yêu cầu</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2 năm</t>
+          <t>Không yêu cầu</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+          <t>Chuyên môn Business Analyst (Phân tích nghiệp vụ); Nghỉ thứ 7</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Phối hợp với bộ phận Data Scientist và Data Engineer xây dựng các mô hình dữ liệu và báo cáo, phân tích đánh giá kết quả triển khai bài toán phân tích dữ liệu. Xây dựng bộ KPI, cách đo để xác định mức độ thành công của chương trình, dịch vụ hay sản phẩm từ hành vi của khách hàng trên Web/App và các kênh khác (Google Analysis, App Store, Hệ thống quản trị nội bộ, survey người dùng, tương tác mạng xã hội...). Thiết kế, xây dựng các Dashboard, Report cho các đơn vị kinh doanh. Tìm hiểu dữ liệu, thu thập các nguồn dữ liệu, đánh giá và trích xuất các đặc tính dữ liệu. Trực quan hóa các kết quả phân tích dữ liệu. Theo dõi dữ liệu, phân tích kết quả dữ liệu hành vi, xây dựng profile người dùng, dịch vụ, đối tác bằng các công cụ thống kê Tiếp cận dữ liệu từ đa dạng nguồn thông tin và duy trì hệ thống dữ liệu Xác định, phân tích, diễn giải các xu hướng trong một mẫu dữ liệu phức tạp, tìm kiếm các các giá trị dữ liệu Lọc và làm sạch dữ liệu qua các báo cáo, văn bản, và các chỉ số kết quả để điều chỉnh các lỗi code phát sinh.</t>
+          <t>Làm việc với các đơn vị có nhu cầu để khảo sát, phân tích và nhận diện và hiểu rõ vấn đề/cơ hội để xây dựng các hệ thống hỗ trợ ra quyết định dựa trên dữ liệu như hệ thống Data Lake, Data Warehouse, hệ thống BI tại các đơn vị. Phối hợp với các bên liên quan để phân tích và làm rõ bài toán, xác định phạm vi, mục tiêu bài toán, mô hình hóa nghiệp vụ Cung cấp giải pháp luồng nghiệp vụ, phối hợp với đội kỹ thuật đánh giá tính khả thi giải pháp Viết các tài liệu phân tích nghiệp vụ, thiết kế giao diện mẫu (prototype) Truyền tải và hỗ trợ các thành viên dự án hiểu và làm đúng theo yêu cầu khách hàng. Tổ chức hướng dẫn, hỗ trợ đào tạo người dùng sử dụng sản phẩm và quản lý được vấn đề của khách hàng về sản phẩm. Chốt thống nhất với khách hàng về yêu cầu bài toán. Quản lý và lưu trữ các yêu cầu thay đổi theo đúng quy trình.</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Tốt nghiệp Đại học loại Khá trở lên từ các chuyên ngành Kinh tế, Khoa học máy tính, và các chuyên ngành liên quan Tiếng Anh tương đương TOEIC 650+ Có ít nhất 02 năm kinh nghiệm làm việc với các mô hình dữ liệu, ưu tiên kinh nghiệm phân tích dữ liệu tài chính, ví điện tử, thương mại điện tử trên mobile Có kinh nghiệm sử dụng các công cụ để thu thập và xử lý dữ liệu. Thành thạo các tác vụ trên các database (SQL) để làm việc với dữ liệu Có kinh nghiệm với ít nhất một trong các công cụ Tableau, Qlik, PowerBI, Google Data Studio. Có kinh nghiệm sử dụng ít nhất một trong hai ngôn ngữ Python, R. Có kinh nghiệm làm việc với Dữ liệu lớn là lợi thế. Nắm vững xác suất thống kê, hiểu biết về học máy là lợi thế.</t>
+          <t>Tốt nghiệp đại học loại Khá trở lên, ưu tiên chuyên ngành Công nghệ thông tin, Kỹ sư phần mềm. Đặc biệt ưu tiên các trường Học viện Công nghệ Bưu chính Viễn thông, Đại học Bách khoa Hà Nội,... Tiếng Anh tương đương 650+ TOEIC trở lên Có kiến thức nền tảng CNTT và am hiểu quy trình phát triển phần mềm Kỹ năng điều phối và khảo sát bài toán Kỹ năng phân tích và mô hình nghiệp vụ: UML, Use Case, BPMN Kỹ năng và kiến thức phân tích thiết kế phần mềm: ERD, Activity Diagram, DFD của hệ thống.. Có kiến thức UX (Hiểu được những khái niệm chính và phương pháp, Cách tiếp cận hướng UX trong dự án, có thể đứng ở vai trò người dùng để trải nghiệm sản phẩm) Thành tạo ít nhất một công cụ thiết kế prototype như figma, Axure, Balsamiq... Kỹ năng sử dụng ngôn ngữ SQL Kiến thức về các loại CSDL (RDBMS, NoSQL, ...) Kiến thức về xử lý dữ liệu phân tán, xử lý dữ liệu lớn (Hadoop, Spark) Kỹ năng giao tiếp, thuyết trình, trình bày vấn đề trực quan, ngắn gọn, hiệu quả</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-da/1861349.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-da/1861349.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/brand/vus-etsc/tuyen-dung/senior-data-analyst-executive-finance-dept-j1843482.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/brand/vus-etsc/tuyen-dung/senior-data-analyst-executive-finance-dept-j1843482.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-data-analyst-mang-ngan-hang/1763094.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst-mang-ngan-hang/1763094.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-quan-tri-bi/816331.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-quan-tri-bi/816331.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/intern-data-analyst/1840867.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/intern-data-analyst/1840867.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-analyst/1851443.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/business-analyst/1851443.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1855848.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1855848.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-data-analyst/1816350.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-data-analyst/1816350.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-trien-khai-phan-mem/1847907.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-trien-khai-phan-mem/1847907.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5718,7 +5718,7 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>IERP, SERP, ERP cho ngành dịch vụ. Sinnova cung cấp hệ thống phần mềm chuyên sâu như: Quản lý nguồn nhân lực, Kế toán doanh nghiệp, Quản lý quan hệ khách hàng, Quản lý văn phòng, Quản lý bán hàng, quản lý khách sạn... cho phép doanh nghiệp tin học hóa các hoạt động sản xuất kinh doanh tăng khả năng kiểm soát các hoạt động bằng cách cung cấp thông tin kịp thời, chính xác, hiệu quả cho công tác quản lý Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng CÔNG TY CỔ PHẦN THANH TOÁN ĐIỆN TỬ VNPT IT - Phần mềm Trung tâm Dịch vụ số MobiFone - Chi nhánh Tổng Công ty Viễn Thông Mobifone IT - Phần mềm CÔNG TY CỔ PHẦN DỊCH VỤ CÔNG NGHỆ TIN HỌC HPT IT - Phần mềm Viettel Digital IT - Phần mềm Công Ty Cổ Phần Đầu Tư Công Nghệ Hacom IT - Phần cứng Công ty Cổ phần Bán lẻ Kỹ thuật số FPT Bán lẻ - Hàng tiêu dùng - FMCG Tập đoàn công nghệ CMC IT - Phần mềm Công ty Cổ phần Tin học viễn thông Petrolimex IT - Phần mềm Công ty Cổ phần Tập đoàn HiPT IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tòa nhà Sannam, Dịch Vọng Hậu, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>IERP, SERP, ERP cho ngành dịch vụ. Sinnova cung cấp hệ thống phần mềm chuyên sâu như: Quản lý nguồn nhân lực, Kế toán doanh nghiệp, Quản lý quan hệ khách hàng, Quản lý văn phòng, Quản lý bán hàng, quản lý khách sạn... cho phép doanh nghiệp tin học hóa các hoạt động sản xuất kinh doanh tăng khả năng kiểm soát các hoạt động bằng cách cung cấp thông tin kịp thời, chính xác, hiệu quả cho công tác quản lý Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Chi nhánh Công trình Viettel Thái Nguyên- Tổng công ty Cổ phần công trình Viettel Xây dựng CÔNG TY TNHH MITEK VIỆT NAM Xây dựng Tập Đoàn Novaon IT - Phần mềm Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công ty Cổ phần Công nghệ mạng và Truyền thông IT - Phần cứng Công ty Cổ phần MISA IT - Phần mềm Trung tâm Dịch vụ số MobiFone - Chi nhánh Tổng Công ty Viễn Thông Mobifone IT - Phần mềm Công ty CPDV Trực tuyến Cộng Đồng Việt (VietUnion) Tài chính Công ty CP Giải pháp Thanh toán Việt Nam (VNPAY) IT - Phần mềm Panasonic Vietnam Co., Ltd. Sản xuất Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tòa nhà Sannam, Dịch Vọng Hậu, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst-di-lam-ngay/1854735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-di-lam-ngay/1854735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1360605.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=cg0Ih1ieTggUkcyxkeKqcp82me4XRm6HoLGqAApI_1757132539</t>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1360605.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">

--- a/data-files/topcv_data_analyst_jobs.xlsx
+++ b/data-files/topcv_data_analyst_jobs.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/948277.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/948277.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -664,7 +664,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Hanoi Grade-A Office (IT, Marketing, Back Office Department): 36 P. Hoang Cau, Cho Dua, Dong Da, Ha Noi. Review and CSR Office: 2nd Floor, HTP Building, 434 Tran Khat Chan, Hai Ba Trung, Hanoi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Công ty Cổ phần Bán lẻ Kỹ thuật số FPT Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần MISA IT - Phần mềm Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng Công ty CPDV Trực tuyến Cộng Đồng Việt (VietUnion) Tài chính Tổng Công ty Cổ phần Công trình Viettel Xây dựng FPT Software IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 7, tòa nhà Geleximco, 36 phố Hoàng Cầu, Đống Đa, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Hanoi Grade-A Office (IT, Marketing, Back Office Department): 36 P. Hoang Cau, Cho Dua, Dong Da, Ha Noi. Review and CSR Office: 2nd Floor, HTP Building, 434 Tran Khat Chan, Hai Ba Trung, Hanoi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ Phần Rikkeisoft IT - Phần mềm Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng TỔNG CÔNG TY CỔ PHẦN BƯU CHÍNH VIETTEL IT - Phần mềm Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông CÔNG TY CỔ PHẦN SMARTOSC IT - Phần mềm Trung tâm Dịch vụ số MobiFone - Chi nhánh Tổng Công ty Viễn Thông Mobifone IT - Phần mềm Tập đoàn công nghệ CMC IT - Phần mềm CÔNG TY CỔ PHẦN THANH TOÁN ĐIỆN TỬ VNPT IT - Phần mềm FPT Software IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 7, tòa nhà Geleximco, 36 phố Hoàng Cầu, Đống Đa, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-giam-sat-phan-tich-du-lieu-monitoring-data-officer/1863574.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-giam-sat-phan-tich-du-lieu-monitoring-data-officer/1863574.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/truong-nhom-phan-tich-du-lieu-nganh-tai-chinh/1631299.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/truong-nhom-phan-tich-du-lieu-nganh-tai-chinh/1631299.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-nganh-tai-chinh/1631270.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-nganh-tai-chinh/1631270.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/financial-planning-analysis-executive-fpa/1775463.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/financial-planning-analysis-executive-fpa/1775463.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1113,7 +1113,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Top 01 Công ty kinh doanh hiệu quả do Nhịp cầu đầu tư bình chọn. Top 50 thương hiệu Việt Nam giá trị nhất do Brand Finance (Anh) bình chọn. Top 50 Công ty niêm yết tốt nhất Việt Nam (Forbes bình chọn) Top 100 Doanh nghiệp phát triển bền vững tại Việt Nam (CSI100) Digiworld tiếp tục mở rộng hoạt động sang hai ngành hàng đầy tiềm năng là Chăm sóc sức khỏe (Healthcare), tiêu dùng nhanh (FMCG) và thiết bị gia dụng (Home Appliances) Digiworld mang đến cho các thương hiệu giải pháp trọn gói và linh hoạt để nhanh chóng thâm nhập và mở rộng thị trường Việt Nam thông qua 6 dịch vụ giá trị gia tăng: Phân tích thị trường – Marketing – Bán hàng – Hậu cần – Hậu mãi – TMĐT D2C và Quản lý chuỗi cửa hàng. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần MediaMart Việt Nam Thương mại điện tử CÔNG TY CỔ PHẦN SỮA QUỐC TẾ Bán lẻ - Hàng tiêu dùng - FMCG Ban Quản Lý TTTM Crescent Mall Nhà hàng / Khách sạn CHI NHÁNH CÔNG TY CỔ PHẦN TẬP ĐOÀN VÀNG BẠC ĐÁ QUÝ DOJI TẠI ĐÀ NẴNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH THƯƠNG MẠI VÀ VẬN TẢI THÁI TÂN Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH VN ĐẠI PHONG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN SMARTOSC IT - Phần mềm CÔNG TY TNHH ROHTO-MENTHOLATUM (VIỆT NAM) Dược phẩm / Y tế / Công nghệ sinh học Công ty cổ phần đầu tư Phát triển Máy Việt Nam Cơ khí Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 15, Tòa nhà Etown Central, số 11 Đoàn Văn Bơ, Phường 13, Quận 4, Thành Phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Top 01 Công ty kinh doanh hiệu quả do Nhịp cầu đầu tư bình chọn. Top 50 thương hiệu Việt Nam giá trị nhất do Brand Finance (Anh) bình chọn. Top 50 Công ty niêm yết tốt nhất Việt Nam (Forbes bình chọn) Top 100 Doanh nghiệp phát triển bền vững tại Việt Nam (CSI100) Digiworld tiếp tục mở rộng hoạt động sang hai ngành hàng đầy tiềm năng là Chăm sóc sức khỏe (Healthcare), tiêu dùng nhanh (FMCG) và thiết bị gia dụng (Home Appliances) Digiworld mang đến cho các thương hiệu giải pháp trọn gói và linh hoạt để nhanh chóng thâm nhập và mở rộng thị trường Việt Nam thông qua 6 dịch vụ giá trị gia tăng: Phân tích thị trường – Marketing – Bán hàng – Hậu cần – Hậu mãi – TMĐT D2C và Quản lý chuỗi cửa hàng. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công Ty Cổ Phần Vàng Bạc Đá quý Phú Nhuận - PNJ Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ Phần Sơn Hà Sài Gòn Sản xuất TRUNG TÂM Ô TÔ DAESCO-CÔNG TY CP MÁY-THIẾT BỊ DẦU KHÍ ĐÀ NẴNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN BIBICA Sản xuất CÔNG TY CỔ PHẦN CLEVERADS Marketing / Truyền thông / Quảng cáo Công ty Cổ phần Bột Giặt Lix Bán lẻ - Hàng tiêu dùng - FMCG Liên Hiệp HTX Thương mại TP.HCM (Saigon Co.op) Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH TM&amp;SX Hoàng Mai Sản xuất Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Tập Đoàn Vàng Bạc Đá Quý DOJI Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 15, Tòa nhà Etown Central, số 11 Đoàn Văn Bơ, Phường 13, Quận 4, Thành Phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-erp-data-analyst/1856534.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-erp-data-analyst/1856534.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1857623.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1857623.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1856053.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1856053.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/logistics-data-analysis/1642078.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/logistics-data-analysis/1642078.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1852398.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1852398.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-phan-tich-du-lieu-va-xu-ly-don-hang-data-analyst/1852297.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-phan-tich-du-lieu-va-xu-ly-don-hang-data-analyst/1852297.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-nghiep-vu-it-business-analyst-2-nam-kinh-nghiem-thu-nhap-canh-tranh/1851292.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-nghiep-vu-it-business-analyst-2-nam-kinh-nghiem-thu-nhap-canh-tranh/1851292.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-analyst-banking/1812934.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/business-analyst-banking/1812934.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1981,7 +1981,7 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>System Integration, Cloud Services &amp; Software, SVTECH is honored to be trusted to accompany customers who are large organizations in many fields, national enterprises, typically: Viettel, Mobiphone, Vinaphone, VNPT, ACB, VPBank, Techcombank, Sacombank, Ministry of Finance, Ministry of Natural Resources and Environment, EVN, Sawaco, PVOIL, PVEP, Toyota, Ericsson, National University, RMIT University, Vinamilk, Vingroup, etc.. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG Viễn thông Công ty Cổ phần viễn thông FPT Viễn thông Công ty cổ phần tư vấn chuyển giao công nghệ ITC Viễn thông Chi nhánh MOBIFONE SERVICE Hà Nội - Công Ty Cổ phần Dịch vụ kỹ thuật MobiFone Viễn thông Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng VIEN SON COMPUTER TECHNOLOGY COMPANY LIMITED IT - Phần cứng Công ty Cổ phần Công nghệ mạng và Truyền thông IT - Phần cứng FPT IS IT - Phần mềm Công ty Cổ phần Hệ thống Công nghệ ETC IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty HCM: 2A Phan Thúc Duyện - P4 - Q Tân Bình; HN: IC Building - 82 Duy Tân - Cầu Giấy Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>System Integration, Cloud Services &amp; Software, SVTECH is honored to be trusted to accompany customers who are large organizations in many fields, national enterprises, typically: Viettel, Mobiphone, Vinaphone, VNPT, ACB, VPBank, Techcombank, Sacombank, Ministry of Finance, Ministry of Natural Resources and Environment, EVN, Sawaco, PVOIL, PVEP, Toyota, Ericsson, National University, RMIT University, Vinamilk, Vingroup, etc.. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN DỊCH VỤ CÔNG NGHỆ TIN HỌC HPT IT - Phần mềm CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công ty cổ phần tư vấn chuyển giao công nghệ ITC Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL BÌNH ĐỊNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Chi nhánh MOBIFONE SERVICE Hà Nội - Công Ty Cổ phần Dịch vụ kỹ thuật MobiFone Viễn thông Công ty cổ phần Viễn thông VTC Viễn thông Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty HCM: 2A Phan Thúc Duyện - P4 - Q Tân Bình; HN: IC Building - 82 Duy Tân - Cầu Giấy Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1863583.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1863583.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>inda.vn), là một trong những doanh nghiệp hàng đầu trong lĩnh vực Công nghệ thông tin, đi tiên phong trong việc cung cấp các giải pháp chuyển đổi số cho doanh nghiệp. Insight Data hoạt động trong nhiều lĩnh vực: Cung cấp giải pháp tích hợp cho hệ thống CNTT; Cung cấp dịch vụ triển khai kho dữ liệu; Dịch vụ outsourcing - cho thuê nhân sự ngành Data, cung cấp bản quyền phần mềm chính hãng và Dịch vụ đào tạo toàn diện phù hợp với mọi phòng ban trong doanh nghiệp,... Được đánh giá là một trong những công ty hàng đầu trong lĩnh vực tích hợp giải pháp CNTT quy mô lớn, Insight Data đang trên đà phát triển vươn lên tầm khu vực lẫn toàn thế giới. Mang trong mình nhiều tiềm lực cũng như khả năng bắt kịp xu thế nhanh chóng và mạnh mẽ, Insight Data đã và đang cùng với đối tác triển khai nhiều dự án quan trọng của các ngân hàng lớn như VPBank, Seabank, Techcombank, Sacombank, WorldBank, .... Insight Data là đối tác tin cậy của nhiều tập đoàn hàng đầu thế giới như Masan, Đạm Phú Mỹ, Novaland, Mutosi, PTI,..... Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo FPT IS IT - Phần mềm Ngân hàng TMCP Hàng Hải Việt Nam (MSB) Ngân hàng Công ty Cổ phần Tập đoàn HiPT IT - Phần mềm Công Ty Cổ Phần Đầu Tư Thương Mại Và Phát Triển Công Nghệ FSI IT - Phần mềm Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng CÔNG TY CỔ PHẦN SMARTOSC IT - Phần mềm Trung tâm Dịch vụ số MobiFone - Chi nhánh Tổng Công ty Viễn Thông Mobifone IT - Phần mềm FPT Software IT - Phần mềm CÔNG TY TNHH SAMSUNG SDS VIỆT NAM IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5, Tòa A, 47 Nguyễn Tuân, Thanh xuân, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>inda.vn), là một trong những doanh nghiệp hàng đầu trong lĩnh vực Công nghệ thông tin, đi tiên phong trong việc cung cấp các giải pháp chuyển đổi số cho doanh nghiệp. Insight Data hoạt động trong nhiều lĩnh vực: Cung cấp giải pháp tích hợp cho hệ thống CNTT; Cung cấp dịch vụ triển khai kho dữ liệu; Dịch vụ outsourcing - cho thuê nhân sự ngành Data, cung cấp bản quyền phần mềm chính hãng và Dịch vụ đào tạo toàn diện phù hợp với mọi phòng ban trong doanh nghiệp,... Được đánh giá là một trong những công ty hàng đầu trong lĩnh vực tích hợp giải pháp CNTT quy mô lớn, Insight Data đang trên đà phát triển vươn lên tầm khu vực lẫn toàn thế giới. Mang trong mình nhiều tiềm lực cũng như khả năng bắt kịp xu thế nhanh chóng và mạnh mẽ, Insight Data đã và đang cùng với đối tác triển khai nhiều dự án quan trọng của các ngân hàng lớn như VPBank, Seabank, Techcombank, Sacombank, WorldBank, .... Insight Data là đối tác tin cậy của nhiều tập đoàn hàng đầu thế giới như Masan, Đạm Phú Mỹ, Novaland, Mutosi, PTI,..... Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. FPT IS IT - Phần mềm CÔNG TY CỔ PHẦN CÔNG NGHỆ VI MÔ IT - Phần mềm Công ty CP Đầu tư Thương mại và Phát triển Công nghệ FSI - CN HCM IT - Phần mềm Công ty CP Giải pháp Thanh toán Việt Nam (VNPAY) IT - Phần mềm Công Ty TNHH Máy Tính Phú Cường IT - Phần cứng CHI NHÁNH CÔNG TRÌNH VIETTEL PHÚ YÊN - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL IT - Phần mềm TẬP ĐOÀN CÔNG NGHIỆP - VIỄN THÔNG QUÂN ĐỘI Viễn thông Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Tập đoàn FPT IT - Phần mềm CÔNG TY CỔ PHẦN DỊCH VỤ CÔNG NGHỆ TIN HỌC HPT IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5, Tòa A, 47 Nguyễn Tuân, Thanh xuân, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-bao-cao-trung-tam-the/1863452.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-bao-cao-trung-tam-the/1863452.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2208,7 +2208,7 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
-          <t>201-203 Cách Mạng Tháng Tám, Phường 4, Quận 3, Thành phố Hồ Chí Minh, Việt Nam Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. GENERALI VIETNAM Bảo hiểm Công Ty TNHH Bảo Hiểm Nhân Thọ AIA (Việt Nam) Bảo hiểm SHINHAN FINANCE Tài chính Công Ty Tài Chính TNHH HD SAISON Tài chính NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN KỸ THƯƠNG VIỆT NAM Ngân hàng NGÂN HÀNG TMCP VIỆT Á - VIETABANK Ngân hàng Woori Bank Vietnam Ngân hàng Ngân Hàng Bảo Việt Ngân hàng Công Ty Cổ Phần Dây Cáp Điện Việt Thái Điện tử / Điện lạnh Công Ty Tài Chính Tổng hợp Cổ Phần Tín Việt Tài chính Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 201-203 Cách Mạng Tháng Tám, Phường Bàn Cờ, Thành phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>201-203 Cách Mạng Tháng Tám, Phường 4, Quận 3, Thành phố Hồ Chí Minh, Việt Nam Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công Ty Tài Chính Cổ Phần Điện Lực EVN Tài chính Ngân hàng TMCP Quốc Dân Ngân hàng CÔNG TY CỔ PHẦN CHỨNG KHOÁN VPS - CHI NHÁNH THÀNH PHỐ HỒ CHÍ MINH Chứng khoán CÔNG TY CỔ PHẦN ĐẦU TƯ CHÂU Á - THÁI BÌNH DƯƠNG Bất động sản Công Ty Tài Chính TNHH Một Thành Viên Home Credit Việt Nam Tài chính NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN VIỆT NAM THỊNH VƯỢNG - CHI NHÁNH HÀ NỘI Ngân hàng Ngân Hàng Thương Mại Cổ Phần Kiên Long Ngân hàng CÔNG TY CỔ PHẦN CÔNG NGHỆ VI MÔ IT - Phần mềm SHINHAN FINANCE Tài chính Công ty CP Kinh doanh F88 Tài chính Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 201-203 Cách Mạng Tháng Tám, Phường Bàn Cờ, Thành phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-tai-chinh-data-analysis/1784960.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-tai-chinh-data-analysis/1784960.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh-data-business-analyst/1862469.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh-data-business-analyst/1862469.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/operations-analyst/1862011.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/operations-analyst/1862011.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-du-lieu-data-engineer/1861439.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-du-lieu-data-engineer/1861439.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/performance-marketing-lead-data-analysis/1717704.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/performance-marketing-lead-data-analysis/1717704.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2746,7 +2746,7 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Fitmar Agency là một công ty chuyên cung cấp dịch vụ Digital marketing đa kênh cho các doanh nghiệp trong lĩnh vực F&amp;B, thời trang, bán lẻ với sứ mệnh đồng hành lâu dài và hướng tới giá trị chuyển đổi số bền vững. Đội ngũ nhân lực trẻ trung và nhiệt huyết với giá trị văn hoá cốt lõi: F (Flexibility) I (Innovative), T (Transcendent), hứa hẹn là môi trường lý tưởng để phát triển cùng lộ trình thăng tiến rõ ràng, minh bạch, cân bằng giữa chuyên môn năng lực và kỹ năng mềm để phá bỏ các giới hạn an toàn và phát triển thành những chuyên gia trong lĩnh vực marketing. Thông tin truy cập: - https://fitmar.vn/ - https://www.tiktok.com/@fitmar.agency?_t=8XQ7eyom0UU&amp;_r=1 - http://www.facebook.com/fitmaragency Tầm nhìn và sứ mệnh: Đồng hành cùng doanh nghiệp vừa và nhỏ với mục tiêu tối ưu chi phí và tăng trưởng doanh thu thông qua các nền tảng chuyển đổi số. Đối với khách hàng: Hỗ trợ vận hành, giám sát, cố vấn chiến lược, thấu hiểu thị trường và tư duy ngành hàng, tạo giá trị và đem lại sự hài lòng, Đối với người tiêu dùng: tạo giá trị cho nền kinh tế số Việt Nam, lan tỏa những sản phẩm dịch vụ tốt đến tay người tiêu dùng. Đối với nhân viên: Tạo ra môi trường phát huy năng lực tư duy, Giúp nhân sự hoàn thiện TRÍ TUỆ - NGHỊ LỰC, tạo ra giá trị cho tổ chức và xã hội. Một tập thể được lắng nghe và tôn trọng, thấu hiểu bản thân, cải tiến quy trình, cải tiến năng lực và tầm nhìn liên tục để có thể phục vụ sứ mệnh tốt đẹp cho nền kinh tế số Việt Nam. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN TẬP ĐOÀN YEAH1 Marketing / Truyền thông / Quảng cáo CÔNG TY TNHH TRUYỀN THÔNG BEE Marketing / Truyền thông / Quảng cáo CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông CHI NHÁNH TẠI HÀ NỘI - CÔNG TY CỔ PHẦN GỖ AN CƯỜNG Sản xuất Công ty Cổ phần Thế Giới Số (DIGIWORLD) IT - Phần cứng Chi nhánh Công Trình Viettel Cao Bằng - Viettel Construction Viễn thông CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông CÔNG TY CỔ PHẦN CÔNG NGHỆ THÔNG TIN TRUYỀN THÔNG THIÊN HY LONG VIỆT NAM Marketing / Truyền thông / Quảng cáo CÔNG TY CỔ PHẦN CLEVERADS Marketing / Truyền thông / Quảng cáo Ban Quản Lý TTTM Crescent Mall Nhà hàng / Khách sạn Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty The Sun Building, số 8 đường 66, Thảo Điền, Quận 2 Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Fitmar Agency là một công ty chuyên cung cấp dịch vụ Digital marketing đa kênh cho các doanh nghiệp trong lĩnh vực F&amp;B, thời trang, bán lẻ với sứ mệnh đồng hành lâu dài và hướng tới giá trị chuyển đổi số bền vững. Đội ngũ nhân lực trẻ trung và nhiệt huyết với giá trị văn hoá cốt lõi: F (Flexibility) I (Innovative), T (Transcendent), hứa hẹn là môi trường lý tưởng để phát triển cùng lộ trình thăng tiến rõ ràng, minh bạch, cân bằng giữa chuyên môn năng lực và kỹ năng mềm để phá bỏ các giới hạn an toàn và phát triển thành những chuyên gia trong lĩnh vực marketing. Thông tin truy cập: - https://fitmar.vn/ - https://www.tiktok.com/@fitmar.agency?_t=8XQ7eyom0UU&amp;_r=1 - http://www.facebook.com/fitmaragency Tầm nhìn và sứ mệnh: Đồng hành cùng doanh nghiệp vừa và nhỏ với mục tiêu tối ưu chi phí và tăng trưởng doanh thu thông qua các nền tảng chuyển đổi số. Đối với khách hàng: Hỗ trợ vận hành, giám sát, cố vấn chiến lược, thấu hiểu thị trường và tư duy ngành hàng, tạo giá trị và đem lại sự hài lòng, Đối với người tiêu dùng: tạo giá trị cho nền kinh tế số Việt Nam, lan tỏa những sản phẩm dịch vụ tốt đến tay người tiêu dùng. Đối với nhân viên: Tạo ra môi trường phát huy năng lực tư duy, Giúp nhân sự hoàn thiện TRÍ TUỆ - NGHỊ LỰC, tạo ra giá trị cho tổ chức và xã hội. Một tập thể được lắng nghe và tôn trọng, thấu hiểu bản thân, cải tiến quy trình, cải tiến năng lực và tầm nhìn liên tục để có thể phục vụ sứ mệnh tốt đẹp cho nền kinh tế số Việt Nam. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông CHI NHÁNH TẠI HÀ NỘI - CÔNG TY CỔ PHẦN GỖ AN CƯỜNG Sản xuất BÁO ĐIỆN TỬ VNEXPRESS.NET Marketing / Truyền thông / Quảng cáo CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông Công ty TNHH Dịch vụ EB (Khối Bán lẻ Thực Phẩm (GO!/Big C, Tops Market, go!) Bán lẻ - Hàng tiêu dùng - FMCG CHI NHÁNH ĐÀ NẴNG - CÔNG TY CỔ PHẦN CLEVER GROUP Marketing / Truyền thông / Quảng cáo CÔNG TY TNHH TRUYỀN THÔNG BEE Marketing / Truyền thông / Quảng cáo CÔNG TY CỔ PHẦN CLEVERADS Marketing / Truyền thông / Quảng cáo CÔNG TY CỔ PHẦN TẬP ĐOÀN YEAH1 Marketing / Truyền thông / Quảng cáo Tập Đoàn Novaon IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty The Sun Building, số 8 đường 66, Thảo Điền, Quận 2 Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-cong-nghe-thong-tin-moi-ra-truong/1860449.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-cong-nghe-thong-tin-moi-ra-truong/1860449.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-tu-van-giai-phap-phan-mem/1810584.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-tu-van-giai-phap-phan-mem/1810584.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2960,7 +2960,7 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Hiện FSI là Nhà cung cấp hàng đầu trong lĩnh vực giải pháp, dịch vụ số hóa tài liệu và Tích hợp hệ thống Công nghệ thông tin. FSI là nhà phân phối độc quyền, duy nhất Máy scan Plustek, Kodak, SMA tại thị trường miền Bắc, Nhà phân phối độc quyền máy scan, in khổ A0 của ROWE tại khu vực Đông Dương, Gold Partner của Hp, IBM, Canon, Fujitsu... FSI đã triển khai thành công nhiều dự án số hóa tài liệu, tích hợp hệ thống trọng điểm tại các Bộ, Sở, Ngành của Hà Nội và các tỉnh Sứ mệnh của chúng tôi là: Nghiên cứu, chuyển giao các giải pháp công nghệ tiên tiến trên cơ sở thấu hiểu nhu cầu của khách hàng để cung cấp các giải pháp CNTT thông minh, phù hợp với thực tế, nhằm mang lại giá trị và hiệu quả cao FSI đang hướng tới mục tiêu trở thành Đơn vị cung cấp giải pháp, dịch vụ số hóa tài liệu số 1 tại Việt Nam trước năm 2020 Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty TNHH Dreamtech Việt Nam Điện tử / Điện lạnh CÔNG TY CỔ PHẦN LIÊN DOANH KANGAROO QUỐC TẾ Điện tử / Điện lạnh CÔNG TY TNHH CN CAO SU CHÍNH TÂN VN Sản xuất CÔNG TY CỔ PHẦN CHỨNG KHOÁN VPS - CHI NHÁNH THÀNH PHỐ HỒ CHÍ MINH Chứng khoán CÔNG TY TNHH THƯƠNG MẠI-DỊCH VỤ ĐIỆN MẠNH PHƯƠNG Điện tử / Điện lạnh Chi nhánh Công ty TNHH MM Mega Market (Việt Nam) tại TP Hà Nội Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN THANH TOÁN ĐIỆN TỬ VNPT IT - Phần mềm Công ty Cổ phần Tập đoàn Khoáng sản và Thương mại VQB Sản xuất Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo Công ty Cổ phần Tập đoàn Karofi Điện tử / Điện lạnh Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5A – Tòa nhà Lâm Viên – 107A Nguyễn Phong Sắc – Cầu Giấy – Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>Hiện FSI là Nhà cung cấp hàng đầu trong lĩnh vực giải pháp, dịch vụ số hóa tài liệu và Tích hợp hệ thống Công nghệ thông tin. FSI là nhà phân phối độc quyền, duy nhất Máy scan Plustek, Kodak, SMA tại thị trường miền Bắc, Nhà phân phối độc quyền máy scan, in khổ A0 của ROWE tại khu vực Đông Dương, Gold Partner của Hp, IBM, Canon, Fujitsu... FSI đã triển khai thành công nhiều dự án số hóa tài liệu, tích hợp hệ thống trọng điểm tại các Bộ, Sở, Ngành của Hà Nội và các tỉnh Sứ mệnh của chúng tôi là: Nghiên cứu, chuyển giao các giải pháp công nghệ tiên tiến trên cơ sở thấu hiểu nhu cầu của khách hàng để cung cấp các giải pháp CNTT thông minh, phù hợp với thực tế, nhằm mang lại giá trị và hiệu quả cao FSI đang hướng tới mục tiêu trở thành Đơn vị cung cấp giải pháp, dịch vụ số hóa tài liệu số 1 tại Việt Nam trước năm 2020 Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần FSI Việt Nam Điện tử / Điện lạnh Chi nhánh Công trình Viettel Thái Nguyên- Tổng công ty Cổ phần công trình Viettel Xây dựng CÔNG TY CỔ PHẦN XUẤT NHẬP KHẨU BÌNH TÂY (BITEX) Xuất nhập khẩu CÔNG TY TNHH BUREAU VERITAS CONSUMER PRODUCTS SERVICES VIỆT NAM (CHI NHÁNH HÀ NỘI) Tư vấn CÔNG TY CỔ PHẦN TẬP ĐOÀN DẦU KHÍ AN PHA Năng lượng Công ty Cổ phần Cao su Sài Gòn - KYMDAN Bán lẻ - Hàng tiêu dùng - FMCG Công ty CP Cáp điện Thịnh Phát Sản xuất CÔNG TY TNHH BẢO TÍN MINH CHÂU Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Thiết Bị Công Nghiệp Hữu Hồng Điện tử / Điện lạnh Công ty Cổ phần Kỹ thuật Công nghiệp Á Châu Sản xuất Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5A – Tòa nhà Lâm Viên – 107A Nguyễn Phong Sắc – Cầu Giấy – Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-xu-ly-du-lieu-va-hang-bao-hanh/1822540.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-xu-ly-du-lieu-va-hang-bao-hanh/1822540.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-bao-hang-hoa/1856154.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-bao-hang-hoa/1856154.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3174,7 +3174,7 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>thuộc Top 500 nhà bán lẻ hàng đầu Châu Á Thái Bình Dương, Giải thưởng Chất lượng Châu Á Thái Bình Dương, Thương hiệu quốc gia, … Để tiếp tục khẳng định vị thế PNJ tại VN và thế giới, chúng tôi đang mở rộng hệ thống phát triển kinh doanh và cần bổ sung những ứng viên tài năng vào đội ngũ nhân sự chuyên nghiệp của mình. Tại PNJ, sự nghiệp của các bạn sẽ được phát triển cùng với sự lớn mạnh không ngừng của chúng tôi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY TNHH KỸ NGHỆ PHÚC ANH Sản xuất CÔNG TY CỔ PHẦN TẬP ĐOÀN KIDO Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Kỹ thuật Công nghiệp Á Châu Sản xuất CÔNG TY CỔ PHẦN TẬP ĐOÀN TRƯỜNG HẢI Sản xuất CÔNG TY CỔ PHẦN MAY MẶC BÌNH DƯƠNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH ĐIỆN MÁY GIA KHANG Điện tử / Điện lạnh NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN BIBICA Sản xuất Liên Hiệp HTX Thương mại TP.HCM (Saigon Co.op) Bán lẻ - Hàng tiêu dùng - FMCG Tập Đoàn Vàng Bạc Đá Quý DOJI Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 170E Phan Đăng Lưu, Phường 3, Phú Nhuận, Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>thuộc Top 500 nhà bán lẻ hàng đầu Châu Á Thái Bình Dương, Giải thưởng Chất lượng Châu Á Thái Bình Dương, Thương hiệu quốc gia, … Để tiếp tục khẳng định vị thế PNJ tại VN và thế giới, chúng tôi đang mở rộng hệ thống phát triển kinh doanh và cần bổ sung những ứng viên tài năng vào đội ngũ nhân sự chuyên nghiệp của mình. Tại PNJ, sự nghiệp của các bạn sẽ được phát triển cùng với sự lớn mạnh không ngừng của chúng tôi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY TNHH VN ĐẠI PHONG Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Tập đoàn Khoáng sản và Thương mại VQB Sản xuất Công ty Cổ phần Quốc tế Sơn Hà Sản xuất Công ty Cổ Phần Thực Phẩm Dinh Dưỡng Nutifood Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH Bia Carlsberg Việt Nam Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN TẬP ĐOÀN THÀNH NAM Sản xuất Công ty Cổ phần Kỹ thuật Công nghiệp Á Châu Sản xuất TRUNG TÂM Ô TÔ DAESCO-CÔNG TY CP MÁY-THIẾT BỊ DẦU KHÍ ĐÀ NẴNG Bán lẻ - Hàng tiêu dùng - FMCG Công Ty TNHH Trần Việt Phát Logistics - Vận tải CÔNG TY CỔ PHẦN THỦY SẢN VÀ THƯƠNG MẠI THUẬN PHƯỚC Nông Lâm Ngư nghiệp Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 170E Phan Đăng Lưu, Phường 3, Phú Nhuận, Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/research-analyst-associate-manager/1774757.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/research-analyst-associate-manager/1774757.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-thong-ke-du-lieu-kho-van/1851788.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-thong-ke-du-lieu-kho-van/1851788.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>- Chế độ thu nhập: không giới hạn, hưởng theo năng lực và kết quả kinh doanh. - Chế độ thưởng sản phẩm dành riêng cho nhân viên tư vấn bán hàng và quản lý ngành hàng. - Phụ cấp khác theo tính chất công việc: điện thoại, xăng xe, đi đường… Các chính sách phúc lợi khác: - Thưởng thành tích, tháng, quý, năm. - Chế độ liên quan đến thưởng ngày nghỉ lễ, tết nguyên Đán, ngày Quốc khánh, ngày Sinh nhật Công ty…. - Chế độ liên quan đến bảo vệ quyền lợi cho người lao động như: Sinh nhật, hiếu, hỉ, ốm đau, kết hôn…. - Khám sức khỏe 1 năm một lần - Chế độ bảo hiểm (xã hội, y tế, thất nghiệp), bảo hiểm tai nạn lao động, bệnh nghề nghiệp, tử tuất theo quy định của luật lao động. - Các chế độ khác liên quan đên việc tổ chức các hoạt động văn hóa, thể thao, văn nghệ của tổ chức công đoàn Công ty… Đào tạo và phát triển: “ VHC cung cấp chương trình đào tạo và phát triển ở tất cả các cấp giúp bạn mài giũa kỹ năng, tiến bộ ở vị trí hiện tại và sẵn sàng cho việc chấp nhận thách thức ở những vị trí cao hơn” Trung tâm đào tạo VHC với đội ngũ hơn 50 giảng viên là các quản lý dày dạn kinh nghiệm cung cấp cho mỗi nhân viên VHC kiến thức và kỹ năng chuyên biệt cho nghề Bán lẻ, cũng như các kỹ năng chuyên môn khác. - Chương trình đào tạo Kỹ năng bán hàng - Chương trình đào tạo Sản phẩm - Chương trình đào tạo Quy trình - Chương trình đào tạo Kỹ năng mềm - Chương trình đào tạo Kỹ năng quản lý - Chương trình liên kết đào tạo với các hãng, nhà cung cấp, các tổ chức đào tạo giúp nhân viên tiếp cận với các kiến thức, tri thức mới. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN VĨNH HOÀN Nông Lâm Ngư nghiệp CÔNG TY TNHH DỊCH VỤ VÀ THƯƠNG MẠI MESA Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Cao su Sài Gòn - KYMDAN Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH SX HTD Bình Tiên (Biti's) - Chi nhánh Tiên Phong Bán lẻ - Hàng tiêu dùng - FMCG Chi nhánh BMW Lê Văn Lương - Công ty Cổ phần Dịch vụ Vận tải Ô Tô Số 8 Bảo trì / Sửa chữa CÔNG TY CỔ PHẦN THỰC PHẨM VÀ NƯỚC GIẢI KHÁT NAM VIỆT Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH AEON Việt Nam Bán lẻ - Hàng tiêu dùng - FMCG Liên Hiệp HTX Thương mại TP.HCM (Saigon Co.op) Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN MAY MẶC BÌNH DƯƠNG Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ Phần Thực Phẩm Á Châu Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Số 399 đường Phạm Văn Đồng, Phường Xuân Đỉnh, Quận Bắc Từ Liêm, Thành phố Hà Nội, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>- Chế độ thu nhập: không giới hạn, hưởng theo năng lực và kết quả kinh doanh. - Chế độ thưởng sản phẩm dành riêng cho nhân viên tư vấn bán hàng và quản lý ngành hàng. - Phụ cấp khác theo tính chất công việc: điện thoại, xăng xe, đi đường… Các chính sách phúc lợi khác: - Thưởng thành tích, tháng, quý, năm. - Chế độ liên quan đến thưởng ngày nghỉ lễ, tết nguyên Đán, ngày Quốc khánh, ngày Sinh nhật Công ty…. - Chế độ liên quan đến bảo vệ quyền lợi cho người lao động như: Sinh nhật, hiếu, hỉ, ốm đau, kết hôn…. - Khám sức khỏe 1 năm một lần - Chế độ bảo hiểm (xã hội, y tế, thất nghiệp), bảo hiểm tai nạn lao động, bệnh nghề nghiệp, tử tuất theo quy định của luật lao động. - Các chế độ khác liên quan đên việc tổ chức các hoạt động văn hóa, thể thao, văn nghệ của tổ chức công đoàn Công ty… Đào tạo và phát triển: “ VHC cung cấp chương trình đào tạo và phát triển ở tất cả các cấp giúp bạn mài giũa kỹ năng, tiến bộ ở vị trí hiện tại và sẵn sàng cho việc chấp nhận thách thức ở những vị trí cao hơn” Trung tâm đào tạo VHC với đội ngũ hơn 50 giảng viên là các quản lý dày dạn kinh nghiệm cung cấp cho mỗi nhân viên VHC kiến thức và kỹ năng chuyên biệt cho nghề Bán lẻ, cũng như các kỹ năng chuyên môn khác. - Chương trình đào tạo Kỹ năng bán hàng - Chương trình đào tạo Sản phẩm - Chương trình đào tạo Quy trình - Chương trình đào tạo Kỹ năng mềm - Chương trình đào tạo Kỹ năng quản lý - Chương trình liên kết đào tạo với các hãng, nhà cung cấp, các tổ chức đào tạo giúp nhân viên tiếp cận với các kiến thức, tri thức mới. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY TNHH ĐIỆN MÁY GIA KHANG Điện tử / Điện lạnh Công ty Cổ phần Cao su Sài Gòn - KYMDAN Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH XUẤT NHẬP KHẨU PHÁT TRIỂN ĐÔNG DƯƠNG - TẬP ĐOÀN THỂ THAO KINGSPORT Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Tập đoàn ASG Logistics - Vận tải NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN VĨNH HOÀN Nông Lâm Ngư nghiệp CÔNG TY CP LIÊN DOANH KANGAROO QUỐC TẾ - CN MIỀN NAM Điện tử / Điện lạnh Công ty TNHH Thương Mại và Dịch vụ Phát Tiến Bán lẻ - Hàng tiêu dùng - FMCG Công Ty Cổ Phần Chuỗi Thực Phẩm TH Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CP CÔNG NGHỆ THỰC PHẨM CHÂU Á Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Số 399 đường Phạm Văn Đồng, Phường Xuân Đỉnh, Quận Bắc Từ Liêm, Thành phố Hà Nội, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-iso/1350663.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-iso/1350663.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-van-hanh-kinh-doanh/1808035.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-van-hanh-kinh-doanh/1808035.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/can-bo-xa-hoi-ma-so-hr-cbxh/1843182.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/can-bo-xa-hoi-ma-so-hr-cbxh/1843182.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-ke-hoach-manh-xu-ly-so-lieu/1838313.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-ke-hoach-manh-xu-ly-so-lieu/1838313.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-danh-gia-hieu-suat/1839194.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-danh-gia-hieu-suat/1839194.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-van-hanh-dich-vu-fpt-play/1836228.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-van-hanh-dich-vu-fpt-play/1836228.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-quan-ly-hieu-suat-kinh-doanh/1835128.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-quan-ly-hieu-suat-kinh-doanh/1835128.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/truong-phong-quan-ly-hieu-suat-kinh-doanh/1835121.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/truong-phong-quan-ly-hieu-suat-kinh-doanh/1835121.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/nhan-vien-thong-ke/1831456.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-thong-ke/1831456.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1862735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1862735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4459,7 +4459,7 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông Công ty cổ phần tư vấn chuyển giao công nghệ ITC Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL BÌNH ĐỊNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông TẬP ĐOÀN CÔNG NGHIỆP - VIỄN THÔNG QUÂN ĐỘI Viễn thông Tập đoàn FPT IT - Phần mềm Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Công ty Cổ phần viễn thông FPT Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm CÔNG TY CỔ PHẦN CÔNG NGHỆ VÀ DỊCH VỤ IMEDIA IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty cổ phần Viễn thông VTC Viễn thông Hệ thống Bán lẻ Viettel store - Công ty TM &amp; XNK Viettel Viễn thông Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông Chi nhánh Công trình Viettel Phú Thọ - Tổng Công ty CP Công trình Viettel Viễn thông Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG Viễn thông Tập đoàn FPT IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh/1862546.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-kinh-doanh/1862546.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4570,7 +4570,7 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Tập đoàn FPT IT - Phần mềm Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công ty Cổ phần viễn thông FPT Viễn thông Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm Công ty Cổ phần Truyền thông IRIS IT - Phần mềm Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Viettel IDC Viễn thông Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>"FPT Telecom Vùng phủ vươn xa, Kết nối mọi nhà" Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CHI NHÁNH CÔNG TY CỔ PHẦN VIỄN THÔNG FPT Viễn thông Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông Tập đoàn FPT IT - Phần mềm Viettel IDC Viễn thông Hệ thống Bán lẻ Viettel store - Công ty TM &amp; XNK Viettel Viễn thông Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG Viễn thông Chi nhánh Công Trình Viettel Cao Bằng - Viettel Construction Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL BÌNH ĐỊNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 2, tòa nhà FPT, Phố Duy Tân, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1480809.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1480809.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1480832.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1480832.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-da/1861349.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-da/1861349.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/brand/vus-etsc/tuyen-dung/senior-data-analyst-executive-finance-dept-j1843482.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/brand/vus-etsc/tuyen-dung/senior-data-analyst-executive-finance-dept-j1843482.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-data-analyst-mang-ngan-hang/1763094.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst-mang-ngan-hang/1763094.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-quan-tri-bi/816331.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-quan-tri-bi/816331.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/intern-data-analyst/1840867.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/intern-data-analyst/1840867.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-analyst/1851443.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/business-analyst/1851443.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst/1855848.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1855848.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-data-analyst/1816350.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/phan-tich-du-lieu-data-analyst/1816350.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-trien-khai-phan-mem/1847907.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/thuc-tap-sinh-trien-khai-phan-mem/1847907.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5718,7 +5718,7 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>IERP, SERP, ERP cho ngành dịch vụ. Sinnova cung cấp hệ thống phần mềm chuyên sâu như: Quản lý nguồn nhân lực, Kế toán doanh nghiệp, Quản lý quan hệ khách hàng, Quản lý văn phòng, Quản lý bán hàng, quản lý khách sạn... cho phép doanh nghiệp tin học hóa các hoạt động sản xuất kinh doanh tăng khả năng kiểm soát các hoạt động bằng cách cung cấp thông tin kịp thời, chính xác, hiệu quả cho công tác quản lý Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Chi nhánh Công trình Viettel Thái Nguyên- Tổng công ty Cổ phần công trình Viettel Xây dựng CÔNG TY TNHH MITEK VIỆT NAM Xây dựng Tập Đoàn Novaon IT - Phần mềm Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công ty Cổ phần Công nghệ mạng và Truyền thông IT - Phần cứng Công ty Cổ phần MISA IT - Phần mềm Trung tâm Dịch vụ số MobiFone - Chi nhánh Tổng Công ty Viễn Thông Mobifone IT - Phần mềm Công ty CPDV Trực tuyến Cộng Đồng Việt (VietUnion) Tài chính Công ty CP Giải pháp Thanh toán Việt Nam (VNPAY) IT - Phần mềm Panasonic Vietnam Co., Ltd. Sản xuất Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tòa nhà Sannam, Dịch Vọng Hậu, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+          <t>IERP, SERP, ERP cho ngành dịch vụ. Sinnova cung cấp hệ thống phần mềm chuyên sâu như: Quản lý nguồn nhân lực, Kế toán doanh nghiệp, Quản lý quan hệ khách hàng, Quản lý văn phòng, Quản lý bán hàng, quản lý khách sạn... cho phép doanh nghiệp tin học hóa các hoạt động sản xuất kinh doanh tăng khả năng kiểm soát các hoạt động bằng cách cung cấp thông tin kịp thời, chính xác, hiệu quả cho công tác quản lý Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông VIEN SON COMPUTER TECHNOLOGY COMPANY LIMITED IT - Phần cứng Panasonic Vietnam Co., Ltd. Sản xuất Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng Tập đoàn FPT IT - Phần mềm Tổng Công ty Cổ phần Công trình Viettel Xây dựng CÔNG TY CỔ PHẦN THANH TOÁN ĐIỆN TỬ VNPT IT - Phần mềm Công ty Cổ phần Tập đoàn HiPT IT - Phần mềm Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông FPT IS IT - Phần mềm Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tòa nhà Sannam, Dịch Vọng Hậu, Cầu Giấy, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/data-analyst-di-lam-ngay/1854735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-di-lam-ngay/1854735.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1360605.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=sNoYZwfP6vtmLFefv0RldHH7IWfRepj7Cy92kywk_1757133842</t>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1360605.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=w8DlJu5UmQJwn7MLHwPbbwr9L5VZyaVbTLGQkRkf_1757137809</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">

--- a/data-files/topcv_data_analyst_jobs.xlsx
+++ b/data-files/topcv_data_analyst_jobs.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,5566 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>detail_title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>job_url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>company_name_full</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>company_url</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>company_url_from_job</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>salary_list</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>detail_salary</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>address_list</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>detail_location</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>exp_list</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>detail_experience</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>deadline</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>working_addresses</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>working_times</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>desc_mota</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>desc_yeucau</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>desc_quyenloi</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>company_website</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>company_size</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>company_industry</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>company_address</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>company_description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Data Analyst/ Reporting Associate</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SHINHAN FINANCE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/brand/shinhanfinance1/tuyen-dung/data-analyst-reporting-associate-j1884425.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SHINHAN FINANCE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Công ty Cổ phần TOPCV Việt Nam - Chuyên trang tuyển dụng</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/brand/shinhanfinance1?id=198515</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-topcv-viet-nam/105.html</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Tài chính; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1871365.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Công Ty Tài Chính TNHH MTV Mirae Asset</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Công Ty Tài Chính TNHH MTV Mirae Asset</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tai-chinh-tnhh-mtv-mirae-asset/881.html</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tai-chinh-tnhh-mtv-mirae-asset/881.html</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; IT - Phần mềm; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 91 Pasteur, Phường Bến Nghé, Quận 1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Monthly Service Reconciliation: Responsible for reconciling the company’s monthly service transactions, ensuring accuracy and timeliness in reporting. Weekly and Monthly Reports Management: Maintain and operate weekly and monthly reports on business performance, progress, and key business metrics. Request Analysis and Report Creation: Receive requests from Business Units (BU), analyze requirements and business processes, identify relevant data, and build reports on sales channels and underwriting effectiveness. Cross-Check Reports: Support in cross-checking and validating reports from other departments to ensure data consistency and accuracy. Customer Data Verification: Support the process of verifying and validating potential customer data before passing it to the sales teams.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Bachelor‘s degree/higher/equivalent in Information Technology, MIS, Economics or related fields. Proficient in SQL for data retrieval and analysis. At least 2-3 years experience in a similar position, especially in report reconciliation and data analysis. At least 2 years of working experience with design dashboards, analytics reports for the business team. Experience with one of the BI tools such as PowerBI, OBIEE, Cognos,... Preferably working in Financial &amp; Banking institution. Strong analytical, communication, and problem-solving skills. Good demonstration of communication and presentation skills.</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Mirae Asset Finance Company (Vietnam) aims to build a "Professional - Friendly - Effective" working environment. Our strategic objective is to provide a working place with attractive package, growth opportunity, and sustainable development. Attractive packages with 13th salary year-end bonus and a week trip to Korea in order to recognize all your good performance and effort at MAFC. 15 days annual leave. Annual health check, company events. Annual healthcare insurance package from senior level and above. Young and proactive environment; no barriers, no limitation for new idea. Flexible internal career opportunity.</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Business Data Analyst</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Business Data Analyst</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1882652.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>I Can Read</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I Can Read</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/i-can-read/17698.html</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/i-can-read/17698.html</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Chuyên môn Công nghệ thông tin khác; IT - Phần mềm; Giáo dục / Đào tạo; Tiếng Anh Giao tiếp thành thạo</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 98 Bat Nan Street, Binh Trung Tay Ward, Thủ Đức</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1. Dashboard Management - Design, develop, and maintain real-time dashboards for Sales, Service, Marketing, and Operations. - Utilize tools such as Looker Studio, Amazon Quick sight, Excel, and Google Sheets to create visualizations and KPI trackers. - Deliver actionable insights from dashboard data to influence operational improvements and strategic planning. - Continuously update dashboards to reflect current business rules and changing priorities. - Collaborate with cross-functional teams (Head of Performance, Center Manager, MKT Manager, Accounting Department) to refine KPIs for clarity, consistency, and alignment with business goals. 2. Internal System Management (Cenopsys2 - Center Operation System) - Manage and maintain the internal operational system (Cen2) for student management and related business processes. - Ensure data accuracy and integrity by gathering, validating, and updating system data regularly. - Customize and configure system components to optimize workflow and data usability. - Work closely with regional and functional teams to adapt the internal system structure to evolving business needs. - Provide training to local staff on effective system usage and data input to support operational monitoring. 3. Monthly Reporting and Analysis - Prepare and deliver weekly and monthly analysis reports covering Sales, Marketing, Service, and Operations. - Handle ad hoc analysis requests from Head of Performance (Sales and Service), MKT Manager and the Board of Director to support strategic decision-making. - Standardize monthly reporting processes to improve efficiency and accuracy. - Identify risks, uncover growth opportunities, and provide recommendations in reporting deliverables. - Automate repetitive reporting tasks using Excel and Google Sheets to reduce manual workload.</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>● University degree in computer-related fields. ● Fluent in English (All 4 skills). ● Strong interpersonal and team-building skills. ● Time management and organizational abilities. ● Initiative, flexibility, and autonomy. ● Expertise in Excel and Google Sheets scripting and workflow automation ● Experience training teams in Excel and Google Sheets ● Familiarity with SQL/Python and other data visualization tools is a plus. ● Understanding of operational reporting and business process improvement.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>- 12 annual leaves per year - Compulsory Social Insurance - Individual Learning &amp; Development Opportunities - Employee Engagement Activities - Team Building Events - Christmas Party, Annual Party - Happy Birthday Present - 48 hours per week, as per assigned schedule and tasks. - Working location: HeadQuarter.</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu - Senior Business Analyst (Mảng Tài Chính - Ngân Hàng) - 4 Năm Kinh Ng...</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu - Senior Business Analyst (Mảng Tài Chính - Ngân Hàng ) - 4 Năm Kinh Nghiệm - Thu Nhập Lên Đến 50M++</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-senior-business-analyst-mang-tai-chinh-ngan-hang-4-nam-kinh-nghiem-thu-nhap-len-den-50m/1874434.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Công ty Cổ Phần Giải Pháp Quản Lý SSG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Công ty Cổ Phần Giải Pháp Quản Lý SSG</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-giai-phap-quan-ly-ssg/14256.html</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-giai-phap-quan-ly-ssg/14256.html</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30 - 50 triệu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>30 - 50 triệu</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4 năm</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4 năm</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Chuyên môn Business Analyst (Phân tích nghiệp vụ); IT - Phần mềm; Tài chính; Ngân hàng; Tiếng Anh Đọc hiểu</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Số 18 Lê Văn Lương, Yên Hòa, Cầu Giấy, Thanh Xuân</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:30); Sáng thứ 7 theo điều động của PM (nếu phát sinh công việc)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Thu thập, phân tích yêu cầu nghiệp vụ tài chính – ngân hàng; xây dựng BRD, SRS, Use Case/User Story. Phân tích, thiết kế báo cáo quản trị, báo cáo hoạt động, mô hình phân tích đa chiều (BI, DWH, ODS). Xác định nguồn dữ liệu (Core Banking, LOS, CRM...), tham gia Data Profiling, Data Mapping, Data Lineage. Phối hợp với Data Engineer, ETL, BI Developer để chuyển đổi yêu cầu nghiệp vụ thành giải pháp kỹ thuật. Viết test case, tham gia kiểm thử dữ liệu và báo cáo. Quản lý thay đổi yêu cầu, đảm bảo traceability từ business → technical → báo cáo. Chuẩn hóa quy trình, biên soạn và quản lý tài liệu dự án. Giám sát công việc của team, báo cáo tiến độ cho quản lý trực tiếp.</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Bằng cử nhân, tốt nghiệp các ngành Kế toán – Kiểm toán, Hệ thống thông tin quản lý, Công nghệ thông tin, Ngân hàng hoặc các ngành có liên quan khác Có kinh nghiệm về triển khai các hệ thống công nghệ thông tin, các hệ thống ODS, DWH, BI dành cho ngân hàng và công ty tài chính. Có kiến thức về các báo cáo tài chính của ngân hàng, công ty tài chính Có kiến thức về các hệ thống Core (Flexcube, T24) Có kiến thức về SQL và code. Có hoặc đang học các bằng cấp nghiệp vụ (ACCA, CFA, CMA, v.v) hoặc tương đương. Tối thiểu 4 năm kinh nghiệm tại vị trí Business Analyst hoặc tương đương. Tối thiểu 2 năm kinh nghiệm tại vị trí Senior hoặc tương đương. Đã tham gia tối thiểu 1 dự án ETL, DWH của ngân hàng với vai trò BA dữ liệutiếp; Thành thạo tin học văn phòng, biết sử dụng các công cụ phục vụ nghiệp vụ. Tiếng Anh đọc hiểu tài liệu</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>- Lương: 30-50tr ( theo năng lực) - Chế độ nghỉ (nghỉ hàng tuần, phép năm, lễ tết...) - Được hưởng đầy đủ các chế độ BHXH, BHYT, BHTN và các chế độ khác theo quy định Nhà nước - Được đánh giá hiệu quả công việc 06 tháng/lần để làm căn cứ nâng lương, thăng tiến, khen thưởng - Được định hướng và có cơ hội thăng tiến, phát triển sự nghiệp theo nguyện vọng. - Được hưởng các chế độ phúc lợi khác như: Company trip, Team building, các hoạt động tập thể... của Công ty. - Khám sức khỏe định kỳ hàng năm &amp; tham gia bảo hiểm sức khỏe bên ngoài (PVI, Bảo Việt, Bảo Minh,...) - Được tạo điều kiện đào tạo nâng cao kiến thức, kỹ năng về CNTT, kỹ năng mềm,... bằng các hội nghị chuyên đề tại công ty, các khóa học tại các đơn vị đào tạo chuyên nghiệp</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>SSG JSC, gọi tắt là SSG) được thành lập năm 2007, tập trung vào các lĩnh vực tư vấn và triển khai phần mềm quản trị doanh nghiệp tiên tiến trên thế giới, xây dựng hạ tầng, công nghệ và cung cấp các dịch vụ thuê ngoài liên quan đến quản trị, kỹ thuật. SSG được thành lập với trụ sở chính tại TP.HCM. Với đội ngũ nhân viên tư vấn triển khai có trình độ chuyên môn nghiệp vụ cao, nhiều năm kinh nghiệm, SSG đã dần khẳng định được vị thế của mình là một trong những công ty công nghệ hàng đầu Việt Nam triển khai thành công nhiều dự án thuộc loại phức tạp nhất với thời gian ngắn và chi phí đầu tư hợp lý. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Tổng Công ty Mạng lưới Viettel – Chi nhánh Tập đoàn Công nghiệp – Viễn thông Quân đội Viễn thông CÔNG TY CỔ PHẦN CÔNG NGHỆ VI MÔ IT - Phần mềm Công ty cổ phần công nghệ - viễn thông Elcom Viễn thông Công ty Cổ phần Truyền thông IRIS IT - Phần mềm Công Ty TNHH MTV Viễn Thông Quốc Tế FPT Viễn thông Công ty Cổ phần MISA IT - Phần mềm Công ty cổ phần Hạ tầng Viễn thông CMC Telecom Viễn thông Công ty CP Giải pháp Thanh toán Việt Nam (VNPAY) IT - Phần mềm CÔNG TY CỔ PHẦN MÁY TÍNH VĨNH XUÂN IT - Phần mềm Công ty Cổ phần Bán lẻ Kỹ thuật số FPT Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 173A Nguyễn Văn Trỗi, Phường 11, Quận Phú Nhuận, Hồ Chí Minh Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BI Developer (OAS/OBIEE)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BI Developer (OAS/OBIEE)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/bi-developer-oas-obiee/1832070.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FPT IS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FPT IS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/fpt-is/198874.html</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/fpt-is/198874.html</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Tầng 9, Tòa nhà Keangnam Landmark 72, Nam Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Phát triển và tối ưu hóa báo cáo: Thiết kế, phát triển và duy trì các báo cáo BI và dashboard trên nền tảng OAS và OBIEE. Tích hợp dữ liệu: Xây dựng và triển khai quy trình tích hợp dữ liệu từ nhiều nguồn khác nhau vào hệ thống BI. Hỗ trợ người dùng cuối: Cung cấp hỗ trợ kỹ thuật cho người dùng cuối, giúp họ sử dụng báo cáo và dashboard hiệu quả. Tối ưu hiệu suất: Đảm bảo hiệu suất của các báo cáo và dashboard, tối ưu hóa thời gian truy xuất và xử lý dữ liệu.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp Đại học trở lên các chuyên ngành Công nghệ thông tin, Điện tử viễn thông, Công nghệ máy tính, Hệ thống thông tin hoặc các chuyên ngành có liên quan Ít nhất 2 năm kinh nghiệm làm việc với các công cụ BI như OBIEE và OAS. Kinh nghiệm với việc phát triển báo cáo, dashboard, và phân tích dữ liệu trong môi trường BI. Thành thạo SQL và có kinh nghiệm làm việc với cơ sở dữ liệu quan hệ (Oracle, SQL Server, MySQL, v.v.). Kiến thức vững về thiết kế và phát triển báo cáo trong OBIEE, OAS. Kỹ năng phân tích và giải quyết vấn đề tốt. Kỹ năng giao tiếp và làm việc nhóm.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Thu nhập cạnh tranh theo năng lực ứng viên. Lương tháng 13 và thưởng KPI; Tham gia đào tạo nâng cao chuyên môn và kỹ năng dành cho công việc. Tham gia thi chứng chỉ chuyên môn quốc tế do Công ty tài trợ; Tham gia các hoạt động teambuilding, mừng công và nghỉ mát hàng năm; 15 ngày phép/năm và các ngày nghỉ Lễ theo quy định; Bảo hiểm sức khỏe FPTCare cho bản thân và cơ hội mua ưu đãi cho người thân. Khám sức khỏe định kỳ hàng năm; Môi trường trẻ trung, năng động, hoạt động văn hóa tổng hội phong phú. Điều kiện làm việc hiện đại, văn minh; công cụ phần mềm về quản lý và tác nghiệp tiên tiến nhất; Tham gia các hoạt động văn hoá, sự kiện hấp dẫn của Công ty FPT IS và Tập đoàn FPT; Xem xét tăng lương hàng năm; Chế độ hỗ trợ mua nhà, mua xe cho cán bộ nhân viên công nghệ.</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chuyên Viên S&amp;OP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chuyên Viên S&amp;OP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-sop/1879534.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Công Ty Cổ Phần Bông Bạch Tuyết</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Công Ty Cổ Phần Bông Bạch Tuyết</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-bong-bach-tuyet/41162.html</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-bong-bach-tuyet/41162.html</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15 - 25 triệu</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15 - 25 triệu</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Tài chính; Logistic / Vận tải; Kho vận; Tuổi 25 - 45</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: Nhà máy Bông Bạch Tuyết tại Lô B52-53-54/I Đường Số 2E, Khu Công nghiệp Vĩnh Lộc, Xã Vĩnh Lộc A, Bình Chánh</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 7 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1. Hoạch định Kinh doanh &amp; Dự báo Bán hàng. - Lập kế hoạch ngân sách và chỉ tiêu doanh thu theo năm/tháng/kênh/địa bàn. - Phối hợp phòng Sản xuất, Kho vận để xây dựng và cập nhật kế hoạch AOP, nhu cầu hàng hóa theo từng giai đoạn. - Thiết lập, cập nhật và cải tiến quy trình dự báo bán hàng, đảm bảo độ chính xác cao nhất. - Phân tích dữ liệu bán hàng, thị trường, xu hướng tiêu dùng để phục vụ hoạt động dự báo &amp; sản xuất. - Đồng bộ kế hoạch với các bộ phận liên quan để tránh thiếu hàng hoặc tồn kho vượt mức. 2. Phân tích Hiệu quả Kinh doanh. - Theo dõi và phân tích kết quả bán hàng theo ngày/tuần/tháng. - Phân tích hiệu suất đội ngũ bán hàng, đại lý, khách hàng để kịp thời nhận diện rủi ro và đề xuất giải pháp. - Đề xuất cải tiến chính sách, tiêu chuẩn hóa quy trình bán hàng và báo cáo quản trị. 3. Quản lý Vận hành &amp; Hệ thống. - Hỗ trợ vận hành hệ thống DMS/CRM: kiểm tra, hướng dẫn nhập liệu, đào tạo người dùng. - Theo dõi tiến độ sản xuất, tình hình nguyên vật liệu, bao bì đảm bảo đáp ứng nhu cầu thị trường. - Điều phối giữa các phòng ban để đảm bảo hàng hóa được giao đúng tiến độ – đúng số lượng – đúng địa điểm. 4. Hỗ trợ vận hành kinh doanh. - Kiểm soát hợp đồng, đề xuất chi phí, chính sách thưởng – hỗ trợ cho khách hàng/đại lý. - Giám sát lộ trình của NVBH, xử lý hồ sơ thanh toán chi phí công tác và các hoạt động hỗ trợ bán hàng. - Kiểm tra tính tuân thủ chính sách bán hàng và báo cáo vi phạm (nếu có).</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp Đại học chuyên ngành Quản trị Kinh doanh, Kinh tế, Chuỗi cung ứng hoặc liên quan. Có kinh nghiệm từ 2–3 năm ở vị trí tương đương, ưu tiên ứng viên từng làm trong ngành F&amp;B, FMCG, bán lẻ hoặc sản xuất hàng tiêu dùng. Thành thạo Excel, PowerPoint, biết sử dụng phần mềm DMS/CRM là lợi thế. Kỹ năng tư duy logic, phân tích số liệu, giải quyết vấn đề, giao tiếp và phối hợp liên phòng ban tốt. Cẩn thận, chủ động, chịu được áp lực cao.</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Thu nhập hấp dẫn theo năng lực. Lộ trình phát triển nghề nghiệp rõ ràng, tham gia các dự án vận hành và hoạch định chiến lược. Môi trường làm việc chuyên nghiệp – đồng nghiệp hỗ trợ – lãnh đạo đồng hành. Được đào tạo nâng cao về hệ thống, phân tích dữ liệu, S&amp;OP từ các chuyên gia nội bộ và bên ngoài.</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nhân Viên Business Analyst (BA)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nhân Viên Business Analyst ( BA )</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-business-analyst-ba/1441764.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần bệnh viện Thái Thịnh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần bệnh viện Thái Thịnh</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-benh-vien-thai-thinh/20427.html</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-benh-vien-thai-thinh/20427.html</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10 - 30 triệu</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>10 - 30 triệu</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Tiếng Anh Đọc hiểu</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>- Hà Nội: 125 Thái Thịnh, Đống Đa</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 18:30); Nghỉ thứ 7 và chủ nhật</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Làm việc với các bộ phận y tế, kinh doanh, marketing, chăm sóc khách hàng, ... để hiểu business flow và phân tích nghiệp vụ, yêu cầu. Làm việc với đội phát triển phần mềm để truyền đạt yêu cầu người dùng Viết các tài liệu phần mềm: Tài liệu đặc tả yêu cầu khách hàng, Tài liệu thiết kế phần mềm, Tài liệu hướng dẫn, vẽ mockup ... Đảm bảo chất lượng phần mềm và hỗ trợ triển khai Thu thập số liệu, đánh giá của người sử dụng để cải thiện, nâng cao chất lượng ứng dụng.</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Kinh nghiệm làm việc ở vị trí BA từ 2 năm trở lên, đã tham gia dự án từ 10 người trở lên Có khả năng phân tích, tổng hợp, đánh giá và đưa ra giải pháp Có kinh nghiệm viết tài liệu dự án Có thể mô tả yêu cầu, giải pháp rõ ràng, đơn giản và chính xác. Có trách nhiệm trong công việc, có khả năng giao tiếp. Có định hướng rõ ràng, ham học hỏi và có kỹ năng hợp tác làm việc theo nhóm Các ứng viên đã có kinh nghiệm làm việc trong mảng y tế.</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Thưởng hiệu quả công việc + Thưởng cuối năm + Quà Tết + Thưởng 2/9, Tết dương, ... Đầy đủ các chế độ khác: BHYT, BHXH, BHTN... theo quy định của Nhà nước Chế độ nghỉ lễ tết theo quy định Nhà nước Nghỉ mát và du lịch hàng năm theo kế hoạch của công ty. Được đào tạo nâng cao kiến thức, kỹ năng về CNTT, kỹ năng mềm và trình độ chuyên môn, quản lý liên tục bằng các khóa học tại Công ty và các đơn vị đào tạo chuyên nghiệp Được tham gia các hoạt động học tập, giải trí do công ty tổ chức Chế độ lương thưởng, phúc lợi hấp dẫn dành cho nhân viên giỏi và tâm huyết. Nhân viên được nhận việc và đi làm ngay nếu phỏng vấn đạt yêu cầu.</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nhân Viên Xử Lý Dữ Liệu Và Hàng Bảo Hành</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nhân Viên Xử Lý Dữ Liệu Và Hàng Bảo Hành</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-xu-ly-du-lieu-va-hang-bao-hanh/1822540.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH HISENSE VIETNAM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH HISENSE VIETNAM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-hisense-vietnam/140563.html</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-hisense-vietnam/140563.html</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Không yêu cầu</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Không yêu cầu</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Điện / Điện tử / Điện lạnh</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 131- 129, Đường Nguyễn Cơ Thạch, Phường An Lợi Đông, Thủ Đức</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1. Kiểm soát quy trình đổi/trả máy o Thực hiện chính sách đổi/trả máy. o Hỗ trợ nhà cung cấp dịch vụ trong việc yêu cầu đổi/trả máy, xác định vị trí tồn kho của máy mới. o Kiểm tra thông tin máy đổi/trả do nhà cung cấp dịch vụ nhập và sửa lỗi nếu có. o Thực hiện xuất kho máy mới trên hệ thống SAP. o Phân loại và phân tích nguyên nhân gốc của máy đổi/trả, tổ chức cải thiện 3 nguyên nhân hàng đầu để giảm tỷ lệ đổi/trả. 2. Quản lý kho máy trả về o Ghi chép sổ sách máy đổi/trả, giám sát tình trạng máy cũ chưa nhập kho, đảm bảo tổng số máy trả không vượt quá lượng phát sinh trong 3 tháng. o Theo dõi và đảm bảo việc nhập kho máy cũ vào hệ thống SAP đúng quy trình, duy trì sự nhất quán giữa dữ liệu hệ thống và thực tế. o Lập kế hoạch kiểm tra, tân trang, tái bán/thanh lý máy cũ, đảm bảo không vượt quá thời hạn và số ngày luân chuyển dưới 90 ngày. o Giám sát chất lượng công việc kiểm tra/tân trang, đào tạo nhà cung cấp dịch vụ và phê duyệt thanh toán chi phí dịch vụ theo quy định. 3. Xử lý máy trả về o Tìm nguồn người mua/nhà thu mua, quản lý hợp đồng tái bán/thanh lý, gửi yêu cầu tái bán/hủy sản phẩm qua hệ thống KOA. Lập phiếu xuất kho trên SAP và phối hợp với người mua/nhà thu mua nhận hàng. o Phân tích và đối chiếu tính chính xác thông tin đơn hàng trả máy từ nhà cung cấp dịch vụ dựa trên kết quả kiểm tra thực tế, đồng thời điều chỉnh các sai lệch phát hiện được. o Định kỳ hàng tháng tổng hợp và hệ thống hóa hồ sơ, chứng từ (bao gồm sổ sách và hình ảnh) liên quan đến hoạt động tái bán/thanh lý máy, đồng thời cập nhật đầy đủ lên hệ thống đám mây/CRM theo quy định. 4. Quản lý tiêu chuẩn đổi/trả máy o Hiệu chỉnh chính sách đổi/trả theo quy định pháp luật Việt Nam hiện hành o Tối ưu hóa quy trình nghiệp vụ dựa trên thực tiễn vận hành o Phát triển và duy trì hệ thống tài liệu chuẩn (SOP, hướng dẫn thao tác) cùng các công cụ hỗ trợ (bảng kiểm tra, thiết bị quét mã...) đáp ứng yêu cầu nghiệp vụ</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>• Tốt nghiệp Cao đẳng trở lên chuyên ngành Công nghệ Thông tin/Điện tử • Tiếng Trung cơ bản (có thể giao tiếp với người Trung Quốc) Kỹ năng chuyên môn: • Công cụ quản lý: Sử dụng Excel (ít nhất vận dụng được các hàm cơ bản) • Hệ thống phần mềm: Thao tác tốt trên SAP và CRM • Phân tích dữ liệu: Có khả năng thu thập, xử lý và phân tích dữ liệu Kinh nghiệm: • 3+ năm làm việc trong lĩnh vực Dịch vụ hậu mãi của ngành thiết bị gia dụng • 2+ năm kinh nghiệm quản lý linh kiện/sản phẩm đổi trả</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1. Lương &amp; Thưởng o Lương cứng cạnh tranh + thưởng quý o Thưởng cuối năm 2. Bảo Hiểm &amp; Phúc Lợi Y Tế o BHXH, BHYT, BHTN đầy đủ theo luật o Khám sức khỏe định kỳ hàng năm 3. Thời Gian Làm Việc o Giờ làm việc: 8h30-18h00 (nghỉ trưa 1h30p) o 12 ngày phép/năm. 4. Đào Tạo &amp; Phát Triển: Đào tạo kỹ năng chuyên môn</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Executive Assistant Of Ceo (Focus Data)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Executive Assistant Of Ceo (Focus Data)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/executive-assistant-of-ceo-focus-data/1872536.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Công ty Cổ phần Xuất nhập khẩu Bến Tre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Công ty Cổ phần Xuất nhập khẩu Bến Tre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-xuat-nhap-khau-ben-tre/20152.html</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-xuat-nhap-khau-ben-tre/20152.html</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; IT - Phần mềm; Bán lẻ - Hàng tiêu dùng - FMCG; Tài chính; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 63 Cao Thắng, Phường Bàn Cờ, Quận 3</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1. Executive Support Manage CEO’s schedule, organize meetings, and prepare for events. Act as a liaison between CEO, departments, and external partners. Prepare documents, reports, and presentations for key meetings. 2. Data Analysis &amp; Management Collect and consolidate data from departments: Production, Sales, Export, Marketing, Finance. Analyze data such as revenue, cost, inventory, export, KPIs, and market trends to support decision-making. Build dashboards/reports using Excel, Power BI, Tableau. 3. Strategic &amp; Project Support Participate and support CEO in strategic projects of the company. Conduct research and market analysis in agriculture and FMCG to provide strategic insights. Track progress and KPIs of projects overseen or managed by the CEO.</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1. Education Bachelor’s degree in Economics, Business, Finance, Data Analysis, or related fields. 2. Experience At least 5 years of experience as Executive Assistant, Business Analyst, Data Analyst, or equivalent. Experience in FMCG/agriculture/export is a plus. 3. Skills Proficient in MS Office, especially advanced Excel, PowerPoint, Word. Knowledge of Power BI, Tableau, SQL, or other data analysis tools is preferred. Strong analytical, reporting, and data visualization skills. Good English communication and presentation skills. Strong organizational and multitasking skills. Analytical mindset, detail-oriented, and data-driven thinking. Effective communication and cross-functional collaboration skills. High sense of responsibility, confidentiality, proactivity, and adaptability.</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>100% salary during probation period 13+ paid annual leave days + paid birthday leave Participation in social insurance from probation period Group life/health insurance from official employment date Lunch allowance and 13th-month salary Working in a structured, professional, and compliance-focused environment</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Quản Trị &amp; Phân Tích Dữ Liệu (Finance)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Quản Trị &amp; Phân Tích Dữ Liệu ( Finance )</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-quan-tri-phan-tich-du-lieu-finance/1855139.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần Thuận Hải</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần Thuận Hải</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-thuan-hai/198904.html</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-thuan-hai/198904.html</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Chuyên môn Tài chính; Tài chính; Sản xuất</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: Tòa nhà Thuận Hải, KCX Tân Thuận, Quận 7</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); Thứ 7 (từ 08:00 đến 12:00)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1. Data Management (70%) Xây dựng, duy trì và tối ưu hóa hệ thống dữ liệu tập trung, đảm bảo dữ liệu đầy đủ, chính xác và đồng bộ từ nhiều nguồn khác nhau (Oracle, SAP, Misa, Excel...). Tiếp nhận, làm sạch, chuẩn hóa và tích hợp dữ liệu vào cơ sở dữ liệu tập trung, đảm bảo chất lượng dữ liệu đầu vào cao nhất để phục vụ báo cáo và phân tích. Quản lý và tối ưu hóa hệ thống cơ sở dữ liệu nhằm nâng cao hiệu suất và đáp ứng nhu cầu quản trị toàn Tập đoàn. Đánh giá liên tục về bản chất nghiệp vụ, thực tiễn và quy trình thu thập dữ liệu để đề xuất cải tiến để đảm bảo dữ liệu luôn chính xác, kịp thời và đáng tin cậy. 2. Data Analysis (30%) Phân tích dữ liệu hoạt động, tài chính, và vận hành của các đơn vị trong công ty để phát hiện vấn đề, rủi ro và đề xuất giải pháp cải thiện. Thiết kế báo cáo tự động, dashboard, biểu đồ trực quan trên Power BI nhằm hỗ trợ lãnh đạo trong ra quyết định nhanh chóng và hiệu quả. Trình bày báo cáo phân tích một cách rõ ràng, chuyên nghiệp, đồng thời tư vấn chiến lược dựa trên dữ liệu cho các cấp quản lý. Phối hợp với các phòng ban để khảo sát nhu cầu, thu thập yêu cầu nghiệp vụ và đề xuất giải pháp dữ liệu phù hợp. Tham gia hoặc chủ trì dự án phân tích dữ liệu, đảm bảo đúng tiến độ và chất lượng cao.</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1. Tốt nghiệp Đại học trở lên các chuyên ngành Tài chính/ Kế toán và các chuyên ngành liên quan dữ liệu. 2. Có ít nhất 3 năm kinh nghiệm làm Data Analyst các công ty, tập đoàn có kho dữ liệu lớn. Ưu tiên kinh nghiệm quản lý dữ liệu đa nguồn (dữ liệu sản xuất, kinh doanh, tài chính) 3. Kiến thức tư duy và nền tảng về Tài chính và Kế toán. 4. Công cụ: Excel: Thành thạo power query, power pivot, hiểu biết các hàm thông dụng. SQL/Postgresql cấp độ từ Intermediate. Power BI Desktop: Xử thành thạo Power Query, Dax, Visualized. Python, AI: ứng dụng trong quy trình phân tích dữ liệu là lợi thế (không bắt buộc).</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Phụ cấp tiền cơm 30.000 đ / ngày + đài thọ miễn phí cơm trưa; Tham gia đầy đủ BHXH theo quy định, gia tăng bảo hiểm sức khỏe; Thưởng Lễ Tết, thưởng hiệu quả kinh doanh cuối năm (từ 1 – 3 tháng lương tùy vào hoạt động kinh doanh công ty trong năm), lương thâm niên, ...; Khám sức khỏe định kỳ, team building, ...; Được trang bị phòng tập gym, yoga hiện đại, cùng thiết bị hỗ trợ công tác tân tiến, xe đưa rước công tác, ...; Tham gia các chương trình đào tạo công ty tổ chức để nâng cao kỹ năng &amp; nghiệp vụ; Làm việc tại Thuận Hải – công ty cung cấp giải pháp năng lượng lớn nhất Việt Nam (khối tư nhân), môi trường làm việc chuyên nghiệp cùng rất nhiều tiện ích.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Customer Insight Analyst</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Customer Insight Analyst</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/customer-insight-analyst/1875823.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THIẾT BỊ THÔNG MINH O-TECH VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THIẾT BỊ THÔNG MINH O-TECH VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-thiet-bi-thong-minh-o-tech-viet-nam/181564.html</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-thiet-bi-thong-minh-o-tech-viet-nam/181564.html</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Marketing / Quảng cáo; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: Tòa nhà UOA, 6 Tân Trào, phường Tân Phú, Quận 7</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>We are seeking a Customer Insight Analyst who can uncover the needs and desires of our target audience. You will be a key player in shaping our marketing strategies by providing a deep, data-driven understanding of our customers. What You'll Do 1. Data Analysis &amp; Insight Discovery: Use digital listening tools (Social Media, E-commerce, forums, etc.) to collect and analyze customer conversations, comments, and reviews. Analyze consumer behavior, psychology, and market trends to discover valuable insights. Use data analysis tools like Excel (Power Query) and Power BI to process, aggregate, and visualize data. Collaborate with other teams to translate insights into actionable marketing proposals. 2. Market &amp; Competitor Research: Analyze competitors' marketing activities to identify new opportunities and potential threats. 3. Technology Application: Apply AI to efficiently synthesize and interpret data.</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Minimum of 1 years of experience in a similar role (Market Research, Data Analysis, Marketing). Strong analytical mindset with the ability to process and interpret complex data. Proficiency in data analysis and visualization tools (Excel Power Query, Power BI, or similar tools). Proven self-research skills using digital platforms. Deep understanding of consumer psychology, behavior, and market trends. Excellent communication and presentation skills. Experience using AI for data analysis is a strong plus.</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Competitive salary and 13th salary. Active &amp; challenging environment. Social insurance, Health insurance &amp; Unemployment insurance according to regulations of the Law. Sponsored PVI Health Insurance. Team-building &amp; special "discount-price" policy Other attractive benefits as company policy</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1. Máy hút bụi/Robot hút bụi Roborock - Thương hiệu robot hút bụi bán chạy số 1 toàn cầu 2. Máy lọc không khí Levoit - Thương hiệu máy lọc không khí bán chạy số 1 tại Mỹ 3. Máy massage Breo - Thương hiệu hàng đầu thế giới về các sản phẩm chăm sóc sức khỏe và thư giãn cầm tay 4. Camera an ninh/ Camera hành trình Botslab - Thương hiệu toàn cầu phát triển sản phẩm an ninh gia đình thông minh và tiên tiến 5. Tai nghe dẫn truyền xương Mojawa - Thương hiệu tai nghe thể thao thông minh 6. Robot Camera Enabot - Thương hiệu robot camera thông minh giữ nhà dành riêng cho gia đình và thú cưng 7. Máy dọn vệ sinh tự động cho mèo CATLINK – Thương hiệu hàng đầu về sản phẩm chăm sóc mèo thông minh Tầm nhìn: O-Tech kiên định theo đuổi mục tiêu trở thành doanh nghiệp số 1 Việt Nam trong lĩnh vực thiết bị nhà thông minh Smart Home và giải pháp IoT. Sứ mệnh: Với phương châm “Vì cuộc sống hiện đại hơn, tiện nghi hơn”, O-Tech cam kết cung cấp các sản phẩm chất lượng cao, công nghệ tiên tiến phục vụ cuộc sống hàng ngày của mọi người, với chi phí hợp lý nhất và giá trị đem đến cho khách hàng cao nhất. Thông tin liên hệ: Trụ sở chính: Tầng 7, tòa nhà UOA, Số 6 Tân Trào, Phường Tân Mỹ, Thành phố Hồ Chí Minh, Việt Nam Điện thoại: 0902835580 Email: service@o-tech.com.vn Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. TRUNG TÂM Ô TÔ DAESCO-CÔNG TY CP MÁY-THIẾT BỊ DẦU KHÍ ĐÀ NẴNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH THƯƠNG MẠI VHC Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH ROHTO-MENTHOLATUM (VIỆT NAM) Dược phẩm / Y tế / Công nghệ sinh học CÔNG TY CỔ PHẦN TẬP ĐOÀN SƠN HÀ XANH Sản xuất Công ty TNHH Thương Mại và Dịch vụ Phát Tiến Bán lẻ - Hàng tiêu dùng - FMCG Công ty TNHH SANAKY VIỆT NAM Điện tử / Điện lạnh CÔNG TY CỔ PHẦN ĐẦU TƯ SÀI GÒN VRG Điện tử / Điện lạnh CHI NHÁNH CÔNG TY CỔ PHẦN TẬP ĐOÀN VÀNG BẠC ĐÁ QUÝ DOJI TẠI ĐÀ NẴNG Bán lẻ - Hàng tiêu dùng - FMCG CHI NHÁNH CÔNG TRÌNH VIETTEL ĐỒNG NAI - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG Bán lẻ - Hàng tiêu dùng - FMCG Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty CÔNG TY TNHH THIẾT BỊ THÔNG MINH O-TECH VIỆT NAM Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu Kinh Doanh (Data Analyst) - Yêu Cầu Kinh Nghiệm Ngành FMCG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu Kinh Doanh ( Data Analyst ) - Yêu Cầu Kinh Nghiệm Ngành FMCG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-kinh-doanh-data-analyst-yeu-cau-kinh-nghiem-nganh-fmcg/1878777.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN RICHY GROUP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN RICHY GROUP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-richy-group/171586.html</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-richy-group/171586.html</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>18 - 25 triệu</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18 - 25 triệu</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Bán lẻ - Hàng tiêu dùng - FMCG; Tài chính; Ngân hàng</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Tầng 15, tòa nhà Richy, số 5 Nguyễn Xuân Nham, Yên Hòa, Cầu Giấy</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Thu thập, tổng hợp, xử lý dữ liệu về kết quả kinh doanh (doanh thu/chi phí) để cung cấp thông tin phục vụ công tác lập Báo cáo quản trị nội bộ phục vụ Ban Giám đốc, Trưởng các Khối kinh doanh,… xây dựng kế hoạch Phân tích dữ liệu bán hàng theo kênh, ngành hàng, sản phẩm, khu vực để hiểu rõ xu hướng tiêu thụ và hiệu suất của từng mặt hàng của Công ty để đánh giá đầy đủ, khách quan các cơ hội, thách thức, các xu hướng và định vị Công ty. Phân tích chi tiết và toàn diện năng lực nội tại của Công ty, đánh giá năng suất và hiệu quả, lợi thế cạnh tranh và các điểm mạnh, yếu Phân tích, đánh giá doanh thu, chi phí từ các ngành hàng kinh doanh, từ các kênh phân phối và từ các bộ phận benefit/ cost nhằm đưa ra các đề xuất nhằm tối ưu hoá doanh thu, giảm thiểu chi phí phí vận hành, phát hiện ra các cơ hội kinh doanh và tăng các chỉ số sinh lời. Đánh giá các vấn đề, điểm cần cải thiện và đề xuất dựa trên kết quả phân tích Tham gia Xây dựng, giao, điều chỉnh, theo dõi, đánh giá thực hiện kế hoạch kinh doanh cho các kênh, dự án, phòng ban liên quan Chủ động đề xuất xây dựng, cải tiến, hiện đại hóa hệ thống báo cáo, hệ thống quản trị cơ sở dữ liệu tập trung của toàn hệ thống và các chương trình phần mềm, ứng dụng phục vụ công tác lập kế hoạch và báo cáo quản trị; Phối hợp cùng bộ phận Kế toán quản trị để đưa ra các dự báo về tình hình sử dụng ngân sách, hiệu quả hoạt động của công ty… đi kèm các giải pháp khắc phục. Thực hiện các công việc khác theo yêu cầu của Ban Giám đốc.</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Trình độ học vấn: Đại học, Cao đẳng hoặc cao hơn liên quan đến các ngành khoa học dữ liệu, hoặc các ngành kinh tế: tài chính, ngân hàng, kế toán, kinh tế, toán kinh tế, toán tài chính. Tối thiểu 2 năm kinh nghiệm ở vị trí tương đương, đặc biệt là có kinh nghiệm trong mảng xử lý, tổng hợp dữ liệu, lập báo cáo quản trị, phân tích tài chính doanh nghiệp, phân tích kinh doanh tại các Tập đoàn/Doanh nghiệp kinh doanh có cơ sở dữ liệu khách hàng và mạng lưới phân phối lớn Ưu tiên đặc biệt kinh nghiệm tại Big4, Ngân hàng và các công ty nghiên cứu thị trường Nắm vững hoạt động ngành hàng tiêu dùng nhanh (FMCG), có kiến thức về cách vận hành, kênh phân phối... Có kiến thức về phương pháp luận phân tích dữ liệu toán thống kê và phân tích định lượng. Có kiến thức chung về hoạt động quản trị kinh doanh, mô hình kinh doanh Kỹ năng phân tích, kỹ năng lập kế hoạch, thống kê tổng hợp số liệu, tư duy kinh doanh</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Thu nhập: 18-25 tr/tháng ( đàm phán theo kinh nghiệm ) Làm việc trong môi trường năng động, chuyên nghiệp có nhiều cơ hội thăng tiến. Cung cấp trang thiết bị đầy đủ để phục vụ công việc. Chế độ nghỉ phép, BHXH, BHYT, BHTN; bảo hiểm sức khỏe Được hưởng các chính sách phúc lợi theo quy định của công ty. Được đào tạo, nâng cao nghiệp vụ thường xuyên.</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu (Data Analyst)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu ( Data Analyst )</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/1224167.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ FOXAI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ FOXAI</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-cong-nghe-foxai/156905.html</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-cong-nghe-foxai/156905.html</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Tầng 3 Tòa N03-T3, Khu Ngoại Giao Đoàn, Phường Xuân Đỉnh, Bắc Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Thu Thập Dữ Liệu: Thu thập dữ liệu từ nhiều nguồn khác nhau như cơ sở dữ liệu, bảng tính Excel, và các nguồn dữ liệu trực tuyến, bao gồm cả SQL Server và các hệ thống quản lý cơ sở dữ liệu khác. Phân Tích Dữ Liệu: Áp dụng các kỹ thuật phân tích dữ liệu để trích xuất thông tin quan trọng và nhận diện xu hướng, mẫu số và biểu đồ trong dữ liệu. Xây Dựng Báo Cáo: Tạo ra các báo cáo và biểu đồ minh họa dữ liệu bằng Power BI hoặc Tableau để trình bày thông tin một cách rõ ràng và dễ hiểu cho các bên liên quan. Phân Tích Dự Đoán: Thực hiện phân tích dự đoán và mô hình hóa dữ liệu để dự báo xu hướng tương lai và đưa ra đề xuất cải tiến. Hỗ Trợ Ra Quyết Định: Hỗ trợ các bộ phận khác trong việc ra quyết định dựa trên dữ liệu bằng cách cung cấp thông tin và phân tích chính xác và chi tiết. Tối Ưu Hóa Hiệu Suất: Liên tục cải thiện quy trình phân tích dữ liệu và tối ưu hóa hiệu suất sử dụng các công cụ phân tích dữ liệu.</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Trình độ đại học chuyên ngành Khoa học Dữ liệu, Thống kê, Khoa học Máy tính, Tài chính Kế toán hoặc lĩnh vực tương đương. Kinh nghiệm làm việc trong lĩnh vực phân tích dữ liệu và sử dụng Power BI hoặc Tableau ít nhất 2 năm. Sở hữu chứng chỉ liên quan như Microsoft Certified: Data Analyst Associate hoặc Tableau Desktop Certified là một lợi thế. Kiến Thức Về Dữ Liệu: Hiểu biết sâu sắc về các khái niệm về dữ liệu và kinh nghiệm làm việc với các loại dữ liệu khác nhau. Năng khiếu thẩm mỹ: Có năng khiếu thẫm mỹ cao, am hiểu về cách sử dụng và kết hợp màu sắc. Kỹ Năng Kỹ Thuật: Thành thạo trong việc sử dụng các công cụ phân tích dữ liệu như Power BI hoặc Tableau và có khả năng xây dựng các báo cáo và biểu đồ phức tạp. Kiến thức vững về SQL Server và truy vấn SQL. Am hiểu về hàm và cách xử lý dữ liệu trên Excel. Hiểu biết thêm các phần mềm trực quan hóa dữ liệu trên mã nguồn mở là một lợi thế. Kỹ Năng giao tiếp, thuyết trình: Kỹ năng giao tiếp mạnh mẽ và khả năng diễn giải dữ liệu phức tạp một cách dễ hiểu cho người không chuyên. Tinh Thần Nghiên Cứu: Khả năng tiếp cận và nghiên cứu các công nghệ, phương pháp và xu hướng mới trong lĩnh vực phân tích dữ liệu. Kỹ Năng Tự Học: Khả năng tự học và phát triển kỹ năng mới trong lĩnh vực phân tích dữ liệu.</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>- Lương thỏa thuận theo kinh nghiệm và năng lực. - Tháng lương thứ 13. - Thưởng dự án theo các dự án tham gia. - Đặc biệt chia cổ tức cho cán bộ nhân viên theo lợi nhuận của công ty. - Tham gia các khóa đào tạo kỹ năng mềm phục vụ cho công việc. - Thưởng các dịp lễ, Tết và team building hàng năm. - Xét duyệt tăng lương 2 lần/năm. - Được hưởng đầy đủ BHXH, BHYT và BHTN theo luật lao động Việt Nam hiện hành. - Được làm việc trong một môi trường trẻ trung, năng động cùng với các chuyên gia hàng đầu trong nhiều lĩnh vực của công ty để học hỏi và phát triển hàng ngày. - Cơ hội làm việc với các tập đoàn lớn: Tham gia các dự án lớn, làm việc với các khách hàng và đối tác uy tín trong ngành công nghệ trong và ngoài nước.</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Data Analyst (Lương Upto 20M) Tại Hà Nội - Đi Làm Ngay</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Data Analyst (Lương Upto 20M) Tại Hà Nội - Đi Làm Ngay</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-luong-upto-20m-tai-ha-noi-di-lam-ngay/1872856.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần công nghệ Betasoft</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần công nghệ Betasoft</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-cong-nghe-betasoft/104670.html</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-cong-nghe-betasoft/104670.html</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Tới 20 triệu</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Tới 20 triệu</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Không yêu cầu</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Không yêu cầu</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Tầng 2, Tòa Nhà AC Building, 78 Duy Tân, Cầu Giấy</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Khai thác và phân tích dữ liệu từ kho dữ liệu để tìm ra xu hướng. Làm việc với các phòng ban nhằm xác định nhu cầu dữ liệu, đưa ra các đề xuất và giải pháp dựa trên dữ liệu đã phân tích. Nghiên cứu thị trường, cập nhật các xu hướng của ngành lập trình ứng dụng. Phối hợp với các kỹ sư dữ liệu nhằm tối ưu hoá việc thu thập, lưu trữ, xử lý dữ liệu đồng thời nâng cao tính chính xác của dữ liệu. Xây dựng hệ thống report tự động thông qua các công cụ BI. Xây dựng các mô hình thống kê, dự báo nhằm cải thiện các hoạt động kinh doanh. Xây dựng hệ thống KPI phục vụ theo dõi hiệu quả hoạt động kinh doanh. Tư vấn cho Ban lãnh đạo về tình hình, định hướng và giải pháp nhằm đáp ứng hiệu quả kinh doanh.</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Có ít nhất 01 năm kinh nghiệm trong lĩnh vực Data Analyst / Business Analyst hoặc Business Intelligence Thành thạo Excel và có kinh nghiệm sử dụng một trong các công cụ trực quan hoá dữ liệu ( như SQL, PowerBI, Data Studio, Tableau..) Ưu tiên đã từng làm việc với Google Analytics, Firebase Tư duy logic có hệ thống, có kỹ năng giải quyết vấn đề mạnh mẽ, làm việc có tổ chức và tư duy dựa trên dữ liệu Kỹ năng sử dụng các công cụ visualize để chuyển hóa dữ liệu thành graphics Tư duy nhanh nhẹn, linh hoạt, thích ứng nhanh đam mê phân tích dữ liệu và giải quyết các vấn đề kinh doanh thông qua dữ liệu.. Ứng viên có thể học hỏi nhanh chóng các kiến thức và domain mới là một điểm cộng. Ưu tiên ứng viên có khả năng đọc hiểu tài liệu bằng tiếng Anh.</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Mức Lương Upto 20M, thỏa thuận theo năng lực. Xét tăng lương 2 lần/năm Lương tháng thứ 13, thưởng hiệu suất kinh doanh 2 lần/năm, quà tặng (tiền thưởng) vào các ngày Lễ Tết (Tết dương lịch, Quốc khánh, 30/04-01/05, Trung thu, Tết thiếu nhi... Cơ hội thăng tiến và trở thành thành viên key tại công ty cũng như nâng cao thu nhập cho người có năng lực, tâm huyết và gắn bó lâu dài. Miễn phí gửi xe máy tháng, cung cấp trang thiết bị hiện đại phục vụ cho công việc Các hoạt động teambuilding, company trip và hoạt động gắn kết nội bộ khác: các ngày lễ cho cán bộ nhân viên nữ (8/3, 20/10), quà tết âm lịch, 1/6 cho con của các cán bộ nhân viên .... Gửi xe miễn phí, tea-break hàng tuần Các chế độ về bảo hiểm xã hội, bảo hiểm y tế, và các chế độ khác theo quy định của Pháp luật.</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Data Analyst/BI Developer</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Data Analyst /BI Developer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-bi-developer/1868884.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH CÔNG NGHỆ EZCLOUD TOÀN CẦU</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH CÔNG NGHỆ EZCLOUD TOÀN CẦU</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-cong-nghe-ezcloud-toan-cau/4952.html</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-cong-nghe-ezcloud-toan-cau/4952.html</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8 - 12 triệu</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8 - 12 triệu</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Dưới 1 năm</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Dưới 1 năm</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; IT - Phần mềm; Nhà hàng / Khách sạn; Du lịch; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Tầng 8, tòa Ladeco, số 266 Đội Cấn, Ba Đình</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 18:00)</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Phát triển &amp; Quản lý Dashboard/Reports Thiết kế, phát triển và duy trì dashboard BI (Power BI, Tableau, Looker, Qlik) Xây dựng báo cáo vận hành (Operational), báo cáo chiến lược (Executive), và báo cáo phân tích (Analytical). Đảm bảo báo cáo có tính trực quan, dễ hiểu, và đáp ứng yêu cầu business. 2. Phân tích dữ liệu Làm việc với các phòng ban để hiểu nhu cầu phân tích và KPI cần theo dõi Chuyển đổi nhu cầu business thành yêu cầu dữ liệu &amp; chỉ số đo lường. Thực hiện phân tích ad-hoc, đưa ra insight, đề xuất cải thiện hoạt động. 3. Data Modeling &amp; Semantic Layer Thiết kế data model (star schema, snowflake) phục vụ trực quan hóa. Tạo semantic model (Power BI semantic model) để chuẩn hóa KPI, measure,… Viết và tối ưu DAX phục vụ tính toán KPI. 4. Đảm bảo Chất lượng &amp; Quản trị Kiểm tra và đối chiếu dữ liệu giữa source – DWH – dashboard. Phối hợp với Data Engineer để đảm bảo pipeline dữ liệu đầy đủ &amp; chính xác. Tuân thủ data governance (naming convention, bảo mật, phân quyền). 5. Hỗ trợ &amp; Training Đào tạo người dùng (end-users) cách sử dụng dashboard, self-service BI. Tạo documentation cho dashboard/report và chỉ số KPI.</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Có kinh nghiệm làm việc từ 6 tháng tại vị trí DA/BI Có hiểu biết về SQL và Power BI Thành thạo ít nhất 1 trong các công cụ BI: Power BI (ưu tiên), Tableau, Looker. Kỹ năng SQL nâng cao, hiểu biết về data modeling (star schema, snowflake). Có khả năng trực quan hóa dữ liệu tốt (data visualization, storytelling). Biết Python/R để phân tích nâng cao là lợi thế.</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Thời gian làm việc: Thứ 2 – Thứ 6. Nghỉ Thứ 7, Chủ nhật. Nghỉ phép, nghỉ Lễ Tết, đóng BHXH, BHYT, BHTN theo quy định của Luật lao động Review lương định kỳ 1 lần/năm hoặc tùy theo kết quả thực hiện công việc Khám sức khỏe định kỳ tại bệnh viện tiêu chuẩn quốc tế</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Tầng 08 tòa nhà LADECO, 266 Đội Cấn, Ba Đình, Thành Phố Hà Nội, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Tầng 08 tòa nhà LADECO, 266 Đội Cấn, Ba Đình, Thành Phố Hà Nội, Hà Nội</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu (Data Analyst)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu ( Data Analyst )</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/1881605.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Công ty Cp Công nghệ và Truyền thông Dagoras</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Công ty Cp Công nghệ và Truyền thông Dagoras</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-cp-cong-nghe-va-truyen-thong-dagoras/64043.html</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-cp-cong-nghe-va-truyen-thong-dagoras/64043.html</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10 - 25 triệu</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10 - 25 triệu</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Tuổi 24 - 30</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Cầu Giấy</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:30); + 2 ngày thứ 7/ tháng</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Phân tích dữ liệu &amp; hành vi người dùng trên hệ thống để hiểu được insight các tập khách hàng và ngành hàng. Vận hành và tối ưu các luồng dữ liệu trong công ty, đồng thời phối hợp với các bộ phận (Phòng Kinh doanh, Phòng Marketing, Bộ phận Kỹ thuật...) khác để phát triển sản phẩm/ chính sách mới. Trực tiếp xây dựng hệ thống báo cáo phục vụ cho hoạt động kinh doanh, tối ưu hóa và tự động hóa hệ thống báo cáo. Theo dõi số liệu kinh doanh hằng ngày và phối hợp để đưa ra quyết định và các giải pháp phù hợp để tối ưu hiệu quả kinh doanh.</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Có kinh nghiệm làm ở vị trí tương tự từ 1 năm trở lên Sử dụng thành thạo SQL và công cụ báo cáo Tư duy logic, nhạy bén với dữ liệu. Có hiểu biết về kinh doanh, công nghệ - tài chính, viễn thông,... Có kinh nghiệm về việc phát triển sản phẩm. Trình độ Đại học trở lên, ưu tiên chuyên ngành Kinh tế, Tài chính, Ngân hàng, Marketing,.. Thông thạo tin học văn phòng: Word, Excel, PowerPoint,... Có kĩ năng làm việc nhóm và độc lập. Nhanh nhẹn, ham học hỏi, chủ động, thẳng thắn và có tinh thần trách nhiệm cao</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Mức lương theo năng lực Nghỉ phép 12 ngày/năm, nghỉ ốm/nghỉ chế độ thai sản/hiếu hỉ... theo quy định pháp luật lao động, bảo hiểm xã hội; Du lịch hàng năm, team building, event. Được tài trợ, tham gia các khóa đào tạo kỹ năng, chuyên môn hàng năm, thi lấy chứng chỉ để phục vụ cho công việc. Review đánh giá tăng lương 2 lần/ năm; Có khả năng phát triển bản thân, định hướng phát triển công việc lâu dài; Môi trường trẻ, năng động, chuyên nghiệp, được khuyến khích sáng tạo và phát triển các ý tưởng mới, sếp trẻ tâm lý, đồng nghiệp thân thiện, văn hóa trao đổi thẳng thắn, cởi mở trên tinh thần hỗ trợ cùng phát triển; Học hỏi kinh nghiệm trực tiếp từ các Senior, chuyên gia giàu kinh nghiệm;</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1869890.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN AN NINH MẠNG VIETTEL</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN AN NINH MẠNG VIETTEL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-mot-thanh-vien-an-ninh-mang-viettel/227595.html</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-mot-thanh-vien-an-ninh-mang-viettel/227595.html</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Keangnam Landmark 72, Phạm Hùng, Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 09:00 đến 18:30); Flexible time: - Checkin: 8h30-9h - Checkout: 18h-18h30</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Phân tích dữ liệu vận hành của hệ thống giám sát An toàn thông tin nhằm phát hiện bất thường, tối ưu quy trình xử lý và nâng cao chất lượng dịch vụ Giám sát. Phối hợp chặt chẽ với Data Scientist và Data Engineer để xây dựng mô hình phân tích, triển khai báo cáo chuyên sâu, đánh giá hiệu quả của các giải pháp dữ liệu. Xây dựng bộ KPI và các phương pháp đo lường hiệu quả cho hoạt động giám sát An toàn thông tin (dựa trên log hệ thống, dữ liệu cảnh báo, hành vi người dùng, chỉ số vận hành dịch vụ...). Thiết kế và triển khai Dashboard, Report cho Ban lãnh đạo và các đơn vị vận hành nhằm hỗ trợ ra quyết định nhanh chóng và chính xác. Thu thập, chuẩn hóa, làm sạch và trực quan hóa dữ liệu từ nhiều nguồn (log hệ thống, công cụ SIEM/SOAR, dữ liệu giám sát mạng, survey nội bộ, nguồn OSINT...). Phân tích xu hướng dữ liệu, xây dựng profile về hệ thống, người dùng và dịch vụ; đưa ra insight để cải thiện vận hành SOC và nâng cao chất lượng cung cấp dịch vụ ATTT. Hỗ trợ nhận diện các điểm nghẽn trong quy trình vận hành, đề xuất giải pháp tự động hóa hoặc tối ưu quy trình dựa trên dữ liệu.</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp Đại học loại Khá trở lên các chuyên ngành: Khoa học máy tính, An toàn thông tin, Kinh tế, Toán – Thống kê, hoặc các ngành liên quan. Có ít nhất 03 năm kinh nghiệm trong phân tích dữ liệu, ưu tiên ứng viên từng làm trong lĩnh vực tài chính, viễn thông, thương mại điện tử hoặc an toàn thông tin. Thành thạo SQL và có kinh nghiệm làm việc với các hệ quản trị CSDL. Có kinh nghiệm sử dụng một trong các công cụ BI/Visualization: Tableau, Power BI, Qlik, Google Data Studio. Có kỹ năng lập trình với Python hoặc R để xử lý, phân tích dữ liệu. Hiểu biết xác suất thống kê, mô hình phân tích dữ liệu; kinh nghiệm về Machine Learning, Big Data, xử lý log hệ thống là lợi thế. Tiếng Anh tương đương TOEIC 650+ (đọc hiểu tài liệu, viết báo cáo). Khả năng phân tích, tư duy logic tốt; chủ động, ham học hỏi và có tinh thần trách nhiệm cao.</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Salary + Allowances: Review lương định kỳ vào tháng 3 hàng năm Giải thưởng nhân viên xuất sắc tháng/năm: 02-10 triệu đồng 16 ngày nghỉ 1 năm (12 ngày nghỉ phép theo quy định Luật Lao động + 3 ngày nghỉ dưỡng + Ngày 22/12) Đóng BHXH đầy đủ theo quy định, Bảo hiểm sức khỏe và tai nạn cá nhân của MIC (Hạn mức chi trả lên đến 600 triệu/năm) Khám sức khỏe định kỳ hàng năm Career Growth: Được tài trợ 100% đối với các chứng chỉ xếp hạng chuyên môn quốc tế chuyên sâu theo từng vị trí &amp; Nhận khen thưởng. Liên tục đầu tư học liệu mới nhất, cập nhật nhất trên thị trường về lĩnh vực ATTT từ các nhà cung cấp, các học viện/uy tín hàng đầu thế giới 100% cán bộ nhân viên được cấp tài khoản Elearning từ Udemy - học thỏa sức mọi lúc mọi nơi Miễn phí tham gia các chương trình chia sẻ kiến thức chuyên ngành, các hội thảo chuyên môn từ các diễn giả đầu ngành trong nước và quốc tế Working Environment: Thời gian làm việc linh hoạt (VCSer chọn giờ làm việc giữa 2 khung giờ sau 8h30-18:00 hoặc 9h00-18h30) Khu vực riêng dành cho Tập Gym, giải trí (chơi Bi-a, Pes, Bóng bàn, Café, Đọc sách…) Các CLB: Chạy, Cầu lông, Game, Bi lắc, Bơi, Sách… Tham gia các event Công ty: hoạt động Teambuilding hàng quý, Sinh nhật hàng tháng, Year End Party, nghỉ mát, ngày lễ 08/03, 20/10 (các chị em được nghỉ ½ ngày), ngày sinh nhật tập đoàn 01/06, v.v</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst/1886315.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH KAMEREO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH KAMEREO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-kamereo/54099.html</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-kamereo/54099.html</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Dưới 1 năm</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Dưới 1 năm</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: Manor 1, 91 Nguyễn Hữu Cảnh, Phường 22, Bình Thạnh</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 09:00 đến 18:00)</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1. Business intelligence (BI) and reporting (70%) Perform exploratory data analysis to identify trends, patterns, and anomalies. Develop and implement data models, algorithms, and statistical techniques to extract meaningful insights. Contribute to the development of data-driven strategies and initiatives to improve business performance. Create visualizations and reports to communicate findings to stakeholders and management. Ownership of conceptualizing, developing, and maintaining dashboards and visualizations. Build a key data dashboard to empower operational and exploratory analysis. Participate in improving the operational efficiency of the business with analysis, reporting, and forecasting. KPI management, project coordinator (operation, sales process) Other tasks as assigned on demand. 2. Optimize database (30%) Collect and preprocess data from various sources, ensuring data integrity and accuracy. Assist in the development and maintenance of data pipelines and workflows. Review data and dashboard periodically to make sure all reports be up-to-date and accurate. Work with other members to implement, integrate and optimize our existing systems.</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>A degree in – Statistics, Economics or related quantitative fields preferred. 01 year of industry experience in the data analytics area. Proficiency in SQL, Python, R, or other programming languages for data manipulation and analysis. Experience with data visualization tools such as Power BI, Google Data Studio, Tableau. Knowing Google BigQuery/Google Sheets is a plus. Experience with machine learning algorithms and techniques is a plus. Knowledge of cloud platforms such as AWS, Azure, or Google Cloud is desirable. Have Experience in F&amp;B industry is a plus. Interpersonal skills with demonstrated ability to influence outcomes and communicate technical content to general audiences, including ability to “tell story” with data. Strong analytical thinking, business sense and communication skills. Detail-oriented with a focus on delivering high-quality work within tight deadlines. Proven problem-solving skills, and exceptional organizational skills. Adaptable in fast-growing environment and willing to work under pressure.</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Salary: Competitive salary. The probationary salary is 100%. A challenging working environment, and an extra steep learning curve. Experience building things from zero to hero. Salary review once a year in December. Working time is 9:00 - 18:00, 5 days/week. Annual Leave is 12 days/year. Provide laptop and necessary equipment.</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Data Analyst – Site &amp; Network Expansion</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Data Analyst – Site &amp; Network Expansion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-site-network-expansion/1869862.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN DỊCH VỤ CÀ PHÊ CAO NGUYÊN - HIGHLAND COFFEE SERVICE JSC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN DỊCH VỤ CÀ PHÊ CAO NGUYÊN - HIGHLAND COFFEE SERVICE JSC</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-dich-vu-ca-phe-cao-nguyen-highland-coffee-service-jsc/199046.html</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-dich-vu-ca-phe-cao-nguyen-highland-coffee-service-jsc/199046.html</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phát triển mặt bằng; Thực phẩm / Đồ uống; Bất động sản; Bán lẻ - Hàng tiêu dùng - FMCG</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 127 Nguyễn Cơ Thạch, An Lợi Đông, Thủ Đức</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 17:30); Nghỉ Thứ 7 và Chủ Nhật</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Xây dựng và tối ưu cơ sở dữ liệu, nhằm hỗ trợ công ty triển khai chiến lược mở rộng hiệu quả, lựa chọn đúng khu vực thương mại, địa điểm mở cửa hàng. Trách nhiệm chính Nghiên cứu &amp; Phân tích Thị trường Xây dựng/cập nhật cơ sở dữ liệu thị trường hằng năm phục vụ cho việc mở rộng thị trường và mở cửa hàng mới Thực hiện phân tích hiệu quả cửa hàng trước khi gia hạn hợp đồng, nhằm hỗ trợ ra quyết định có tiếp tục gia hạn hợp đồng hay không. Thực hiện phân tích hiệu quả kinh doanh của các cửa hàng theo yêu cầu của công công ty. Hoàn thành báo cáo định kỳ hàng tháng. Xây dựng/nâng cấp cơ sở dữ liệu để hỗ trợ phân tích địa điểm mới, dự báo doanh thu, chi phí mặt bằng, gia hạn hợp đồng</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Trình độ: Tốt nghiệp Đại học các chuyên ngành liên quan đến Quản trị hệ thống, Phân tích dữ liệu, Quản trị kinh doanh, Tài chính hoặc các lĩnh vực liên quan. Kinh nghiệm: Từ 1–3 năm kinh nghiệm ở vị trí tương tự, ưu tiên ứng viên đã làm trong ngành F&amp;B hoặc bán lẻ. Có kiến thức về bất động sản bán lẻ, nghiên cứu thị trường, phân tích dữ liệu, phân tích tài chính. Tư duy logic, đàm phán &amp; giao tiếp tốt, giải quyết vấn đề tốt, chi tiết, tỉ mỉ trong công việc</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Được giảm giá tại các cửa hàng của Highlands Coffee và PHỞ24 Đóng đầy đủ BHXH, BHYT, BHTN, có bảo hiểm sức khỏe bổ sung (Bảo Việt). Đóng BHXH trên 100% mức lương. Được trang bị laptop và thiết bị làm việc cần thiết. Tham gia các chương trình teambuilding hằng năm, hoạt động gắn kết và sự kiện của công ty. Môi trường làm việc chuyên nghiệp, thân thiện, với quản lý và đồng nghiệp luôn sẵn sàng hỗ trợ. Xét tăng lương định kỳ hằng năm. Nghỉ phép năm: 12 ngày/năm.</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Data Analyst Fresher</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Data Analyst Fresher</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-fresher/1881717.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CROW GAMING</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CROW GAMING</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-crow-gaming/166325.html</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-crow-gaming/166325.html</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10 - 15 triệu</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10 - 15 triệu</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Dưới 1 năm</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Dưới 1 năm</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Game; Marketing / Quảng cáo; IT - Phần mềm; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Số 9 Nguyễn Hoàng - Mỹ Đình 2, Nam Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:15 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>- Thu thập và truy xuất dữ liệu từ nhiều nguồn, kiểm tra và làm sạch để đảm bảo tính chính xác, phát hiện và xử lý dữ liệu lỗi. - Phân tích dữ liệu, xây dựng và theo dõi các chỉ số phục vụ cho hoạt động kinh doanh và sản phẩm. - Lập báo cáo định kỳ và báo cáo theo yêu cầu, trực quan hóa dữ liệu để truyền tải thông tin dễ hiểu. - Thực hiện so sánh, phân tích các chỉ số, cung cấp insight và đề xuất khuyến nghị giúp ban lãnh đạo ra quyết định. - Đề xuất và triển khai các sáng kiến nhằm cải thiện quy trình phân tích dữ liệu, nâng cao hiệu quả hoạt động kinh doanh. - Thực hiện các công việc khác theo yêu cầu từ cấp quản lý</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>- Tốt nghiệp Đại học trở lên (ưu tiên các ngành liên quan đến Kinh tế, Công nghệ thông tin, Toán – Thống kê…). - Thành thạo Excel và tin học văn phòng. - Biết sử dụng công cụ trực quan hóa dữ liệu (Tableau, Power BI, Metabase…) và phân tích dữ liệu với SQL là một lợi thế. - Nhanh nhẹn, trung thực, có tinh thần trách nhiệm và ham học hỏi. - Có khả năng làm việc dưới áp lực, tuân thủ nguyên tắc bảo mật dữ liệu. - Ưu tiên ứng viên có kinh nghiệm trong lĩnh vực game hoặc ứng dụng di động.</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>- Mức lương cạnh tranh 10 – 15 triệu VND, thỏa thuận theo năng lực và kinh nghiệm. - Thưởng theo hiệu quả công việc và theo dự án. - Chế độ phúc lợi đầy đủ: BHXH, BHYT, BHTN. - Môi trường làm việc trẻ trung, năng động, khuyến khích sáng tạo và chia sẻ ý tưởng. - Cơ hội làm việc và hợp tác cùng các đối tác quốc tế lớn. - Được tham gia các dự án có sản phẩm triển khai tại thị trường Châu Á, Châu Phi, Châu Mỹ. - Học hỏi trực tiếp từ dữ liệu thực tế quy mô lớn, nhiều thách thức. - Cơ hội phát triển nghề nghiệp trong mảng Data Analytics, game và ứng dụng di động. - Tham gia các khóa đào tạo nội bộ và được hỗ trợ học tập nâng cao kỹ năng. - Hoạt động team building, du lịch, văn hóa – tinh thần thường xuyên cho nhân viên.</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nhân Viên Nhân Sự (Hệ Thống Báo Cáo)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Nhân Viên Nhân Sự (Hệ Thống Báo Cáo)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-nhan-su-he-thong-bao-cao/1866501.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Edufit</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Edufit</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/edufit/18476.html</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/edufit/18476.html</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10 - 15 triệu</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10 - 15 triệu</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Tài chính; Kế toán; IT - Phần mềm; Nghỉ thứ 7; Tiếng Anh Giao tiếp thành thạo; Từ 23 tuổi trở lên</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Lô H3 – LC Khu đô thị Starlake, Bắc Từ Liêm, Tây Hồ</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>- Xây dựng và chuẩn hóa các bảng biểu tính toán của Khối Nhân sự - Xây dựng các Báo cáo trong Khối nhân sự - Đề xuất và xây dựng các công cụ nhằm gia tăng năng suất cho các hoạt động vận hành thuộc Khối nhân sự - Tổng hợp kết quả và đưa ra cải tiến nếu có - Thực hiện các công việc khác theo yêu cầu.</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>- Ưu tiên Nam; Tốt nghiệp Đại học chuyên ngành Quản trị nhân lực, Kế toán/Tài chính hoặc Công nghệ thông tin. - Kỹ năng : Thành thạo tin học các hàm nâng cao (index, query, importrange, filter, map, bycol/byrow, reduce, scan,…). Có kiến thức và kinh nghiệm về VBA, Google Appscript. Ưu tiên có hiểu biết cơ bản về Quản trị nhân sự và Luật Lao động. Kỹ năng lập kế hoạch, phân tích và tổng hợp dữ liệu. - Phẩm chất : Trách nhiệm, kiên nhẫn, cẩn thận; linh hoạt, thích nghi tốt và xử lý vấn đề hiệu quả. - Kinh nghiệm : Tối thiểu 1 năm kinh nghiệm trong xây dựng báo cáo dữ liệu liên phòng ban, phân tích dữ liệu hoặc phát triển hệ thống quản lý thông minh.</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>- Môi trường làm việc quốc tế chuyên nghiệp, trẻ trung và năng động. - Thu nhập cạnh tranh và được tham gia bảo hiểm xã hội theo đúng quy định. - Chế độ thưởng các dịp Lễ (30/04 – 01/05, Quốc Khánh 02/09, Hiến chương các Nhà giáo 20/11 ...), Tết Dương lịch, Tết Âm lịch; chế độ thưởng KPIs hàng kỳ ... - Chính sách ưu đãi học phí cho con với nhiều mức ưu đãi hấp dẫn. - Chính sách đào tạo, phát triển năng lực để đáp ứng yêu cầu công việc và chuẩn bị cho lộ trình thăng tiến của CBNV. - Chế độ ngày nghỉ hấp dẫn với chế độ NGHỈ HÈ, NGHỈ ĐÔNG đặc biệt của Công ty (bên cạnh thời gian nghỉ phép và nghỉ Lễ, Tết thông thường theo quy định). - Chế độ du lịch và khám sức khỏe thường niên theo quy định của Công ty. - Phụ cấp ăn trưa, thưởng chuyên cần.</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>- Hoạt động giáo dục mầm non: Hệ thống Trường Mầm non Quốc tế Sakura Montessori. - Hoạt động giáo dục phổ thông bao gồm Tiểu học, Trung học cơ sở, Trung học phổ thông: Hệ thống Trường Phổ thông liên cấp Quốc tế The Dewey Schools - Hệ thống phòng khám tiêu chuẩn Nhật bản Mirai Healthcare - Dịch vụ hỗ trợ: Công ty cổ phần hợp tác giáo dục Việt Nam (Educo) Công ty Cổ phần S-Deli Công ty Cổ phần đào tạo ASC Tới điểm hiện tại, chúng tôi đã và đang xây dựng một đội ngũ vững mạnh các giáo viên, nhân viên, các nhà quản lý trong và ngoài nước có trình độ chuyên môn cao, giàu kinh nghiệm và nhiệt huyết, góp phần thực hiện một cách hiệu quả. Chúng tôi cung cấp chính sách lương và thù lao cạnh tranh, điều kiện làm việc tiện lợi, hỗ trợ từ ban lãnh đạo và cơ sở vật chất hiện đại. Hiện tại chúng tôi đang tìm kiếm những tài năng có mong muốn phát triển và thử thách bản thân ở các vị trí tiềm năng để cùng chúng tôi vươn xa hơn nữa. Hãy apply và cùng chúng tôi khám phá những cơ hội phát triển sự nghiệp của bạn nhé. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công Ty CP XNK Y tế Domesco Dược phẩm / Y tế / Công nghệ sinh học CÔNG TY CỔ PHẦN BỘT GIẶT LIX - CHI NHÁNH TẠI BẮC NINH Sản xuất Công ty Cổ phần Truyền thông IRIS IT - Phần mềm CHI NHÁNH CÔNG TY CỔ PHẦN DƯỢC PHẨM ECO (TP. HÀ NỘI) Dược phẩm / Y tế / Công nghệ sinh học CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN THẾ KỶ Bất động sản Công ty cổ phần Dược - Thiết bị y tế Đà Nẵng (Dapharco) Dược phẩm / Y tế / Công nghệ sinh học Trường cao đẳng FPT Polytechnic Giáo dục / Đào tạo CÔNG TY TNHH KIẾN VƯƠNG Dược phẩm / Y tế / Công nghệ sinh học CÔNG TY CỔ PHẦN QUẢN LÝ GIÁO DỤC VÀ ĐẦU TƯ E M G Giáo dục / Đào tạo Công ty CP Dược Phẩm Thái Minh Dược phẩm / Y tế / Công nghệ sinh học Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tây Hồ Tây Starlake, Khu đô thị Tây Hồ Tây, Xuân Tảo, Tây Hồ, Hà Nội, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CVC/CVCC Phân Tích Kinh Doanh (Quản Lý Hiệu Quả Tố Tụng)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CVC/CVCC Phân Tích Kinh Doanh ( Quản Lý Hiệu Quả Tố Tụng)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/cvc-cvcc-phan-tich-kinh-doanh-quan-ly-hieu-qua-to-tung/1871141.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ngân Hàng TMCP Việt Nam Thịnh Vượng (VPBank)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ngân Hàng TMCP Việt Nam Thịnh Vượng (VPBank)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/ngan-hang-tmcp-viet-nam-thinh-vuong-vpbank/493.html</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/ngan-hang-tmcp-viet-nam-thinh-vuong-vpbank/493.html</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); Thứ 7 (từ 08:00 đến 12:00); Thứ Hai đến thứ Sáu, 2 sáng thứ Bảy/tháng</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1. Phân tích, báo cáo kinh doanh. - Xây dựng và vận hành BAU các báo cáo tracking về hoạt động tố tụng bao gồm: Tỷ lệ khởi kiện, thụ lý, có bản án, thi hành án,.... - Xây dựng và vận hành BAU báo cáo tuân thủ SLA (tuần/tháng/quý) cho hoạt động tố tụng theo quy trình nội bộ. - Phân tích/ tìm insight từ nguồn dữ liệu, đồng thời phối hợp EDA/BICC (Khối quản trị và phân tích dữ liệu) thực hiện các phân tích đánh giá hiệu quả hoạt động tố tụng, khởi kiện của Khối DCD. - Visualize các báo cáo định kỳ hàng tháng/ quý và lấy ý kiến cấp trên/ đơn vị liên quan nhằm cải thiện kết quả. - Các công việc và nghiệp vụ khác theo yêu cầu của lãnh đạo. 2. Tự động hóa hệ thống vận hành thúc đẩy hoạt động khởi kiện. - Xây dựng và Phát triển BRD cho Cổng thông tin của VPBank giúp các đơn vị nội bộ có thể truy cập thông tin danh mục nợ nhanh và chính xác nhất, nhằm tăng hiệu quả và năng lực khởi kiện và giảm khối lượng công việc manual cho Bộ phận thúc đẩy tố tụng, bao gồm và không giới hạn: +Tự động cảnh báo trễ SLA. +Tự động hóa công cụ hỗ trợ tố tụng: Kéo hồ sơ, tích hợp dữ liệu,.... - Tiến hành kiểm tra hệ thống/ server được xây dựng theo BRD để rà soát chất lượng, tìm lỗi từ đó đưa ra các yêu cầu thay đổi để nâng cao hệ thống. - Kết hợp các yêu cầu kinh doanh với kiến thức về cách hệ thống ngân hàng được xây dựng và vận hành để phát triển hệ thống thông tin đáp ứng nhu cầu của end-users.</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>- Trình độ chuyên môn: + Tốt nghiệp Đại học trở lên; chuyên ngành Toán kinh tế, Kinh tế; Tài chính Ngân hàng, ... + Ưu tiên tốt nghiệp các trường Đại học Ngoại Thương, Bách Khoa, Kinh tế Quốc dân, ... hoặc các trường nước ngoài chuyên ngành liên quan đến kinh tế, phân tích tài chính, ... - Kinh nghiệm: + Am hiểu về lĩnh vực tài chính ngân hàng. + Có từ 1 năm năm kinh nghiệm tại 01 trong các lĩnh vực trong ngành tài chính ngân hàng như: quản trị rủi ro, thu hồi nợ, xử lý nợ, phân tích kinh doanh, kế hoạch tài chính, ... + Ưu tiên ứng viên có kinh nghiệm liên quan. - Kỹ năng chuyên môn: + Giải quyết vấn đề và kỹ năng thương lượng. + Sử dụng thành thạo SQL, Visio, Excel, Power point, Word. + Tổng hợp, tính toán, phân tích số liệu. + Ưu tiên sử dụng Tiếng anh trong công việc, báo cáo, phân tích. + Cẩn thận, tỉ mỉ. + Kỹ năng thuyết trình. + Kỹ năng lập kế hoạch, tổ chức công việc. + Chủ động, kỷ luật. + Kỹ năng giải quyết xung đột và làm việc áp lực cao.</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>- Thu nhập hấp dẫn, lương thưởng cạnh tranh theo năng lực - Thưởng các Ngày lễ, Tết (theo chính sách ngân hàng từng thời kỳ) - Được vay ưu đãi theo chính sách ngân hàng từng thời kỳ - Chế độ ngày phép hấp dẫn theo cấp bậc công việc - Bảo hiểm bắt buộc theo luật lao động + Bảo hiểm VPBank care cho CBNV tùy theo cấp bậc và thời gian công tác - Được tham gia các khóa đào tạo tùy thuộc vào Khung đào tạo cho từng vị trí - Thời gian làm việc: từ thứ 2 – thứ 6 &amp; 2 sáng thứ 7/ tháng - Môi trường làm việc năng động, thân thiện, có nhiều cơ hội học đào tạo, học hỏi và phát triển; được tham gia nhiều hoạt động văn hóa thú vị (cuộc thi về thể thao, tài năng, hoạt động teambuiding...)</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Vận Hành Và Phân Tích Dữ Liệu (Data Analyst)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Vận Hành Và Phân Tích Dữ Liệu ( Data Analyst )</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-van-hanh-va-phan-tich-du-lieu-data-analyst/1872256.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần PayPay</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Công ty cổ phần PayPay</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-paypay/211481.html</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-paypay/211481.html</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Tới 25 triệu</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Tới 25 triệu</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>- Hà Nội: 34 Nguyễn Khánh Toàn, Quan Hoa, Cầu Giấy, Cầu Giấy</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 09:00 đến 18:00); Thứ 7 làm việc cách tuần</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Thu thập, xử lý và phân tích dữ liệu giao dịch tài chính (volume, fee, tỷ giá, rủi ro). Thiết kế và xây dựng dashboard, báo cáo KPI vận hành để hỗ trợ quản lý và ra quyết định. Phát hiện bất thường trong dữ liệu, thực hiện phân tích gian lận (fraud detection), tuân thủ quy định AML/KYC. Phối hợp cùng đội ngũ kỹ thuật triển khai tracking, xây dựng pipeline dữ liệu, tối ưu hệ thống log. Hỗ trợ các phòng ban nghiệp vụ (Ops, Product, Risk) trong việc phân tích số liệu và tối ưu quy trình vận hành. Theo dõi, đối soát dữ liệu giao dịch, đảm bảo tính chính xác và kịp thời trong báo cáo. Cập nhật xu hướng, công nghệ phân tích dữ liệu mới (BI tools, Python, SQL nâng cao) để áp dụng vào công việc.</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp đại học các chuyên ngành: Khoa học dữ liệu, Toán – Tin ứng dụng, Thống kê, Hệ thống thông tin quản lý, Công nghệ thông tin, Tài chính – Ngân hàng. Từ 2 – 5 năm kinh nghiệm trong vai trò Data Analyst / Business Analyst / Operations Analyst, ưu tiên tại các lĩnh vực: fintech, ví điện tử, cổng thanh toán, ngân hàng/tài sản số, thương mại điện tử Thành thạo SQL và Excel nâng cao (bắt buộc) Kinh nghiệm sử dụng các BI tools: Power BI, Tableau, Metabase, Looker Biết ngôn ngữ phân tích: Python/R (pandas, numpy, matplotlib) là lợi thế Có hiểu biết về blockchain/crypto (giao dịch USDT, spread, fee, liquidity) Kinh nghiệm theo dõi và đối soát giao dịch, reconciliation, fraud detection, risk monitoring Logic, nhạy bén với số liệu, có khả năng phát hiện bất thường trong giao dịch Tư duy vận hành &amp; kiểm soát rủi ro, ra quyết định dựa trên số liệu Chủ động, cầu tiến, chịu được áp lực tốc độ cao (đặc thù ngành fintech) Hiểu quy định KYC/AML, có tinh thần bảo mật và tuân thủ pháp lý Ưu tiên có kinh nghiệm quản lý công việc với Jira, Confluence, Notion. Có khả năng đọc hiểu tài liệu chuyên ngành tiếng Anh, giao tiếp cơ bản với đối tác nước ngoài.</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Mức lương cạnh tranh theo đúng năng lực: lên đến 25,000,000 VND/tháng Môi trường làm việc thân thiện, năng động, có cơ hội phát triển bản thân và thăng tiến lên vị trí team leader, quản lý. Cơ hội tiếp cận với các công nghệ mới, làm việc trong môi trường startup/công nghệ năng động Ghi nhận thành tích, tăng lương và thưởng kịp thời. Chế độ bảo hiểm đầy đủ, nghỉ phép theo quy định Thưởng Lễ Tết, 30/4; 1/ 5; 2/9…. (theo tình hình hoạt động thực tế của Công ty) Sinh nhật, ốm đau, sinh con, ma chay, hiếu hỉ theo mức quy định của Công ty. Teambuilding, nghỉ mát….. (theo tình hình hoạt động thực tế của Công ty) Được tham gia các khóa đào tạo do công ty tổ chức: kĩ năng mềm, nâng cao trình độ chuyên môn…</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Marketing Data Analyst (Nespresso)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Marketing Data Analyst (Nespresso)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/marketing-data-analyst-nespresso/1871524.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ANNAM GOURMET</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ANNAM GOURMET</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/annam-gourmet/198839.html</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/annam-gourmet/198839.html</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Không yêu cầu</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Không yêu cầu</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 16-18 Hai Bà Trưng, phường Bến Nghé, Quận 1</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1.Data Management &amp; Reporting (30%) Collect, clean, consolidate, and process business data from various sources (Excel, internal systems, market sources, etc.). Develop, update, and maintain regular reports and dashboards (daily/weekly/monthly/quarterly) to provide a comprehensive view of brand and business sales performance. Ensure accuracy and reliability of all reported data. 2.Data Analysis &amp; Insights (40%) Analyze data sets to assess business performance, understand the meaning and implications behind each number, and identify key trends, patterns, risks, and opportunities. Translate data findings into actionable business insights and recommendations for relevant departments. Contribute to researching market conditions, customer segments, and competitor activities to identify sales opportunities and support strategy development. Conduct in-depth analysis of campaign performance, engaging with internal teams and agencies to drive improvements and maximize brand and business impact. 3. Forecasting, Trend Prediction &amp; Budget Planning (15%) Use both internal data and market research to forecast, input and validate sales, product demand, and budget requirements for PFME report. 4. Business Support &amp; Collaboration (10%) Work cross-functionally with teams to address business questions, resolve insight-related challenges, and provide data-driven support for decision-making. Assist in the execution of marketing and sales initiatives based on data and market analysis.</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree in Economics, Finance, Business Administration, Statistics, Applied Mathematics, or related fields. Detail-oriented, data-driven mindset, proactive, and responsible. Strong experience working with business data, reporting, and data analysis. Proficient in Excel (required); experience with SQL or BI tools (Power BI, Tableau, etc.) is a plus. Strong analytical, problem-solving, and communication skills. Ability to explain complex data simply. Ability to withstand high pressure. Proficiency in English is required. (IELTS 6.0 or equivalent)</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>13th-Month Salary: Receive a fixed 13th-month salary as part of the company’s annual benefits. Insurance Policies: Official labor contract with full participation in social insurance, health insurance, and unemployment insurance as required by law. Training &amp; Development: Regular opportunities for professional training and skill enhancement programs to support personal growth and long-term career development. In addition, employees are entitled to other internal welfare policies depending on the company’s regulations from time to time.</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Data Analyst (Smartphone)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Data Analyst (Smartphone)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/data-analyst-smartphone/1822954.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>OPPO VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>OPPO VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/oppo-viet-nam/23311.html</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/oppo-viet-nam/23311.html</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>15 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: Quận 7</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>- Analyze, process, and visualize market data to support internal departments and strategic business decisions. - Own the data's accuracy and timeliness of all market reports and data outputs. - Collaborate with cross-functional teams to interpret findings and identify business opportunities. - Track, monitor, and forecast market trends and consumer behavior. - Present insights using clear, data-driven visualizations and reports.</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>- Female, with a Bachelor’s degree in Business, Economics, Statistics, Data Science, or related fields. - Aged between 24–29, with at least 2 years of relevant experience in data analysis or market research. - Proficient in Microsoft Excel, Power Query, and Power BI or similar tools. - Strong analytical mindset and attention to detail. - Up-to-date with social trends and smartphone industry movements. - Good communication and problem-solving skills.</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>• Work in international, professional &amp; outstanding developed environment • Approach and learn deeply about high class innovative technology products • The opportunity to improve marketing knowledge in the working environment of Smartphone brand has the second largest market share in Vietnam. • Good salary and bonus. • Annual training, Active and challenging environment. • 13th-month salary. • Annual bonus as the company's performance. • Social Insurance, Health insurance, Unemployment insurance. • Sponsored PVI Health Insurance • Company trip, Team-building, Year-End Party. • Buy the company’s product with discount price. • Other policies prescribed by law.</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nhân Viên Vận Hành Dữ Liệu Luật</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nhân Viên Vận Hành Dữ Liệu Luật</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-van-hanh-du-lieu-luat/1541378.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN DỊCH VỤ DI ĐỘNG THỂ HỆ MỚI (NMS)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN DỊCH VỤ DI ĐỘNG THỂ HỆ MỚI (NMS)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-dich-vu-di-dong-the-he-moi-nms/75094.html</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-dich-vu-di-dong-the-he-moi-nms/75094.html</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Tới 15 triệu</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Tới 15 triệu</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Luật / Pháp chế; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Duy Tân, Dịch Vọng Hậu, Cầu giấy, Cầu Giấy</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 18:00)</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Vận hành và quản lý hệ thống dữ liệu pháp luật, bao gồm văn bản pháp luật, tình huống pháp lý, bản án và các nguồn dữ liệu liên quan. Nhập liệu, chuẩn hóa và cập nhật thông tin pháp luật, câu hỏi – câu trả lời liên quan đến pháp luật để đảm bảo hệ thống luôn đầy đủ và chính xác. Rà soát, kiểm tra và hiệu chỉnh chất lượng các phản hồi tự động của Trợ lý ảo, đảm bảo thông tin cung cấp chính xác, tin cậy và phù hợp. Phối hợp với các bộ phận liên quan và thực hiện các nhiệm vụ khác theo yêu cầu của quản lý nhằm tối ưu hóa hiệu quả vận hành hệ thống.</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Tối thiểu 2 năm kinh nghiệm trong lĩnh vực pháp chế, luật doanh nghiệp, hoặc từng làm luật sư. Tốt nghiệp các ngành Luật (ưu tiên các trường: ĐH Luật, ĐH QGHN…). Có khả năng viết lách và soạn thảo văn bản pháp lý tốt. Sử dụng thành thạo tin học văn phòng; ưu tiên ứng viên có chứng chỉ tin học. Kỹ năng quản lý thời gian, giao tiếp, giải quyết vấn đề, làm việc nhóm và chịu được áp lực công việc cao.</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Mức lương: upto 15.000.000 đồng/tháng. Được đào tạo các kỹ năng làm việc định kỳ, nâng cao chuyên môn và phát triển nghề nghiệp. Hưởng đầy đủ chế độ theo luật định và các chính sách phúc lợi của Công ty. Môi trường làm việc chuyên nghiệp, thân thiện, cởi mở, khuyến khích sáng tạo và đóng góp ý tưởng. Tham gia vào các hoạt động nội bộ và sự kiện của Công ty.</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Vận Hành Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Vận Hành Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-van-hanh-kinh-doanh/1808035.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Tài chính; Ngân hàng</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>- Hà Nội: 43 Lê Văn Lương, Thanh Xuân</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>1. Quản trị và vận hành dữ liệu: Quản lý luồng dữ liệu phục vụ vận hành kinh doanh, đảm bảo dữ liệu thông suốt và kịp thời. Là cầu nối giữa bộ phận dữ liệu, kinh doanh và các khối hỗ trợ khác. Tham gia xây dựng quy trình chuẩn hóa vận hành dữ liệu phục vụ kinh doanh. 2. Phân tích &amp; khai thác dữ liệu: Theo dõi và phân tích hiệu quả các cơ chế kinh doanh, chính sách thúc đẩy bán, đề xuất tối ưu. Xây dựng báo cáo/dashboards trực quan để hỗ trợ các phòng ban (Kinh doanh,...) 3. Vận hành cơ chế kinh doanh &amp; chương trình thúc đẩy bán: Tham gia triển khai, giám sát, và đánh giá các chương trình kinh doanh, cơ chế thưởng/phạt, chính sách bán hàng. Đảm bảo dữ liệu phản ánh chính xác tiến độ và kết quả các chương trình.</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1. Trình độ học vấn/Chứng chỉ Tốt nghiệp Đại học chuyên ngành Kinh tế, Quản trị kinh doanh, Toán – Thống kê, Công nghệ thông tin, Phân tích dữ liệu hoặc các ngành liên quan. 2. Kinh nghiệm làm việc Từ 2 năm kinh nghiệm trở lên về phân tích dữ liệu kinh doanh, quản trị hiệu suất kinh doanh bán lẻ. Ưu tiên kinh nghiệm trong công ty chứng khoán, tài chính tương đương. Có kiến thức cơ bản về phân tích dữ liệu, trực quan hóa dữ liệu (Power BI/Tableau/Superset). Có tư duy logic, khả năng đọc vị và phân tích hành vi khách hàng/đội ngũ kinh doanh từ dữ liệu. Hiểu về cơ chế kinh doanh, vận hành chương trình thúc đẩy bán trong lĩnh vực tài chính, chứng khoán, bảo hiểm hoặc ngân hàng là một lợi thế. 3. Kiến thức/Năng lực chuyên môn/Kỹ năng 3.1. Kỹ năng chuyên môn Phân tích dữ liệu kinh doanh. Làm việc với cơ sở dữ liệu lớn. Tư duy hệ thống, xây dựng báo cáo tự động. Thiết kế quy trình, mô hình hóa, xây dựng tài liệu. Giao tiếp, phối hợp liên phòng ban, kết nối chặt chẽ với đội ngũ IT. 3.2. Kỹ năng theo ngành Hiểu biết sâu về kinh doanh bán lẻ ngành tài chính-chứng khoán, hiểu quy trình vận hành, công cụ phân tích dữ liệu kinh doanh. Am hiểu các nền tảng vận hành kinh doanh của công ty chứng khoán. 3.3. Kỹ năng số Core system, BPM, RPA, AI, powerBI 4. Năng lực khác Khả năng làm việc đa nhiệm, phối hợp liên phòng ban. Tư duy phân tích, phản biện, chú trọng chi tiết. Kỹ năng giao tiếp và thuyết trình dữ liệu rõ ràng, dễ hiểu. Khả năng thích ứng nhanh với các hệ thống và quy trình mới. 5. Năng lực cốt lõi Có tố chất và tư duy phù hợp với hệ giá trị cốt lõi của công ty (IPAM &amp; 4C).</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>1. Cộng đồng những người làm nghề chính trực và dấn thân phụng sự Môi trường làm nghề tài chính chuyên nghiệp. Làm việc với tinh thần làm chủ, sáng tạo và thách thức. 2. Tổng thu nhập theo năng lực Thu nhập xứng đáng theo năng lực và giá trị đóng góp. Xem xét thay đổi thu nhập hàng năm. 3. Chế độ đãi ngộ Tham gia BHXH, BHYT, BHTN theo đúng quy định luật lao động. Được tham gia đóng bảo hiểm sức khỏe và bảo hiểm tai nạn 24/24. 4. Tổ chức học tập và văn hóa sôi nổi Không gian làm việc mở với trang thiết bị hiện đại. Các hoạt động văn hóa, gắn kết đội ngũ, thiện nguyện phong phú, ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>&gt;1500 thành viên</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Cao Cấp Quản Trị Thông Tin Datamart - RB - MSB - 1O263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Cao Cấp Quản Trị Thông Tin Datamart - RB - MSB - 1O263</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-cao-cap-quan-tri-thong-tin-datamart-rb-msb-1o263/1881861.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Hàng Hải Việt Nam (MSB)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Hàng Hải Việt Nam (MSB)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/ngan-hang-tmcp-hang-hai-viet-nam-msb/198976.html</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/ngan-hang-tmcp-hang-hai-viet-nam-msb/198976.html</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Hội sở MSB, Đống Đa</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>1. Tham gia xây dựng và quản trị kho dữ liệu tập trung của Khối NHBL (datamart) và đồng nhất dữ liệu với toàn hàng. 2. Tham gia xây dựng và tổ chức, kiểm soát việc làm sạch, làm giàu dữ liệu Khối NHBL 3. Quản trị các thông tin đầu vào của datamart: dim_brach, dim_product, dim_account_officer,.. 4. Quản trị hệ thống báo cáo NHBL bao gồm: các dashboard được Phòng QTDM xây dựng, Phòng QLHS xây dựng, Phòng phân tích nâng cao IT xây dựng,… 5. Phối hợp các bộ phân trong NHBL, bộ phân quản lý hiệu suất tài chính, Khối IT để quản trị yêu cầu xây dựng dashboard kinh doanh, dashboard phân tích nâng cao hiệu quả hoạt động kinh doanh. 6. Thực hiện xây dựng báo cáo quản trị danh mục phân khúc: Số lượng KH, Prodcut holding, TOI/Customer, các bài toán phân tích lead được phân bổ về hiệu quả,… 7. Thực hiện xây dựng dữ liệu nhận diện chân dung KH theo Mô hình kinh tế Aff, Maf, Up Mass và Mass, đồng thời xây dựng dữ liệu định danh KH theo mô hình dịch vụ: Mfirst, Mpassion,… hàng ngày, hàng tháng theo các tiêu chí tài chính của MSB và tiêu chí chứng từ KH cung cấp. 8. Thực hiện đào tạo, hướng dẫn kỹ năng cho các cán bộ chuyên viên, chuyên viên chính theo chỉ đạo của cấp Phó TGĐ NHBL, Trường Phòng.</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>- Tốt nghiệp Đại học trở lên các chuyên nhành: Tài chính, kế toán, Toán kinh tế, Toán tài chính hoặc các lĩnh vực có liên quan - Tối thiểu 3 năm kinh nghiệm tại các vị trí và chức danh tương đương. - Có kỹ năng Excel, SQL tốt và quen thuộc với nền tảng dữ liệu doanh nghiệp như Oracle - Thành thao công cụ trực quan hóa báo cáo Power BI.</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>1. Lương thưởng hấp dẫn: Mức lương cạnh tranh so với thị trường và tương xứng với năng lực, sẽ được thương lượng khi ứng viên vượt qua vòng Phỏng vấn. Chế độ thưởng incentive/KPI và hoa hồng hấp dẫn, chi trả theo tháng, thu nhập không giới hạn (đối với nhóm vị trí bán hàng và một số vị trí đặc thù). Thưởng hiệu suất cuối năm từ 2 đến 5 tháng lương trung bình của năm, tùy theo kết quả đánh giá xếp loại. 2. Chính sách phúc lợi toàn diện: Bảo hiểm theo quy định pháp luật và bảo hiểm nhân thọ riêng cho cán bộ nhân viên MSB. Các chế độ phúc lợi đa dạng: giờ làm việc linh hoạt, nghỉ mát, nghỉ sinh nhật, nghỉ khai giảng năm học cho con,... Có chương trình vay với lãi suất ưu đãi cho CBNV. 3. Đào tạo và thăng tiến: Chương trình Đào tạo chuyên sâu, bài bản theo hướng chuyển đổi (Re_skill, Up_skill, New_skill), được biên tập tùy theo từng nhóm vị trí công việc. Được hướng dẫn và kèm cặp tận tình bởi các lãnh đạo, quản lý trực tiếp và chuyên gia trong ngành. Chương trình phát triển quản lý dành cho các nhân viên có tiềm năng, giúp họ chuẩn bị sẵn sàng cho các vị trí quản lý và lãnh đạo trong tương lai. Ưu tiên tuyển dụng cấp quản lý từ nhân sự nội bộ, tạo cơ hội thăng tiến cho nhân viên. 4. Môi trường làm việc chuyên nghiệp và văn hóa doanh nghiệp năng động: Thoải mái, thân thiện, đề cao tinh thần trách nhiệm, hỗ trợ lẫn nhau. Năng động, sáng tạo, khuyến khích đổi mới và học hỏi liên tục. Tôn trọng sự khác biệt, đề cao tinh thần làm việc nhóm và hợp tác hiệu quả. Nhiều hoạt động văn hóa, thể thao, giải trí sôi nổi, tạo môi trường làm việc gắn kết và vui vẻ. Nhiều năm liên tiếp được HR Asia vinh danh ""Nơi làm việc tốt nhất Châu Á"" và Anphabe vinh danh ""Doanh nghiệp có nguồn Nhân lực hạnh phúc"".</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Thang bảng lương được xây dựng theo phương pháp 3P chuẩn quốc tế rõ ràng, không giới hạn thu nhập và chi trả luôn trong kì nhằm gia tăng thu nhập cho cán bộ nhân viên. Phúc lợi toàn diện được cá nhân hóa phù hợp với tất cả đối tượng nhân viên thông qua chương trình phúc lợi tài chính và chăm sóc sức khỏe cho người thân. - Văn hóa doanh nghiệp: Có tính riêng biệt, tin tưởng trao quyền hay các cá nhân sẽ tự ra quyết định với thu nhập của bản thân mình. MSB thiết lập môi trường làm việc năng động, sáng tạo, cởi mở, hiệu quả - Đào tạo: MSB liên tục triển khai các chương trình đào tạo cho cán bộ nhân viên nhằm nâng cao kiến thức chuyên môn. MSB cũng đẩy mạnh hợp tác với các đối tác đào tạo uy tín trong và ngoài nước để tổ chức nhiều chương trình nâng tầm năng lực nhân sự theo chuẩn mực quốc tế, tiêu biểu như Dale Carnegie - tổ chức hàng đầu thế giới về phát triển năng lực tổ chức. Hoạt động đào tạo &amp; quy hoạch đội ngũ nhân sự kế cận được triển khai đa dạng các cấp độ với một số chương trình điển hình như: Talent Pool và Management Trainee. - Đưa số hóa vào môi trường làm việc: MSB tích cực xây dựng văn hóa “làm việc số”, đưa điều này trở thành “ADN của ngân hàng”. Đây cũng là bước đà để MSB tập trung xây dựng nguồn nhân lực chất lượng cao, đặc biệt là về mảng công nghệ, hướng tới mục tiêu là ngân hàng số hàng đầu. - Khuyến khích sự sáng tạo: Những diễn đàn, cuộc thi khuyến khích sự sáng tạo được tổ chức thường niên để cán bộ nhân viên đề xuất những ý tưởng cải thiện quy trình, sản phẩm góp phần hiện thực hóa sứ mệnh “Cùng vươn tầm” tại MSB 3. Giải thưởng - “Nơi làm việc tốt nhất châu Á” năm 2021 &amp; 2022 - Vị trí số 1 trong Top 10 Nhà tuyển dụng được yêu thích nhất ngành Tài chính – Ngân hàng năm 2020 - Vị trí thứ 1 trong Top 10 Doanh nghiệp được nhân viên yêu thích nhất năm 2020 4. Các kênh thông tin tuyển dụng khác: - Website: https://jobs.msb.com.vn/ - Fanpage: https://www.facebook.com/tuyendung.msb Muốn đi nhanh hãy đi một mình - Muốn đi xa hãy đi cùng nhau. Tại MSB chúng tôi tin rằng: Cùng nhau – nhất định chúng ta sẽ tạo nên kỳ tích!!!– nhất định chúng ta sẽ tạo nên kỳ tích!!! Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần MISA IT - Phần mềm CÔNG TY CỔ PHẦN DỊCH VỤ KỸ THUẬT MOBIFONE Viễn thông Công ty Cổ phần Truyền thông VMG Marketing / Truyền thông / Quảng cáo Công ty TNHH Phân Phối Synnex FPT IT - Phần mềm CÔNG TY CỔ PHẦN TẬP ĐOÀN KHẢI HOÀN LAND Bất động sản CÔNG TY CỔ PHẦN CÔNG NGHỆ VÀ DỊCH VỤ IMEDIA IT - Phần mềm NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN TIÊN PHONG - TPBANK Ngân hàng Tập đoàn công nghệ CMC IT - Phần mềm Tổng Công ty Công nghiệp Công nghệ cao Viettel Viễn thông Chi nhánh Công trình Viettel Thái Nguyên- Tổng công ty Cổ phần công trình Viettel Xây dựng Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty ROX Tower, 54A Nguyễn Chí Thanh, phường Láng Thượng, Đống Đa, TP. Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Chuyển Đổi Số (Lark-Suite)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Chuyển Đổi Số (Lark-Suite)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-chuyen-doi-so-lark-suite/1882980.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THỜI TRANG GB GIA BẢO</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THỜI TRANG GB GIA BẢO</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-thoi-trang-gb-gia-bao/218818.html</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-thoi-trang-gb-gia-bao/218818.html</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>14 - 18 triệu</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>14 - 18 triệu</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>- Hà Nội: B17-17 Violet 2, Vinhome Gradenia, Hàm Nghi, Mỹ Đình, Nam Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); Thứ 2 - Thứ 6 (từ 08:00 đến 17:30). Chấm công linh hoạt sáng 8h00-8h30 hàng ngày Thứ 7: Làm việc 2 ngày thứ 7 luân phiên cách tuần/tháng</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Lark Suite (gọi tắt là Lark) là một nền tảng làm việc hợp nhất, tích hợp nhiều công cụ cần thiết cho doanh nghiệp, giúp nâng cao hiệu suất và tối ưu hóa quy trình vận hành cho Doanh nghiệp Vị trí Chuyên viên Chuyển đổi số của Atino đảm trách công việc Số hóa quy trình hoạt động của mảng HRM nội bộ Doanh nghiệp bao gồm: Khảo sát &amp; Đánh giá: Trao đổi trực tiếp với khách hàng doanh nghiệp để tìm hiểu và nắm rõ thực trạng vận hành hiện tại của họ, bao gồm quy trình làm việc, công cụ sử dụng và nhu cầu số hóa quy trình, dữ liệu Nghiên cứu &amp; Triển khai: Dựa trên kết quả khảo sát, tư vấn giải pháp chuyển đổi số phù hợp, thiết kế quy trình tối ưu và thực hiện triển khai nền tảng Lark-suit Đào tạo &amp; Hướng dẫn: Tổ chức đào tạo, hướng dẫn người dùng cuối sử dụng các tính năng của phần mềm, quy trình vận hành nhằm tối ưu hiệu suất làm việc. Hỗ trợ: Giải đáp thắc mắc, hỗ trợ kỹ thuật sau triển khai, đảm bảo các Phòng ban chuyên môn kết nối và sử dụng quy trình, hệ thống Lark hiệu quả. Cập nhật và cải tiến: Tiếp nhận ý kiến, phản hồi của các Phòng ban và nghiên cứu cải tiến quy trình vận hành, tính năng Lark-suit phù hợp</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp Cao đẳng/ Đại học trở lên các chuyên ngành Công nghệ thông tin, chuyển đổi số, Quản trị doanh nghiệp hoặc chuyên ngành khác có liên quan Có kinh nghiệm 2 năm trở lên trong lĩnh vực như triển khai phần mềm, tư vấn giải pháp công nghệ, hoặc chuyển đổi số doanh nghiệp hoặc từ 2 năm trở lên kinh nghiệm về chuyển đổi số Lark-suit Hiểu rõ về Anycross, Automation, tích hợp API, python… hoặc các công cụ chuyển đổi số quy trình, luồng vận hành trên Lark-suit Ưu tiên ứng viên có khả năng xây dựng tài liệu hướng dẫn sử dụng các tính năng, quy trình (Quay video recap màn hình, Tài liệu hướng dẫn sử dụng) Phối hợp với Phòng Đào tạo, tổ chức đào tạo, hướng dẫn sử dụng cho người dùng cuối Kỹ năng giao tiếp, tư vấn và giải quyết vấn đề tốt. Kỹ năng quản lý công việc, làm việc nhóm hiệu quả. Có tinh thần chủ động, ham học hỏi, có tư duy logic và dữ liệu.</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Mức lương: 14-18 triệu/tháng Phụ cấp ăn trưa, phụ cấp chuyên cần Lương tháng 13,14 Thưởng hiệu quả sản xuất kinh doanh hàng năm Xét tăng lương định kỳ 02 lần/năm theo chính sách Công ty. Được tham gia BHXH, BHYT, BHTN theo quy định Thưởng lễ/tết/sinh nhật, ngày thành lập công ty…Chế độ thăm hỏi ốm đau, hiếu, hỉ dành cho bản thân và người thân trong gia đình Được khám sức khỏe định kỳ 01 lần/năm. Được tham gia các khóa đào tạo và huấn luyện của công ty. Du lịch trong nước và nước ngoài: 2 lần/năm. Tham gia các chương trình Teambuilding, sự kiện thường niên do công ty tổ chức Luôn mở rộng cơ hội thăng tiến và phát triển cho CBNV. Văn hoá làm việc trẻ trung, năng động, hòa đồng, cởi mở.</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Giảng Viên Data Analyst Partime</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Giảng Viên Data Analyst Partime</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/giang-vien-data-analyst-partime/1087071.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TRƯỜNG HỌC CÔNG NGHỆ MINDX</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TRƯỜNG HỌC CÔNG NGHỆ MINDX</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-truong-hoc-cong-nghe-mindx/122002.html</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-truong-hoc-cong-nghe-mindx/122002.html</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Tuổi 20 - 40</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>- Đà Nẵng: Tầng 5, TTTM Go!, 255-257 Hùng Vương, Thanh Khê</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Có thể sắp xếp linh hoạt tùy và lịch rảnh chủ yếu là buổi tối (19h15-22h15) &amp; cuối tuần</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Trực tiếp tham gia giảng dạy các khoá học về data của MindX (D4E, BI, DA, DA Career Kickstart) Tham gia quản lý lớp học như: điểm danh đầu giờ, kiểm soát bài về nhà, gửi tài liệu và phản hồi tình hình lớp khi buổi học kết thúc. Trực tiếp tham gia đánh giá khả năng tiếp thu của học sinh, từ đó đưa ra phương án điều chỉnh với giáo trình khóa học Đảm bảo kết quả học tập cuối khóa của học sinh, chịu trách nghiệm với lớp học mình đảm nhận Chia sẻ kinh nghiệm &amp; định hướng con đường phát triển cho học sinh</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Có kinh nghiệm làm việc với dữ liệu, phân tích quản lý dữ liệu, phân tích kinh doanh Có tư duy phân tích sắc bén, có kinh nghiệm tìm kiếm insights từ dữ liệu để giải quyết các bài toán kinh doanh/vận hành thực tế Sử dụng thành thạo SQL, PowerBI, MS Excel, Python. Biết làm các báo cáo, dashboard tự động (bằng PowerBI, SQL, Excel,...) Có kinh nghiệm lead dự án hoặc lead nhóm triển khai phân tích, lập mô hình dự báo là lợi thế Có kỹ năng truyền đạt, giao tiếp và thuyết trình trước đám đông tốt, nói chuyện lưu loát, hoạt bát, có kỹ năng sư phạm là một lợi thế Có thái độ nghiêm túc với công việc, tuân thủ các quy định của công ty</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Mức lương 600.000đ - 1.500.000đ/ buổi(3 tiếng, tùy level đảm nhận) + thưởng tùy vào năng lực. Ưu đãi tham gia các khóa học của MindX (Global developer, AI, Product Manager...) Cơ hội tạo ra sức ảnh hưởng, truyền cảm hứng cho các bạn trẻ về những công nghệ mới nhất Cơ hội lựa chọn những học viên sáng giá về với đội của mình Mở rộng mối quan hệ, giao lưu và học hỏi với mạng lưới founders, giảng viên, alumni hiện đang làm việc trong các lĩnh vực khoa học máy tính, phân tích dữ liệu, PM, UI-UX Design, v.v. ở các tập đoàn, công ty công nghệ hàng đầu thế giới Được sử dụng không gian làm việc miễn phí tại MindX Space tại HN và TP. HCM Review lương liên tục theo khả năng</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Cao Cấp Quản Trị Tài Chính</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Cao Cấp Quản Trị Tài Chính</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-cao-cap-quan-tri-tai-chinh/1755842.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN ĐẦU TƯ I.P.A</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN ĐẦU TƯ I.P.A</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-tap-doan-dau-tu-i-p-a/219468.html</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-tap-doan-dau-tu-i-p-a/219468.html</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>1. Lập kế hoạch &amp; quản lý ngân sách Xây dựng dự báo tài chính ngắn/dài hạn và lập ngân sách hàng năm cho tập đoàn. Phân tích chênh lệch giữa thực tế và kế hoạch, đề xuất điều chỉnh chiến lược tài chính. 2. Phân tích dự án đầu tư Đánh giá tính khả thi tài chính các dự án. Xây dựng mô hình tài chính (financial modeling) cho các kịch bản kinh doanh phục vụ các dự án . Xây dựng các báo cáo phân tích hiệu quả hoạt động cho từng BU. Tham gia vào việc due deligence các dự án M&amp;A. 3. Kiểm soát hiệu quả đầu tư Giám sát hiệu suất các dự án đang triển khai, phát hiện rủi ro tài chính. Phối hợp với bộ phận vận hành tối ưu hóa dòng tiền và chi phí. 4. Huy động vốn &amp; quản lý vốn Tham gia xây dựng hồ sơ kêu gọi đầu tư và đàm phán với đối tác tài chính. Nghiên cứu các phương án tăng vốn và cơ cấu vốn tối ưu.</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1. Trình độ học vấn/Chứng chỉ Tốt nghiệp Đại học trở lên chuyên ngành Tài chính, Kế toán hoặc Quản trị Kinh doanh. Chứng chỉ ưu tiên: CFA, ACCA hoặc CMA. 2. Kinh nghiệm làm việc Tối thiểu 3 năm kinh nghiệm ở vị trí phân tích tài chính/kiểm soát tài chính. Thành thạo mô hình hóa tài chính (Excel, Power BI) và phần mềm ERP. 3. Kiến thức/Năng lực chuyên môn/Kỹ năng Phân tích dữ liệu định lượng và xử lý báo cáo phức tạp. Tiếng Anh thành thạo. 4. Năng lực cốt lõi Có tố chất và tư duy phù hợp với hệ giá trị cốt lõi của công ty (IPAM &amp; 4C).</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1. Cộng đồng những người làm nghề chính trực và dấn thân phụng sự Môi trường làm nghề tài chính chuyên nghiệp. Làm việc với tinh thần làm chủ, sáng tạo và thách thức. 2. Tổng thu nhập theo năng lực Thu nhập xứng đáng theo năng lực và giá trị đóng góp. Xem xét thay đổi thu nhập hàng năm. 3. Chế độ đãi ngộ Tham gia BHXH, BHYT, BHTN theo đúng quy định luật lao động. Được tham gia đóng bảo hiểm sức khỏe và bảo hiểm tai nạn 24/24. 4. Tổ chức học tập và văn hóa sôi nổi Không gian làm việc mở với trang thiết bị hiện đại. Các hoạt động văn hóa, gắn kết đội ngũ, thiện nguyện phong phú, ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Nghiên Cứu Cấp Cao</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Nghiên Cứu Cấp Cao</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-nghien-cuu-cap-cao/1878536.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>HIỆP HỘI DỮ LIỆU QUỐC GIA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>HIỆP HỘI DỮ LIỆU QUỐC GIA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/hiep-hoi-du-lieu-quoc-gia/234838.html</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/hiep-hoi-du-lieu-quoc-gia/234838.html</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; IT - Phần mềm; Tiếng Anh Giao tiếp thành thạo</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Thực hiện nghiên cứu tập trung các lĩnh vực chính sách công nghệ, chiến lược công nghệ, liên quan đến mục tiêu của quốc gia: chuyển đổi số, dữ liệu, trí tuệ nhân tạo, công nghệ thông tin, bán dẫn, robot, lượng tử. Tham gia nhóm nghiên cứu, hoạt động khoa học công nghệ khác Chủ trì hoặc tham gia các dự án khoa học theo phân công của cấp trên. Nghiên cứu và viết bài công bố trên tạp chí Nghiên cứu và nắm bắt các công nghệ, sản phẩm mới, tìm hiểu về thiết bị, giải pháp, sản phẩm hệ thống CNTT.</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Cử nhân, thạc sĩ chuyên ngành luật, kinh tế, công nghệ thông tin, trí tuệ nhân tạo. Có kinh nghiệm chủ trì/nghiệm thu thành công ít nhất 01 dự án, đề tài nghiên cứu là một lợi thế. Có đam mê với công nghệ mới liên quan đến trí tuệ nhân tạo, robot, lượng tử, chuyển đổi số Có khả năng nghiên cứu tốt, khả năng viết tốt và khả năng trình bày vấn đề tốt Sức khỏe tốt Có kinh nghiệm từ 3 - 5 năm ở vị trí tương đương Có kinh nghiệm về chuyển đổi số, số hóa, công nghệ AI; Blockchain</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Mức lương cạnh tranh và các phúc lợi hấp dẫn. Cơ hội thăng tiến trong môi trường làm việc sáng tạo và chuyên nghiệp. Tham gia vào các dự án phát triển sản phẩm sáng tạo, mang tính ứng dụng cao. Được đào tạo và phát triển kỹ năng nghề nghiệp. Bảo hiểm xã hội, y tế theo quy định của pháp luật. Làm việc từ thứ 2 đến thứ 6 từ 8h30-17h30</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Business Data Analyst</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Business Data Analyst</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1878843.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ ALPHAWAY</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHỆ ALPHAWAY</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-cong-nghe-alphaway/201267.html</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-cong-nghe-alphaway/201267.html</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18 - 26 triệu</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>18 - 26 triệu</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Chuyên môn Business Analyst (Phân tích nghiệp vụ); Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Xây dựng, mô tả/đặc tả chức năng, nghiệp vụ cho các sản phẩm/dịch vụ: URD, SRS. • Thống nhất nghiệp vụ với khách hàng bằng các tài liệu URD, SRS. • Xây dựng các tài liệu phục vụ công việc phân tích nghiệp vụ. • Phối hợp với đội phát triển để xây dựng phần mềm. • Tham gia vào quá trình kiểm thử chất lượng phần mềm, nghiệm thu sản phẩm trước khi bàn giao cho khách hàng. • Hướng dẫn, hỗ trợ khách hàng, hỗ trợ triển khai, xây dựng các tài liệu đào tạo và đào tạo theo mục đích, nhu cầu đào tạo. • Thực hiện báo cáo công việc theo quy định của dự án lên quản lý/bộ phận liên quan. • Thực hiện các công việc khác theo sự phân công của Quản lý trực tiếp</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>• Từ 3-4 năm kinh nghiệm phát triển phần mềm • Ưu tiên: Kinh nghiệm phân tích nguồn dữ liệu, kiến thức về các hệ thống tài chính, kế toán (SAP, Bravo) nói chung, và về DWH là ưu tiên Có kiến thức cơ bản về BPM hoặc workflow management • Biết về kế toán, Nghiệp vụ HR, SQL, BI Tools</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Mức lương phù hợp với năng lực Thời gian làm việc từ T2 đến thứ 6, từ 8h00 – 17h30 Thưởng lễ tết, thưởng tháng lương thứ 13 Trà, cafe, bánh kẹo miễn phí Hỗ trợ gửi xe Teambuilding, Khám sức khỏe năm 1 lần Có cơ hội trở thành “Gương mặt xuất sắc” của Công ty nếu hoàn thành xuất sắc nhiệm vụ; Hưởng đầy đủ các chính sách và chế độ như: BHYT, BHXH, BHTN,.. theo đúng quy định của Bộ Luật Lao động và của Công ty; Tham gia các hoạt động nghỉ mát, team building Làm việc trong môi trường cởi mở, năng động, khuyến khích sự sáng tạo.</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Trưởng Nhóm Data Analyst</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Trưởng Nhóm Data Analyst</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/truong-nhom-data-analyst/1867295.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN ĐỨC TÍN TOÀN CẦU</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN ĐỨC TÍN TOÀN CẦU</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-tap-doan-duc-tin-toan-cau/217666.html</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-tap-doan-duc-tin-toan-cau/217666.html</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>15 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; IT - Phần mềm; Thương mại điện tử; Bán lẻ - Hàng tiêu dùng - FMCG</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Phạm Văn Dồng, Bắc Từ Liêm, Bắc Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); 2 ngày thứ 7 trong tháng</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Thu thập, phân tích dữ liệu từ các chiến dịch marketing để đánh giá hiệu quả và tối ưu hoá chiến lược. Theo dõi và phân tích các chỉ số hiệu quả hoạt động (KPIs) của các kênh marketing như SEO, SEM, Social Media, Email Marketing, và các kênh khác. Xây dựng các báo cáo chi tiết về hiệu quả của từng chiến dịch và đề xuất các giải pháp cải tiến. Sử dụng các công cụ phân tích như Google Analytics, Facebook Insights, và các công cụ khác để đánh giá hiệu quả chiến lược marketing. Hỗ trợ xây dựng và phát triển các mô hình dự đoán để tối ưu hóa chiến dịch marketing và đạt được mục tiêu kinh doanh. Cộng tác chặt chẽ với đội ngũ Marketing để cung cấp các insights và khuyến nghị dựa trên dữ liệu phân tích. Báo cáo và phân tích cho các phòng ban khác (20%): Phân tích và xử lý dữ liệu từ các phòng ban khác để hỗ trợ quyết định chiến lược cho toàn công ty. Xây dựng và duy trì các hệ thống báo cáo định kỳ cho các phòng ban khác nhau. Đảm bảo tính chính xác và đầy đủ của dữ liệu trong quá trình phân tích. Đưa ra các dự đoán và xu hướng thông qua phân tích dữ liệu lịch sử để hỗ trợ các phòng ban khác tối ưu hoá hoạt động.</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Độ tuổi: 1998-1992 Bằng cấp/Chuyên môn: Tốt nghiệp đại học chuyên ngành IT, Thống kê, Kinh tế, hoặc các ngành liên quan. Kinh nghiệm làm việc: Có kinh nghiệm làm việc từ 3 năm trở lên trong lĩnh vực phân tích dữ liệu, ưu tiên ứng viên có kinh nghiệm trong lĩnh vực marketing. Thành thạo các công cụ phân tích dữ liệu như SQL, Excel, R, Python, Google Analytics, và các công cụ phân tích marketing khác. Kỹ năng phân tích và giải quyết vấn đề xuất sắc. Kỹ năng: Khả năng làm việc độc lập cũng như làm việc nhóm tốt. Khả năng giao tiếp và trình bày kết quả phân tích một cách rõ ràng và logic. Kỹ năng quản lý thời gian và ưu tiên công việc hiệu quả. Yêu cầu khác: - Tiếng Anh: đọc hiểu tài liệu tốt</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Mức lương: 15,000,000-20,000,000đ Đầy đủ các chế độ theo Luật lao động Việt Nam: BHXH, BHYT, BHTN, ngày nghỉ phép năm, lễ, Tết, thưởng lương tháng 13,... và các chế độ đãi ngộ đặc biệt khác tùy theo năng lực và sự đóng góp cho Công ty; Nghỉ phép năm theo quy chế của công ty, đối với nhân viên chính thức làm việc Môi trường làm việc: Hiện đại, trẻ trung, năng động, chuyên nghiệp Có lộ trình thăng tiến rõ ràng Được làm công việc về mảng mình yêu thích. Nội dung công việc thay đổi mỗi ngày, không có sự nhàm chán; Môi trường làm việc trẻ trung, năng động, thân thiện, vui vẻ với 90% GenZ Được đào tạo các kiến thức, kỹ năng về Trainer hoàn toàn miễn phí; Quà sinh nhật, summer trip, party cuối năm cùng các chương trình team building khác.</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Trưởng Phòng Triển Khai ERP Và Phân Tích Dữ Liệu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Trưởng Phòng Triển Khai ERP Và Phân Tích Dữ Liệu</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/truong-phong-trien-khai-erp-va-phan-tich-du-lieu/1873824.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CƠ ĐIỆN LẠNH HOÀNG ĐẠT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CƠ ĐIỆN LẠNH HOÀNG ĐẠT</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-co-dien-lanh-hoang-dat/56339.html</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-co-dien-lanh-hoang-dat/56339.html</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>40 - 60 triệu</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>40 - 60 triệu</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Tuổi 25 - 40</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>- Hà Nội: G2-0210 Vinhomes Green bay, Mễ Trì, Nam Từ Liêm</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 7 (từ 08:00 đến 17:00); 1 tháng nghỉ 2 chiều thứ 7.</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>1. Quản lý &amp; triển khai BA ERP (60%) Xây dựng chiến lược và lộ trình triển khai hệ thống ERP toàn công ty. Phân tích nghiệp vụ, tối ưu quy trình và đảm bảo ERP phù hợp thực tế sản xuất – kinh doanh. Làm việc trực tiếp với nhà cung cấp ERP, kiểm soát cấu hình, tiến độ &amp; chất lượng dự án. Tổ chức kiểm thử (UAT), nghiệm thu, đào tạo &amp; hỗ trợ người dùng sau go-live. Quản lý ngân sách, rủi ro và báo cáo định kỳ cho Ban lãnh đạo. 2. Phân tích dữ liệu &amp; hỗ trợ quản trị (40%) Xây dựng hệ thống báo cáo quản trị &amp; dashboard trực quan (Power BI, Tableau…). Quản lý data pipeline, đảm bảo tính chính xác &amp; đồng bộ dữ liệu từ ERP. Phân tích dữ liệu bán hàng, tài chính, tồn kho, chi phí → đưa ra insight phục vụ ra quyết định. Phối hợp các phòng ban khai thác dữ liệu để cải tiến hiệu quả vận hành.</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp công nghệ thông tin, Hệ thống thông tin quản lý, Kế toán – Tài chính hoặc ngành liên quan. Tối thiểu 6–8 năm kinh nghiệm, trong đó ít nhất 3 năm ở vị trí quản lý dự án ERP/Data. Đã từng tham gia hoặc quản lý full-cycle ERP project. Hiểu rõ quy trình nghiệp vụ: Tài chính – Kế toán, Mua hàng, Bán hàng, Kho vận. Thành thạo SQL, có kinh nghiệm với BI tools (Power BI, Tableau, Google Data Studio…). Kỹ năng lãnh đạo, quản lý dự án, giao tiếp &amp; phối hợp liên phòng ban xuất sắc. Ưu tiên ứng viên có kinh nghiệm với ERP quốc tế (SAP, Oracle NetSuite, Dynamics 365, Odoo, Bravo…).</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mức lương cạnh tranh: 40 – 60 triệu VND/tháng (tùy năng lực và kinh nghiệm) + thưởng hiệu quả hàng tháng. Thưởng hiệu quả công việc &amp; dự án theo năm: 1–2 tháng lương/năm. Thưởng cuối năm theo kết quả kinh doanh công ty: 1–3 tháng lương. Ngân sách đào tạo và hỗ trợ thi chứng chỉ công nghệ (AWS, Azure, Data…). Cơ hội tham gia vào việc định hình chiến lược dữ liệu toàn công ty.</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Ống đồng Toàn Phát, Ruby Copper, Taisei, Hailiang, Huahong, Mettube. Danfoss (Máy nén Maneurop và vật tư lắp đặt), Copeland (Máy nén khí). Chemours, Honeywell, Taisei (Ga lạnh), Superlon (Xốp bảo ôn), Gujarat, SFR, Juhua, Dongyue (Ga lạnh), Harris (Que hàn vẩy bạc). Trong đó, Hoàng Đạt phân phối một số thương hiệu độc quyền như Superlon (Xốp bảo ôn) miền Bắc, Taisei (ống đồng, ống gió, gas lạnh)… Cho đến nay, Hoàng Đạt đã cung cấp cho hơn 68.300+ công trình trên cả nước và xây dựng hơn 4.000+ đại lý bán hàng phủ khắp 63 tỉnh thành. Hoàng Đạt đang phát triển mạnh mẽ, vượt phạm vi thị trường Việt Nam, vươn tầm khu vực và thế giới. Chúng tôi luôn chú trọng tìm kiếm, đào tạo và phát triển đội ngũ nhân sự tinh thông nghiệp vụ, tận tâm phục vụ, xây dựng môi trường làm việc có nhiều cơ hội phát triển nghề nghiệp, đồng hành và gắn kết. Với chiến lược xây dựng và phát triển Hoàng Đạt Group là một tập đoàn tiên phong hàng đầu trong ngành cơ điện lạnh và phát triển đa ngành nghề, chúng tôi không ngừng mở rộng mạng lưới kinh doanh, phát triển hệ thống trên toàn quốc và luôn mở rộng cơ hội nghề nghiệp cho các nhân tài ở các vị trí. Thông tin chi tiết về Hoàng Đạt, ứng viên xem tại: www.hoangdat.vn Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CP LIÊN DOANH KANGAROO QUỐC TẾ - CN MIỀN NAM Điện tử / Điện lạnh Công ty Cổ phần MediaMart Việt Nam Thương mại điện tử Công ty Cổ phần Thiết Bị Công Nghiệp Hữu Hồng Điện tử / Điện lạnh Công ty cổ phần đầu tư và công nghệ HVC Thiết kế / kiến trúc Công ty Cổ phần Thế Giới Số (DIGIWORLD) IT - Phần cứng Công Ty Cổ Phần Dây Cáp Điện Việt Thái Điện tử / Điện lạnh Công ty TNHH Panasonic Appliances Việt Nam Điện tử / Điện lạnh Công ty CP Đầu tư Thương mại và Phát triển Công nghệ FSI - CN HCM IT - Phần mềm CHI NHÁNH CÔNG TRÌNH VIETTEL HÀ TĨNH - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Công ty TNHH Dreamtech Việt Nam Điện tử / Điện lạnh Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tòa G02 Tầng 02 căn số 09 Khu đô thị Greenbay Vinhomes Mễ Trì - Số 06 đường Lương Thế Vinh, Nam Từ Liêm, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chuyên Viên ISO - Sản Xuất Nhựa Tiêu Dùng</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chuyên Viên ISO - Sản Xuất Nhựa Tiêu Dùng</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-iso-san-xuat-nhua-tieu-dung/1872508.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN NHỰA TIẾN ĐỨC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN NHỰA TIẾN ĐỨC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-nhua-tien-duc/164350.html</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-nhua-tien-duc/164350.html</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>10 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Sản xuất</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>- Hà Nội: KĐT Tân Tây Đô, Đan Phượng</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); 8h00 - 17h00 từ thứ 2 đến thứ 6 và sáng thứ 7</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Xây dựng và giám sát hệ thống chất lượng theo tiêu chuẩn ISO, phối hợp với các bộ phận thiết lập quy trình, tiêu chuẩn quản lý chất lượng . Kiểm soát tài liệu và hồ sơ: Cập nhật, phê duyệt, ban hành tài liệu; đảm bảo tuân thủ yêu cầu ISO và lưu trữ hồ sơ toàn công ty. Đánh giá nội bộ và đào tạo: Tiến hành đánh giá hệ thống chất lượng; hỗ trợ đào tạo nhân viên về quy trình và cải tiến liên tục .</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Học vấn: Tốt nghiệp Đại học trở lên các chuyên ngành Quản trị kinh doanh, Truyền thông hoặc liên quan. Kinh nghiệm: Ít nhất 2 năm kinh nghiệm làm ISO trong công ty sản xuất . Ưu tiên ứng viên có kiến thức về hành chính nhân sự. Kỹ năng: Thành thạo Word, Excel, PowerPoint. Kỹ năng phân tích, làm việc độc lập, chịu áp lực cao. Kỹ năng lập kế hoạch, làm việc nhóm và ứng biến linh hoạt .</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lương: 10–20 triệu VNĐ (thỏa thuận theo năng lực) + Phụ cấp ăn 40k/ngày công. Bảo hiểm: Đóng BHXH, BHYT, BHTN đầy đủ sau thử việc. Phúc lợi: Du lịch hàng năm, thưởng tháng 13, thưởng kinh doanh. Khám sức khỏe định kỳ, thiết bị làm việc đầy đủ. Nâng lương hàng năm theo hiệu suất</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>KĐT Tân Tây Đô, Tân Lập, Đan Phượng, Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>KĐT Tân Tây Đô, Tân Lập, Đan Phượng, Hà Nội</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Quản Lý Hiệu Suất Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Quản Lý Hiệu Suất Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-quan-ly-hieu-suat-kinh-doanh/1835128.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>1. Thiết lập Mô hình Phân tích &amp; Cung cấp Insights Xây dựng và quản lý hệ thống cơ chế kinh doanh toàn diện cho hoạt động KD bán lẻ. Phân tích sâu về hiệu suất kinh doanh, hành vi khách hàng và xu hướng thị trường. Xây dựng các mô hình dự báo và phân tích dự đoán. Cung cấp insights chiến lược cho Ban lãnh đạo để hỗ trợ ra quyết định. Phân tích benchmark và đánh giá vị thế cạnh tranh của công ty. Đề xuất các cơ hội kinh doanh mới dựa trên phân tích dữ liệu. 2. Thiết kế &amp; Triển khai Giải pháp Báo cáo Tự động Thiết kế và xây dựng hệ thống dashboard theo dõi hiệu suất real-time. Phát triển các báo cáo tự động &amp; hệ thống cảnh báo sớm cho các chỉ số kinh doanh quan trọng. Tối ưu hóa quy trình thu thập và xử lý dữ liệu. Đảm bảo tính chính xác và kịp thời của hệ thống báo cáo. 3. Cải tiến Hiệu quả &amp; Quy trình thông qua Phân tích Dữ liệu Xác định các cơ hội tối ưu hóa quy trình kinh doanh. Phân tích P&amp;L của các hoạt động kinh doanh. Đề xuất và triển khai, đánh giá hiệu quả các sáng kiến cải tiến dựa trên dữ liệu. Xây dựng các metrics đo lường hiệu quả quy trình, đánh giá và cải tiến liên tục. 4. Xây dựng Chính sách Khối Bán lẻ Phân tích hiệu quả các chính sách hiện tại, đề xuất điều chỉnh chính sách dựa trên phản hồi thị trường. Nghiên cứu và đề xuất chính sách mới dựa trên phân tích dữ liệu. Đánh giá tác động của chính sách đối thủ đến thị phần. Xây dựng các kịch bản và dự báo cho các chính sách mới. 5. Điều phối liên phòng ban và chịu trách nhiệm báo cáo Báo cáo định kỳ với GĐ chiến lược bán lẻ và BLĐ về các nhiệm vụ và hiệu quả của bộ phận. Quản lý và điều phối các dự án phân tích dữ liệu kinh doanh chuyên sâu. Làm việc chặt chẽ với các bộ phận IT, Marketing, Sales và QTRR đảm bảo tiến độ và chất lượng các dự án phân tích dữ liệu, kịp thời nhận diện rủi ro và lên phương án xử lý. 6. Quản Trị Nhân Sự &amp; Phát Triển Đội Ngũ Quản lý công việc, phát triển năng lực và nâng cao hiệu quả làm việc nhân sự trực thuộc thông qua đào tạo. Kiến tạo văn hóa sáng tạo và chuyên nghiệp, tạo động lực phát triển cho đội ngũ. Thường xuyên tổ chức các buổi hội thảo nội bộ, hợp tác với chuyên gia bên ngoài để nâng cao trình độ đội ngũ.</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1. Trình độ học vấn/Chứng chỉ Tốt nghiệp đại học trở lên chuyên ngành Phân tích dữ liệu, Thống kê, Kinh tế hoặc các ngành liên quan. Tiếng Anh thành thạo là lợi thế. 2. Kinh nghiệm làm việc Từ 3 năm kinh nghiệm trong lĩnh vực phân tích dữ liệu. Trong đó tối thiểu 3 năm về phân tích kinh doanh, xây dựng cơ chế kinh doanh trong ngành tài chính/chứng khoán/bảo hiểm/ tập đoàn đa ngành bán lẻ. 3. Kiến thức/Kỹ năng/Năng lực chuyên môn 3.1. Kỹ năng chuyên môn Khả năng tư duy chiến lược và phân tích kinh doanh xuất sắc. Khả năng nhận diện &amp; đánh giá cơ hội/rủi ro kinh doanh. Kỹ năng phân tích thống kê và mô hình hóa dữ liệu xuất sắc. Kỹ năng giao tiếp, phản biện, thuyết phục xuất sắc. Tư duy hệ thống cao. Kinh nghiệm trong nghiên cứu thị trường và phân tích cạnh tranh. 3.2. Kỹ năng theo ngành Hiểu biết sâu sắc về thị trường chứng khoán, bảo hiểm và các sản phẩm tài chính. Thành thạo các công cụ phân tích dữ liệu (SQL, Python/R, Power BI/Tableau). 3.3. Kỹ năng số Thành thạo các hệ thống quản trị kinh doanh CRM. Kỹ năng sử dụng AI. 4. Năng lực lãnh đạo Lãnh đạo đội nhóm thực hiện mục tiêu dài hạn. Phát triển năng lực cá nhân trong đội. Đánh giá và cải thiện hiệu suất làm việc của đội nhóm. Thực hiện phân tích sâu các xu hướng thị trường, rủi ro, và cơ hội. Hỗ trợ lãnh đạo cấp cao trong việc ra quyết định chiến lược. Xử lý các tình huống đa chiều, đưa ra quyết định dựa trên phân tích dữ liệu và nhận định từ nhiều góc độ. Đảm bảo quyết định tối ưu hóa lợi ích và giảm thiểu rủi ro cho tổ chức. 5. Năng lực cốt lõi Có tố chất và tư duy phù hợp với hệ giá trị cốt lõi của công ty (IPAM &amp; 4C)</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1. Cộng đồng những người làm nghề chính trực và dấn thân phụng sự Môi trường làm nghề tài chính chuyên nghiệp. Làm việc với tinh thần làm chủ, sáng tạo và thách thức. 2. Tổng thu nhập theo năng lực Thu nhập xứng đáng theo năng lực và giá trị đóng góp. Xem xét thay đổi thu nhập hàng năm. 3. Chế độ đãi ngộ Tham gia BHXH, BHYT, BHTN theo đúng quy định luật lao động. Được tham gia đóng bảo hiểm sức khỏe và bảo hiểm tai nạn 24/24. 4. Tổ chức học tập và văn hóa sôi nổi Không gian làm việc mở với trang thiết bị hiện đại. Các hoạt động văn hóa, gắn kết đội ngũ, thiện nguyện phong phú, ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>&gt;1500 thành viên</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Trưởng Phòng Quản Lý Hiệu Suất Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Trưởng Phòng Quản Lý Hiệu Suất Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/truong-phong-quan-ly-hieu-suat-kinh-doanh/1835121.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>1. Thiết lập Mô hình Phân tích &amp; Cung cấp Insights Xây dựng và quản lý hệ thống cơ chế kinh doanh toàn diện cho hoạt động KD bán lẻ. Phân tích sâu về hiệu suất kinh doanh, hành vi khách hàng và xu hướng thị trường. Xây dựng các mô hình dự báo và phân tích dự đoán. Cung cấp insights chiến lược cho Ban lãnh đạo để hỗ trợ ra quyết định. Phân tích benchmark và đánh giá vị thế cạnh tranh của công ty. Đề xuất các cơ hội kinh doanh mới dựa trên phân tích dữ liệu. 2. Thiết kế &amp; Triển khai Giải pháp Báo cáo Tự động Thiết kế và xây dựng hệ thống dashboard theo dõi hiệu suất real-time. Phát triển các báo cáo tự động &amp; hệ thống cảnh báo sớm cho các chỉ số kinh doanh quan trọng. Tối ưu hóa quy trình thu thập và xử lý dữ liệu. Đảm bảo tính chính xác và kịp thời của hệ thống báo cáo. 3. Cải tiến Hiệu quả &amp; Quy trình thông qua Phân tích Dữ liệu Xác định các cơ hội tối ưu hóa quy trình kinh doanh. Phân tích P&amp;L của các hoạt động kinh doanh. Đề xuất và triển khai, đánh giá hiệu quả các sáng kiến cải tiến dựa trên dữ liệu. Xây dựng các metrics đo lường hiệu quả quy trình, đánh giá và cải tiến liên tục. 4. Xây dựng Chính sách Khối Bán lẻ Phân tích hiệu quả các chính sách hiện tại, đề xuất điều chỉnh chính sách dựa trên phản hồi thị trường. Nghiên cứu và đề xuất chính sách mới dựa trên phân tích dữ liệu. Đánh giá tác động của chính sách đối thủ đến thị phần. Xây dựng các kịch bản và dự báo cho các chính sách mới. 5. Điều phối liên phòng ban và chịu trách nhiệm báo cáo Báo cáo định kỳ với GĐ chiến lược bán lẻ và BLĐ về các nhiệm vụ và hiệu quả của bộ phận. Quản lý và điều phối các dự án phân tích dữ liệu kinh doanh chuyên sâu. Làm việc chặt chẽ với các bộ phận IT, Marketing, Sales và QTRR đảm bảo tiến độ và chất lượng các dự án phân tích dữ liệu, kịp thời nhận diện rủi ro và lên phương án xử lý. 6. Quản Trị Nhân Sự &amp; Phát Triển Đội Ngũ Quản lý công việc, phát triển năng lực và nâng cao hiệu quả làm việc nhân sự trực thuộc thông qua đào tạo. Kiến tạo văn hóa sáng tạo và chuyên nghiệp, tạo động lực phát triển cho đội ngũ. Thường xuyên tổ chức các buổi hội thảo nội bộ, hợp tác với chuyên gia bên ngoài để nâng cao trình độ đội ngũ.</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1. Trình độ học vấn/Chứng chỉ Tốt nghiệp đại học trở lên chuyên ngành Phân tích dữ liệu, Thống kê, Kinh tế hoặc các ngành liên quan. Tiếng Anh thành thạo là lợi thế. 2. Kinh nghiệm làm việc Từ 7 năm kinh nghiệm trong lĩnh vực phân tích dữ liệu. Trong đó tối thiểu 3 năm về phân tích kinh doanh, xây dựng cơ chế kinh doanh trong ngành tài chính/chứng khoán/bảo hiểm/ tập đoàn đa ngành bán lẻ. Tối thiểu 3 năm kinh nghiệm quản lý đội ngũ chuyên môn về phân tích dữ liệu. 3. Kiến thức/Kỹ năng/Năng lực chuyên môn 3.1. Kỹ năng chuyên môn Khả năng tư duy chiến lược và phân tích kinh doanh xuất sắc. Khả năng nhận diện &amp; đánh giá cơ hội/rủi ro kinh doanh. Kỹ năng phân tích thống kê và mô hình hóa dữ liệu xuất sắc. Kỹ năng giao tiếp, phản biện, thuyết phục xuất sắc. Tư duy hệ thống cao. Kinh nghiệm trong nghiên cứu thị trường và phân tích cạnh tranh. 3.2. Kỹ năng theo ngành Hiểu biết sâu sắc về thị trường chứng khoán, bảo hiểm và các sản phẩm tài chính. Thành thạo các công cụ phân tích dữ liệu (SQL, Python/R, Power BI/Tableau). 3.3. Kỹ năng số Thành thạo các hệ thống quản trị kinh doanh CRM. Kỹ năng sử dụng AI. 4. Năng lực lãnh đạo Lãnh đạo đội nhóm thực hiện mục tiêu dài hạn. Phát triển năng lực cá nhân trong đội. Đánh giá và cải thiện hiệu suất làm việc của đội nhóm. Thực hiện phân tích sâu các xu hướng thị trường, rủi ro, và cơ hội. Hỗ trợ lãnh đạo cấp cao trong việc ra quyết định chiến lược. Xử lý các tình huống đa chiều, đưa ra quyết định dựa trên phân tích dữ liệu và nhận định từ nhiều góc độ. Đảm bảo quyết định tối ưu hóa lợi ích và giảm thiểu rủi ro cho tổ chức. 5. Năng lực cốt lõi Có tố chất và tư duy phù hợp với hệ giá trị cốt lõi của công ty (IPAM &amp; 4C)</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1. Cộng đồng những người làm nghề chính trực và dấn thân phụng sự Môi trường làm nghề tài chính chuyên nghiệp. Làm việc với tinh thần làm chủ, sáng tạo và thách thức. 2. Tổng thu nhập theo năng lực Thu nhập xứng đáng theo năng lực và giá trị đóng góp. Xem xét thay đổi thu nhập hàng năm. 3. Chế độ đãi ngộ Tham gia BHXH, BHYT, BHTN theo đúng quy định luật lao động. Được tham gia đóng bảo hiểm sức khỏe và bảo hiểm tai nạn 24/24. 4. Tổ chức học tập và văn hóa sôi nổi Không gian làm việc mở với trang thiết bị hiện đại. Các hoạt động văn hóa, gắn kết đội ngũ, thiện nguyện phong phú, ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>&gt;1500 thành viên</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Senior Workforce Managment/Data Analyst</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tin tuyển dụng</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/brand/chinhanhtranscosmoshochiminh/tuyen-dung/senior-workforce-managment-data-analyst-j1825516.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH TRANSCOSMOS VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH TRANSCOSMOS VIỆT NAM - Chuyên trang tuyển dụng</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/brand/chinhanhtranscosmoshochiminh?id=150239</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>20 - 21.8 triệu</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1 năm</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Bán lẻ - Hàng tiêu dùng - FMCG; IT - Phần mềm</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nhân Viên Pricing And Data Analyst</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nhân Viên Pricing And Data Analyst</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-pricing-and-data-analyst/1867937.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Công ty TNHH Seoul Semiconductor Vina</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Công ty TNHH Seoul Semiconductor Vina</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-seoul-semiconductor-vina/16007.html</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-seoul-semiconductor-vina/16007.html</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Hà Nam</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Hà Nam</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Chuyên môn Tài chính; Ngân hàng; Tài chính; Kế toán; Tuổi 24 - 35</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>- Hà Nam: KCN Đồng Văn I, Duy Tiên</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:33); - Nghỉ trưa: 45 phút - Nghỉ giữa ca làm việc sáng/ chiều: 15 phút</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Phân tích dữ liệu lịch sử về doanh số, giá bán và thị trường để xác định xu hướng, cơ hội và rủi ro. Xây dựng và duy trì các mô hình định giá, nghiên cứu độ co giãn giá và so sánh giá cạnh tranh. Hỗ trợ xác định mức giá tối ưu theo nhóm sản phẩm và sản phẩm chủ lực, có tính đến sản lượng, cạnh tranh và mục tiêu lợi nhuận. Thực hiện mô phỏng để dự báo doanh thu, tác động đến lợi nhuận và kịch bản sản lượng theo các chiến lược giá khác nhau. Phối hợp với các bộ phận Kinh doanh, Quản lý sản phẩm và Tài chính để đảm bảo chiến lược giá phù hợp với mục tiêu kinh doanh. Theo dõi hiệu quả thực tế của giá bán và hỗ trợ hành động điều chỉnh khi có sai lệch. Hỗ trợ rà soát giá hàng quý và hàng năm, báo cáo quản lý và chuẩn bị tài liệu cho các cuộc họp ra quyết định của lãnh đạo. Đảm bảo tính chính xác của dữ liệu trong các công cụ và hệ thống định giá, đồng thời cải tiến liên tục quy trình dữ liệu. Đóng góp cho các sáng kiến tự động hóa nhằm tối ưu hóa quy trình định giá và phân tích.</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp đại học trở lên các chuyên ngành Kinh doanh, Kinh tế, Thống kê, Toán học, Kỹ thuật hoặc các ngành liên quan. Tối thiểu 2 năm kinh nghiệm trong lĩnh vực Định giá, Phân tích dữ liệu, Phân tích kinh doanh hoặc các vị trí tương tự (ưu tiên ứng viên có kinh nghiệm trong ngành bán dẫn hoặc điện tử). Kỹ năng phân tích mạnh, thành thạo Excel và các công cụ trực quan hóa dữ liệu (Power BI, Tableau). Có kinh nghiệm với các công cụ phân tích thống kê (Minitab, R, Python) là một lợi thế. Hiểu biết về các khái niệm tối ưu hóa giá (như độ co giãn giá, phân tích biên lợi nhuận đóng góp). Kỹ năng giao tiếp xuất sắc, có khả năng chuyển đổi dữ liệu thành những phân tích và giải pháp khả thi. Có khả năng làm việc độc lập cũng như phối hợp trong môi trường toàn cầu năng động, tốc độ cao. Tư duy chi tiết, kỹ năng giải quyết vấn đề tốt.</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Tại sao nên gia nhập chúng tôi Trở thành một phần của tập đoàn tiên phong hàng đầu thế giới trong công nghệ LED. Làm việc trong môi trường quốc tế năng động và đang phát triển. Cơ hội đóng góp và ảnh hưởng trực tiếp đến chiến lược kinh doanh thông qua phân tích dữ liệu. Cơ hội phát triển sự nghiệp trong các lĩnh vực định giá, khoa học dữ liệu và phân tích kinh doanh Chúng tôi mang đến cho bạn Làm việc 5 ngày/tuần (Thứ Hai – Thứ Sáu). Xe đưa đón hàng ngày từ Hà Nội đến Hà Nam. Hưởng đầy đủ ngày nghỉ lễ theo luật và nghỉ phép năm. Tham gia Bảo hiểm Xã hội, Bảo hiểm Y tế, Bảo hiểm Thất nghiệp ngay từ thời gian thử việc. Thưởng tháng 13, tiệc liên hoan, Happy Weekend,… Các khóa đào tạo ở Hàn Quốc. Xem xét tăng lương hàng năm. Môi trường làm việc toàn cầu cởi mở &amp; nhiều cơ hội thăng tiến, phát triển sự nghiệp.</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Báo Cáo - Trung Tâm Thẻ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Báo Cáo - Trung Tâm Thẻ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-bao-cao-trung-tam-the/1863452.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN NAM Á (NAM A BANK)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN NAM Á (NAM A BANK)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/ngan-hang-thuong-mai-co-phan-nam-a-nam-a-bank/161332.html</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/ngan-hang-thuong-mai-co-phan-nam-a-nam-a-bank/161332.html</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Ngân hàng; Tài chính; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 201 - 203 Cách Mạng Tháng Tám, Phường Bàn Cờ, Quận 3</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00)</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Nghiên cứu &amp; phát triển sản phẩm: Thu thập insight khách hàng, phân tích xu hướng thị trường, sản phẩm đối thủ. Tham gia xây dựng, cải tiến sản phẩm thẻ tín dụng theo phân khúc mục tiêu. Đề xuất các tính năng, chính sách, ưu đãi phù hợp với chiến lược kinh doanh. Phát triển &amp; quản trị hệ thống báo cáo: Thiết kế và triển khai hệ thống báo cáo quản trị (MIS) phục vụ theo dõi KPIs: phát hành, sử dụng, doanh số, dư nợ, nợ xấu, hiệu quả chiến dịch. Xây dựng dashboard trực quan (Power BI/ Tableau/ Excel nâng cao) phục vụ Ban Lãnh đạo và các đơn vị kinh doanh. Tự động hóa các báo cáo định kỳ, giảm thiểu thao tác thủ công. Phân tích dữ liệu để phát hiện vấn đề, cơ hội tăng trưởng và đề xuất giải pháp. Phối hợp &amp; hỗ trợ: Làm việc chặt chẽ với Khối CNTT, Kinh doanh, Marketing, Rủi ro để đảm bảo dữ liệu báo cáo chính xác, kịp thời. Hỗ trợ đào tạo, hướng dẫn đơn vị kinh doanh khai thác hệ thống báo cáo. Thực hiện các nhiệm vụ khác theo phân công của quản lý trực tiếp.</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp đại học các ngành: Kinh tế, Tài chính – Ngân hàng, Thống kê, Toán kinh tế, Công nghệ thông tin hoặc liên quan. Kinh nghiệm: Ít nhất 2 năm trong lĩnh vực phân tích dữ liệu/ MIS/ báo cáo kinh doanh, ưu tiên trong ngân hàng hoặc tổ chức tài chính. Có hiểu biết về sản phẩm thẻ tín dụng hoặc sản phẩm bán lẻ ngân hàng là lợi thế. Kỹ năng: Thành thạo Excel nâng cao, SQL; ưu tiên biết Power BI/ Tableau. Kỹ năng phân tích dữ liệu, lập báo cáo và trình bày kết quả. Khả năng tư duy logic, chi tiết và cẩn thận. Giao tiếp, phối hợp tốt giữa nhiều phòng ban. Tiếng Anh: Đọc hiểu tài liệu chuyên ngành.</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Bảo đảm công việc ổn định lâu dài, nhiều tình huống thử thách tính năng động và sáng tạo, phát huy tối đa năng lực bản thân, có cơ hội thăng tiến, phát triển sự nghiệp. Môi trường và điều kiện làm việc tốt, đầy đủ phương tiện, thiết bị; Đồng nghiệp thân thiện, sẵn sàng giúp đỡ, hỗ trợ; Đánh giá và trả lương theo năng lực, thưởng hấp dẫn. Được hưởng đầy đủ các chế độ đãi ngộ theo Luật Lao động Việt Nam (BHXH, BHYT…); Được tham gia các chương trình đào tạo nội bộ và bên ngoài</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>201-203 Cách Mạng Tháng Tám, Phường 4, Quận 3, Thành phố Hồ Chí Minh, Việt Nam Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN CÔNG NGHỆ VI MÔ IT - Phần mềm Công ty CPDV Trực tuyến Cộng Đồng Việt (VietUnion) Tài chính Ngân hàng TMCP Phát triển TP. HCM (HDBank) Ngân hàng CÔNG TY CỔ PHẦN CHỨNG KHOÁN MIRAE ASSET (VIỆT NAM) Chứng khoán Công ty Cổ Phần Tập Đoàn Bất Động Sản CRV Bất động sản CÔNG TY CỔ PHẦN TẬP ĐOÀN KHẢI HOÀN LAND Bất động sản CÔNG TY TÀI CHÍNH TRÁCH NHIỆM HỮU HẠN MỘT THÀNH VIÊN SHINHAN VIỆT NAM - CHI NHÁNH BÌNH DƯƠNG Tài chính Công ty TNHH một thành viên Tổng Công ty Sản xuất thiết bị Viettel Tài chính Công Ty Cổ Phần Dây Cáp Điện Việt Thái Điện tử / Điện lạnh Ngân hàng SHB Ngân hàng Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 201-203 Cách Mạng Tháng Tám, Phường Bàn Cờ, Thành phố Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Operations Analyst</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Operations Analyst</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/operations-analyst/1862011.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Công ty Cổ phần Dịch vụ Tức Thời (Ahamove)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Công ty Cổ phần Dịch vụ Tức Thời (Ahamove)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-dich-vu-tuc-thoi-ahamove/22.html</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-dich-vu-tuc-thoi-ahamove/22.html</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Thương mại điện tử; Logistic / Vận tải; Bán lẻ - Hàng tiêu dùng - FMCG; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 7/28 Thành Thái, Quận 10</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 18:00)</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>1. Reporting &amp; Data Analysis (40%) Develop and maintain data-mart systems to support performance reporting and policy evaluation. Design and build dashboards based on business requirements (e.g., Metabase, Data Studio). Collaborate with departments to standardize metric definitions and ensure data consistency across teams. Automate recurring data report flows (daily/weekly/monthly) 2. Performance Evaluation &amp; Experimentation (30%) Coordinate with specialized teams to design policy experiments (e.g., A/B tests, canary launches, regional/user-based pilots). Analyze experimental results using quantitative methods (e.g., lift, uplift, ROI, retention impact). Provide data-driven recommendations for policy or operational decision-making. 3. Knowledge &amp; Documentation (30%) Standardize and maintain documentation related to reporting systems, data-marts, experiment logic, and dashboard usage guides. Establish knowledge repositories, checklists, and internal wikis for data practices and analytical methodologies. Collaborate with team members to ensure knowledge transfer, cross-departmental learning, and proper training.</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree in Data Analytics, Information Systems, Statistics, Economics, or related fields. Minimum of 2 years of experience in data analysis and building reporting systems. Proficient in SQL and analytical tools such as BigQuery, Metabase, Google Sheets; familiarity with Python or R is a plus. Experience with Data Warehousing, Data-mart structures, and ETL processes. Strong understanding of A/B testing, causal inference, and effectiveness modeling. Ability to present and visualize data clearly and intuitively. Strong skills in documentation, knowledge sharing, and process communication. Systematic thinking, attention to detail, and a mindset for continuous improvement. Proactive, capable of cross-functional collaboration and handling multiple projects simultaneously.</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Social Insurance &amp; Generali Health Insurance. Annual health check at a reputable hospital. Annual travel, team building, year-end party. Annual Performance Bonus. Excellent and competitive salary with 13th-month salary. Startup environment, young, dynamic, work hard, play hard. Working time: 5 days/week and flexible according to job positions. Location: 7/28 Thanh Thai str, Ward 14, District 10, HCMC.</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nhân Viên Tư Vấn Giải Pháp Phần Mềm</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Nhân Viên Tư Vấn Giải Pháp Phần Mềm</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/nhan-vien-tu-van-giai-phap-phan-mem/1810584.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Công ty CP Đầu tư Thương mại và Phát triển Công nghệ FSI - CN HCM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Công ty CP Đầu tư Thương mại và Phát triển Công nghệ FSI - CN HCM</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-cp-dau-tu-thuong-mai-va-phat-trien-cong-nghe-fsi-cn-hcm/199028.html</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-cp-dau-tu-thuong-mai-va-phat-trien-cong-nghe-fsi-cn-hcm/199028.html</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>16 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>16 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; An ninh mạng; IT - Phần cứng và máy tính</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>- Hồ Chí Minh: 26/22 Đường số 3, Cư xá Đô Thành, Phường 4, Quận 3</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:00); Thứ 7 tuần 2 và tuần 4 làm online</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>- Trước khi Ký Hợp Đồng: o Khảo sát, làm rõ yêu cầu nghiệp vụ của khách hàng, thu thập thông tin và dữ liệu cần thiết. o Phân tích nghiệp vụ (Business Analysis), mô hình hóa quy trình hiện tại và đề xuất quy trình mới tối ưu. o Thiết kế và xây dựng các giải pháp phần mềm (ứng dụng, hệ thống quản lý, AI, Big Data, IoT) đáp ứng yêu cầu. o Soạn thảo tài liệu đặc tả yêu cầu nghiệp vụ (URS), thiết kế giải pháp phần mềm, hồ sơ kỹ thuật thầu. o Chuẩn bị và trình bày giải pháp phần mềm cho khách hàng, tập trung vào giá trị nghiệp vụ. o Lập kế hoạch triển khai dự án phần mềm (giai đoạn phân tích, thiết kế, phát triển, kiểm thử, đào tạo). o Tổng hợp tài liệu giải pháp phần mềm liên quan. o Là đầu mối giao tiếp chính với AM, đội phát triển/triển khai, đối tác phần mềm và khách hàng về khía cạnh nghiệp vụ và giải pháp - Trong và Sau Triển Khai: Tham gia hỗ trợ team triển khai/phát triển về mặt làm rõ nghiệp vụ và kiểm thử nghiệm thu người dùng (UAT) - Phát triển Giải pháp &amp; Đào tạo: o Nghiên cứu sản phẩm, giải pháp, dịch vụ phần mềm mới trên thị trường. o Làm việc với các đối tác phần mềm để nắm bắt công nghệ và tính năng mới. o Giới thiệu các sản phẩm, giải pháp, dịch vụ phần mềm mới cho khách hàng. o Chuẩn bị tài liệu và đào tạo nội bộ cho AM (slide, các câu hỏi kiểm tra) về giải pháp phần mềm và nghiệp vụ. o Tham gia các khóa đào tạo (nội bộ, hãng) để nâng cao chuyên môn</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>- Kiến thức: o Kiến thức về Phân tích Nghiệp vụ (Business Analysis): Nắm vững các kỹ thuật thu thập, phân tích, đặc tả yêu cầu (ví dụ: Use Case, User Story, Process Flow, Data Flow Diagram). o Kiến thức về các giải pháp phần mềm doanh nghiệp: Hiểu biết về các hệ thống như ERP, CRM, DMS, Portal, E-learning, Big Data, AI/Machine Learning, IoT, hoặc các phần mềm chuyên ngành khác. o Hiểu biết về chu trình phát triển phần mềm (SDLC) và các phương pháp phát triển (Waterfall, Agile/Scrum). o Có kiến thức về cơ sở dữ liệu, kiến trúc phần mềm, API, tích hợp hệ thống ở mức độ đủ để tư vấn và làm rõ yêu cầu kỹ thuật. - Trình độ: Tốt nghiệp Đại học trở lên chuyên ngành CNTT, Hệ thống thông tin, Khoa học Máy tính hoặc các ngành liên quan. - Kinh nghiệm: Tối thiểu 2 năm kinh nghiệm ở vị trí Business Analyst (BA), Chuyên viên Tư vấn Phần mềm, hoặc Presales Phần mềm - Kỹ năng: o Phân tích nghiệp vụ: Khả năng nắm bắt vấn đề, quy trình nghiệp vụ phức tạp và chuyển hóa thành yêu cầu phần mềm. o Giao tiếp và lắng nghe: Để tương tác hiệu quả với khách hàng (bao gồm cả khối chính phủ). o Thuyết trình, trình bày tài liệu giải pháp nghiệp vụ rõ ràng, logic. o Tiếng Anh thành thạo (nghe, nói, đọc, viết) để đọc hiểu tài liệu và làm việc với đối tác. o Tư duy logic và khả năng giải quyết vấn đề</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lương: thoả thuận Thưởng tháng 13 + Thưởng nóng + Thưởng thi đua quý/năm Môi trường làm việc năng động, thân thiện, chuyên nghiệp với nhiều cơ hội phát triển Được tham gia các khóa đào tạo nội bộ và bên ngoài để nâng cao kiến thức, kỹ năng mềm và trình độ chuyên môn. Được đào tạo trực tiếp từ các Cố vấn/ chuyên gia Tư vấn và Công nghệ …. Phúc lợi: Teambuilding, nghỉ mát, sinh nhật, thưởng lễ/tết,… Các chế độ bảo hiểm, nghỉ phép,… theo Luật lao động Thời gian làm việc: 8h00 – 12h00, 13h00 – 17h00, Thứ 2 – Thứ 6. Thứ 7 làm việc tuần 2 và 4 trong tháng.</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Hiện FSI là Nhà cung cấp hàng đầu trong lĩnh vực giải pháp, dịch vụ số hóa tài liệu và Tích hợp hệ thống Công nghệ thông tin. FSI là nhà phân phối độc quyền, duy nhất Máy scan Plustek, Kodak, SMA tại thị trường miền Bắc, Nhà phân phối độc quyền máy scan, in khổ A0 của ROWE tại khu vực Đông Dương, Gold Partner của Hp, IBM, Canon, Fujitsu... FSI đã triển khai thành công nhiều dự án số hóa tài liệu, tích hợp hệ thống trọng điểm tại các Bộ, Sở, Ngành của Hà Nội và các tỉnh Sứ mệnh của chúng tôi là: Nghiên cứu, chuyển giao các giải pháp công nghệ tiên tiến trên cơ sở thấu hiểu nhu cầu của khách hàng để cung cấp các giải pháp CNTT thông minh, phù hợp với thực tế, nhằm mang lại giá trị và hiệu quả cao FSI đang hướng tới mục tiêu trở thành Đơn vị cung cấp giải pháp, dịch vụ số hóa tài liệu số 1 tại Việt Nam trước năm 2020 Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. Công ty Cổ phần Viễn thông - Tin học Bưu điện Viễn thông Công Ty Cổ Phần Đầu Tư Thương Mại Và Phát Triển Công Nghệ FSI IT - Phần mềm Công ty TNHH Thương mại Dịch vụ Tin học An Phát IT - Phần cứng CÔNG TY CỔ PHẦN ĐẦU TƯ PHÁT TRIỂN MÁY VIỆT NAM - CHI NHÁNH BÌNH DƯƠNG Logistics - Vận tải Công ty TNHH SX HTD Bình Tiên Sản xuất TẬP ĐOÀN CÔNG NGHIỆP - VIỄN THÔNG QUÂN ĐỘI Viễn thông Công ty CP Giải pháp Thanh toán Việt Nam (VNPAY) IT - Phần mềm Công ty Cổ Phần Rikkeisoft IT - Phần mềm Chi nhánh Công trình Viettel Phú Thọ - Tổng Công ty CP Công trình Viettel Viễn thông CHI NHÁNH CÔNG TRÌNH VIETTEL ĐỒNG NAI - TỔNG CÔNG TY CỔ PHẦN CÔNG TRÌNH VIETTEL Viễn thông Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Tầng 5A – Tòa nhà Lâm Viên – 107A Nguyễn Phong Sắc – Cầu Giấy – Hà Nội Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Chuyên Viên - Phân Tích &amp; Dự Báo Hàng Hoá</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Chuyên Viên - Phân Tích &amp; Dự Báo Hàng Hoá</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-bao-hang-hoa/1856154.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Công Ty Cổ Phần Vàng Bạc Đá quý Phú Nhuận - PNJ</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Công Ty Cổ Phần Vàng Bạc Đá quý Phú Nhuận - PNJ</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-vang-bac-da-quy-phu-nhuan-pnj/200862.html</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-vang-bac-da-quy-phu-nhuan-pnj/200862.html</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>16 - 18 triệu</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>16 - 18 triệu</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Tài chính; Kế toán; Ngân hàng; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>- Hà Nội: 6A Trần Nhân Tông, Hai Bà Trưng</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 18:00)</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>1. Dự báo • Thu thập các thông tin nội bộ (số liệu về hoạt động kinh doanh theo quá trình) và các thông tin bên ngoài đáp ứng cho công việc xây dựng mô hình dự báo. • Kiểm soát việc thực thi các mô hình dự báo theo nhu cầu của công ty, theo yêu cầu, bao gồm: + Mô hình dự báo xu hướng tiêu dùng. + Mô hình dự báo nhu cầu thị trường theo từng cụm/ cửa hàng. • Đánh giá các kết quả dự báo để xây dựng thành các chỉ tiêu, các thông số hoạt động hoặc kinh doanh. • Dự báo các rủi ro (về thị trường … khi phân tích xu hướng theo tháng/quý/ năm và khu vực). 2. Kế hoạch. • Lập kế hoạch hàng hóa theo tháng/ quý/ năm dựa trên dự báo nhu cầu, đảm bảo đáp ứng nhu cầu hàng hóa cho hệ thống kinh doanh và tối ưu hóa vòng quay vốn. • Phối hợp với các bên liên quan (kinh doanh, Marketing…) trong việc lên kế hoạch nhu cầu của sản phẩm và phân tích tính hiệu quả kinh doanh – tồn kho của sản phẩm tại theo từng mô hình &amp; từng Tier của chi nhánh. • Kế hoạch phản ứng nhanh để đáp ứng nhu cầu thay đổi của thị trường. • Xây dựng và tự động hóa các Dashboard quản trị hiệu quả và hỗ trợ xây dựng các Phương án kế hoạch hàng hóa tối ưu 3. Phân tích nhu cầu • Áp dụng các kỹ thuật phân tích thống kê, phân tích dữ liệu và khai thác dữ liệu để xác định xu hướng, mô hình và thông tin chi tiết giá trị từ dữ liệu. • Phân tích các yếu tố ảnh hưởng đến kết quả kinh doanh và biến động thị trường.. • Phân tích và triển khai danh mục hàng bán chạy cho toàn hệ thống, từ đó nâng cao hiệu quả đặt hàng (hàng khuyến nghị). • Phân tích tính hiệu quả kinh doanh – tồn kho của sản phẩm tại theo từng mô hình &amp; từng Tier của từng cụm • Phân tích nhu cầu hàng hóa( hàng khuyến nghị) theo từng nhóm hàng, khu vực có tham chiếu đến đặc thù địa lý khu vực, yếu tố mùa vụ • Quản lý và đảm bảo tồn kho hệ thống tối ưu phù hợp • Phối hợp với HO xây dựng danh mục khuyến nghị bổ sung định kỳ phù hợp với từng cửa hàng/ khu vực theo định kỳ. 5. Lập báo cáo • Chuẩn bị các báo cáo phân tích và dự báo định kỳ và đột xuất theo yêu cầu. Thuyết trình kết quả phân tích và dự báo • Đề xuất các hành động dựa trên kết quả phân tích và dự báo. • Xây dựng và triển khai hệ thống báo cáo phân tích chuyên sâu với các mô hình tối ưu nhằm tự động hóa hoạt động phân tích • Xây dựng các báo cáo quản trị / cảnh báo về Doanh thu/ Tồn kho/ Tỉnh trạng hàng hóa / đánh giá hàng hóa • Tìm hiểu đánh giá dữ liệu và xây dựng dữ liệu riêng cho Phòng. Vận hành xây dựng data phục vụ cho các báo cáo</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>TRÌNH ĐỘ HỌC VẤN • Bằng cấp: Đại học - Chuyên ngành: Thống kê - Dự báo hoặc toán thống kê hoặc các chuyên ngành liên quan • Các học vấn khác cần cho ngành nghề: Kiến thức về nghiên cứu thị trường, tài chính. CÁC KINH NGHIỆM LIÊN QUAN • Số năm kinh nghiệm liên quan: 3 năm • Kỹ năng công việc: - Thành thạo Microsoft Office: Word, Power Point, Excel, Excel Dashboard, - Sử dụng SQL server, Python, Power BI, xây dựng các báo cáo bằng các tool hỗ trợ như Tableau, VBA - Phân tích tài chính và đọc được tài liệu liên quan. - Kỹ năng mềm: Giao tiếp, thuyết trình - Phân tích big data - Xây dựng các mô hình dự báo. - Phân tích dự báo thị trường.</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>-Thu nhập cạnh tranh tương xứng khả năng làm việc -Thưởng hấp dẫn, bao gồm: Tháng 13,14,15 Thưởng vào các dịp lễ tết, Thưởng đột xuất cho cá nhân có thành tích xuất sắc, Thưởng theo kết quả kinh doanh công ty …. -Tham gia đầy đủ các loại bảo hiểm theo quy định và các bảo hiểm khác như Bảo hiểm 24/24,bảo hiểm Premium healthcare tùy vào cấp bậc. -Kiểm tra sức khoẻ định kỳ cho toàn bộ nhân viên. -Môi trường làm việc chuyên nghiệp, ổn định, thân thiện và năng động. -Cơ hội thăng tiến, phát triển nghề nghiệp. -Chế độ đào tạo: Chương trình định hướng nghề nghiệp rõ ràng cho nhân viên. Được tham gia các khóa đào tạo trong và ngoài nước. -Các họat động tập thể: Team Building, Ngày hội gia đình, Văn nghệ, CLB thể dục thể thao, nghỉ mát</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>thuộc Top 500 nhà bán lẻ hàng đầu Châu Á Thái Bình Dương, Giải thưởng Chất lượng Châu Á Thái Bình Dương, Thương hiệu quốc gia, … Để tiếp tục khẳng định vị thế PNJ tại VN và thế giới, chúng tôi đang mở rộng hệ thống phát triển kinh doanh và cần bổ sung những ứng viên tài năng vào đội ngũ nhân sự chuyên nghiệp của mình. Tại PNJ, sự nghiệp của các bạn sẽ được phát triển cùng với sự lớn mạnh không ngừng của chúng tôi. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY TNHH KIẾN VƯƠNG Dược phẩm / Y tế / Công nghệ sinh học Công ty Cổ phần Tập đoàn Khoáng sản và Thương mại VQB Sản xuất NEW VIET DAIRY Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN ĐẦU TƯ PHÁT TRIỂN MÁY VIỆT NAM - CHI NHÁNH BÌNH DƯƠNG Logistics - Vận tải Công ty Cổ phần Đầu tư và Công nghệ HTI IT - Phần mềm Hệ thống Bán lẻ Viettel store - Công ty TM &amp; XNK Viettel Viễn thông MIPEC HEALTHCARE &amp; FITNESS CENTER - CÔNG TY CỔ PHẦN HÓA DẦU QUÂN ĐỘI Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Tập đoàn ASG Logistics - Vận tải Công ty CP Đầu tư Thương mại và Phát triển Công nghệ FSI - CN HCM IT - Phần mềm Công ty TNHH một thành viên Tổng Công ty Sản xuất thiết bị Viettel Tài chính Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty 170E Phan Đăng Lưu, Phường 3, Phú Nhuận, Hồ Chí Minh, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Research Analyst Associate Manager</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Research Analyst Associate Manager</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/research-analyst-associate-manager/1774757.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Hà Nội, Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Hà Nội , Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>- Hà Nội; - Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>1. Research Oversight Ensure the team produces high-quality research reports that meet organizational standards for accuracy, clarity, and actionability. Supervise the coverage of companies within the assigned sector, ensuring sufficient depth and breadth of analysis. Giám sát nghiên cứu Đảm bảo nhóm tạo ra các báo cáo Phân tích chất lượng cao đáp ứng các tiêu chuẩn của tổ chức về độ chính xác, rõ ràng và khả năng hành động. Giám sát phạm vi bao phủ của các công ty trong lĩnh vực được giao, đảm bảo phân tích đủ chiều sâu và chiều rộng. 2. Client Engagement Present research findings to institutional and wealth management clients. Build and maintain client relationships, ensuring a high level of satisfaction and engagement. Gắn kết với khách hàng. Trình bày kết quả Phân tích cho các khách hàng tổ chức và khách hàng mục tiêu. Xây dựng và duy trì mối quan hệ với khách hàng, đảm bảo mức độ hài lòng và gắn kết cao. 3. Strategic Contribution Align research activities with company priorities and market trends. Identify emerging opportunities and risks within the sector. Đóng góp chiến lược Điều chỉnh các hoạt động Phân tích phù hợp với ưu tiên của công ty và xu hướng thị trường. Xác định các cơ hội và rủi ro đang nổi lên trong ngành. 4. Collaboration Across Departments Support other departments, such as investment banking, wealth management, and asset management, on special projects as required. Work closely with the Advisory Center team to integrate macroeconomic insights into sector reports. Hợp tác giữa các phòng ban Hỗ trợ các bộ phận khác như IB, WA và Quản lý tài trong các dự án đặc biệt theo yêu cầu. Phối hợp chặt chẽ với nhóm Trung tâm Tư vấn để tích hợp những hiểu biết sâu sắc về kinh tế vĩ mô vào các báo cáo ngành. 5. Relationship Building Build and maintain strong relationships with management teams of companies in the sector. Develop connections with industry and trade association groups to enhance research insights. Establish a strong personal and team reputation in the investment community by showcasing expertise and thought leadership. Phát triển đối tác Xây dựng và duy trì mối quan hệ chặt chẽ với đội ngũ quản lý của các công ty trong ngành. Phát triển kết nối với các nhóm hiệp hội ngành nghề và thương mại để nâng cao hiểu biết phân tích. Xây dựng danh tiếng cá nhân và nhóm mạnh mẽ trong cộng đồng đầu tư bằng cách thể hiện chuyên môn. 6. Team Management Lead, mentor, and manage a team of senior analysts and analysts to drive performance and professional growth. Conduct regular performance reviews and provide constructive feedback. Quản lý nhóm Dẫn dắt, hướng dẫn và quản lý nhóm Chuyên viên Phân tích để thúc đẩy hiệu suất và phát triển nghề nghiệp. Tiến hành đánh giá hiệu suất thường xuyên và đưa ra phản hồi mang tính xây dựng.</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Bachelor’s or Master’s degree in finance, economics, or a related field. Bằng Cử nhân hoặc Thạc sĩ về tài chính, kinh tế hoặc lĩnh vực liên quan. 8+ years of experience in equity research or a related field, with at least 3 years in a leadership role. 8+ năm kinh nghiệm trong phân tích cổ phiếu hoặc lĩnh vực liên quan, với ít nhất 3 năm ở vị trí quản lý nhóm. CFA designation preferred. Ưu tiên chứng chỉ CFA Strong analytical, communication, and presentation skills. Proven ability to manage and mentor a team. Kỹ năng phân tích, giao tiếp và trình bày tốt. Có khả năng quản lý và đào tạo nhóm.</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1. Community of ethical and dedicated professionals Cộng đồng những người làm nghề chính trực và dấn thân phụng sự Professional financial work environment. Work with an entrepreneurial spirit, creativity, and challenge. Môi trường làm nghề tài chính chuyên nghiệp. Làm việc với tinh thần làm chủ, sáng tạo và thách thức. 2. Performance-based compensation Tổng thu nhập theo năng lực Competitive income based on ability and contribution. Annual salary review. Thu nhập xứng đáng theo năng lực và giá trị đóng góp. Xem xét thay đổi thu nhập hàng năm. 3. Benefits Package Chế độ đãi ngộ Social insurance, health insurance, and unemployment insurance as per labor law. Participation in 24/7 health and accident insurance. Tham gia BHXH, BHYT, BHTN theo đúng quy định luật lao động. Được tham gia đóng bảo hiểm sức khỏe và bảo hiểm tai nạn 24/24. 4. Learning organization and vibrant culture Tổ chức học tập và văn hóa sôi nổi Open workspace with modern equipment. Rich and meaningful cultural activities, team-building events, and charitable initiatives. Không gian làm việc mở với trang thiết bị hiện đại. Các hoạt động văn hóa, gắn kết đội ngũ, thiện nguyện phong phú, ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>&gt;1500 thành viên</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Thống Kê Dữ Liệu Kho Vận</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Thống Kê Dữ Liệu Kho Vận</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-thong-ke-du-lieu-kho-van/1851788.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI VHC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI VHC</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-thuong-mai-vhc/201010.html</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-tnhh-thuong-mai-vhc/201010.html</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12 - 15 triệu</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12 - 15 triệu</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Chuyên môn Phân tích dữ liệu; Bán lẻ - Hàng tiêu dùng - FMCG; Kho vận; Kế toán; Tuổi 25 - 35</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>- Hà Nội: 411 Tam Trinh, Hoàng Văn Thụ, Hoàng Mai</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 7 (từ 08:00 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Theo dõi, giám sát, tổng hợp các báo cáo định kỳ và phát sinh của hệ thống các phòng trong Ban DVKH &amp; Kho Vận. Thực hiện thu thập dữ liệu, xây dựng, thống kê và phân tích các báo cáo theo yêu cầu. Quản lý chính xác số liệu thực tế và hệ thống. Đối soát về số liệu, chứng từ hóa đơn lưu trữ. Đầu mối tổng hợp và xử lý các phát sinh chênh lệch về số liệu kiểm kê, dữ liệu vận hành. Theo dõi, kiểm tra và đối soát với các phòng trong Ban DVKH &amp; Kho Vận trong việc tuân thủ các quy trình, quy định do Công ty ban hành và theo các quy định của pháp luật. Thực hiện các nhiệm vụ khác theo phân công và ủy quyền của cấp trên.</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Nam/nữ, Tốt nghiệp Cao đẳng trở lên, có ít nhất 2 năm kinh nghiệm vị trí tương đồng trong lĩnh vực Kho, Logistics, Bán lẻ, Trợ lý…. Có kiến thức chuyên môn về nghiệp vụ Kế toán, Thống kê. Ưu tiên ứng viên đã sử dụng các hệ thống ERP, SAP, … Có khả năng phân tích, tổng hợp, thống kê, kỹ năng Tin học văn phòng thành thạo( Excel/Mircrosoft office/Google Sheet/ Power BI, Google Data…). Có khả năng làm việc với áp lực cao. Có thể đi công tác theo sự phân công của cấp trên khi cần. Kỹ năng làm việc hệ thống tốt. Tỉ mỉ, cận thận, nhạy bén với số liệu.</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Thu nhập theo năng lực từ 12 - 15 triệu Phúc lợi đầy đủ: BHXH, BHTN, BHYT, hiếu hỉ, sinh nhật, khám sức khỏe, thưởng năm..... Ký HĐLĐ xác định thời hạn sau thời gian thử việc Môi trường phát triển bền vững, được cọ xát, tích lũy thêm kinh nghiệm từ đội ngũ nhân viên dày dặn kinh nghiệm và làm việc trong môi trường năng động, bình đẳng, chuyên nghiệp.</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>- Chế độ thu nhập: không giới hạn, hưởng theo năng lực và kết quả kinh doanh. - Chế độ thưởng sản phẩm dành riêng cho nhân viên tư vấn bán hàng và quản lý ngành hàng. - Phụ cấp khác theo tính chất công việc: điện thoại, xăng xe, đi đường… Các chính sách phúc lợi khác: - Thưởng thành tích, tháng, quý, năm. - Chế độ liên quan đến thưởng ngày nghỉ lễ, tết nguyên Đán, ngày Quốc khánh, ngày Sinh nhật Công ty…. - Chế độ liên quan đến bảo vệ quyền lợi cho người lao động như: Sinh nhật, hiếu, hỉ, ốm đau, kết hôn…. - Khám sức khỏe 1 năm một lần - Chế độ bảo hiểm (xã hội, y tế, thất nghiệp), bảo hiểm tai nạn lao động, bệnh nghề nghiệp, tử tuất theo quy định của luật lao động. - Các chế độ khác liên quan đên việc tổ chức các hoạt động văn hóa, thể thao, văn nghệ của tổ chức công đoàn Công ty… Đào tạo và phát triển: “ VHC cung cấp chương trình đào tạo và phát triển ở tất cả các cấp giúp bạn mài giũa kỹ năng, tiến bộ ở vị trí hiện tại và sẵn sàng cho việc chấp nhận thách thức ở những vị trí cao hơn” Trung tâm đào tạo VHC với đội ngũ hơn 50 giảng viên là các quản lý dày dạn kinh nghiệm cung cấp cho mỗi nhân viên VHC kiến thức và kỹ năng chuyên biệt cho nghề Bán lẻ, cũng như các kỹ năng chuyên môn khác. - Chương trình đào tạo Kỹ năng bán hàng - Chương trình đào tạo Sản phẩm - Chương trình đào tạo Quy trình - Chương trình đào tạo Kỹ năng mềm - Chương trình đào tạo Kỹ năng quản lý - Chương trình liên kết đào tạo với các hãng, nhà cung cấp, các tổ chức đào tạo giúp nhân viên tiếp cận với các kiến thức, tri thức mới. Xem thêm Thu gọn Tuyển dụng Tất cả tỉnh/thành phố Hà Nội Hồ Chí Minh Bình Dương Bắc Ninh Đồng Nai Hưng Yên Hải Dương Đà Nẵng Hải Phòng An Giang Bà Rịa-Vũng Tàu Bắc Giang Bắc Kạn Bạc Liêu Bến Tre Bình Định Bình Phước Bình Thuận Cà Mau Cần Thơ Cao Bằng Cửu Long Đắk Lắk Đắc Nông Điện Biên Đồng Tháp Gia Lai Hà Giang Hà Nam Hà Tĩnh Hậu Giang Hoà Bình Khánh Hoà Kiên Giang Kon Tum Lai Châu Lâm Đồng Lạng Sơn Lào Cai Long An Miền Bắc Miền Nam Miền Trung Nam Định Nghệ An Ninh Bình Ninh Thuận Phú Thọ Phú Yên Quảng Bình Quảng Nam Quảng Ngãi Quảng Ninh Quảng Trị Sóc Trăng Sơn La Tây Ninh Thái Bình Thái Nguyên Thanh Hoá Thừa Thiên Huế Tiền Giang Toàn Quốc Trà Vinh Tuyên Quang Vĩnh Long Vĩnh Phúc Yên Bái Nước Ngoài Đức Nhật Bản Tìm kiếm 1 /12 trang Xem tất cả việc làm với từ khóa “ ” Thương hiệu lớn tiêu biểu cùng lĩnh vực Pro Company Những thương hiệu tuyển dụng đã khẳng định được vị thế trên thị trường. CÔNG TY CỔ PHẦN DINH DƯỠNG NUTRICARE Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CỔ PHẦN THẾ GIỚI DI ĐỘNG Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY CP CÔNG NGHỆ THỰC PHẨM CHÂU Á Bán lẻ - Hàng tiêu dùng - FMCG Chi nhánh Công ty TNHH MM Mega Market (Việt Nam) tại TP Hà Nội Bán lẻ - Hàng tiêu dùng - FMCG Công Ty TNHH Phân Phối Tiên Tiến Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH XUẤT NHẬP KHẨU PHÁT TRIỂN ĐÔNG DƯƠNG - TẬP ĐOÀN THỂ THAO KINGSPORT Bán lẻ - Hàng tiêu dùng - FMCG Công Ty Cổ Phần Vàng Bạc Đá quý Phú Nhuận - PNJ Bán lẻ - Hàng tiêu dùng - FMCG Công ty Cổ phần Tập đoàn ASG Logistics - Vận tải CÔNG TY CỔ PHẦN THỜI TRANG VÀ MỸ PHẨM DUY ANH Bán lẻ - Hàng tiêu dùng - FMCG CÔNG TY TNHH THƯƠNG MẠI QUANG DŨNG Nông Lâm Ngư nghiệp Tìm hiểu thêm về TopCV Pro Việc làm “ ” từ các công ty tương tự Thông tin liên hệ Địa chỉ công ty Số 399 đường Phạm Văn Đồng, Phường Xuân Đỉnh, Quận Bắc Từ Liêm, Thành phố Hà Nội, Việt Nam Xem bản đồ Chia sẻ công ty tới bạn bè Sao chép đường dẫn Chia sẻ qua mạng xã hội</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Business Data Analyst</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Business Data Analyst</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/business-data-analyst/1886979.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Viettel Digital</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Viettel Digital</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/viettel-digital/198937.html</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/viettel-digital/198937.html</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Hà Nội, Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Hà Nội , Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Tòa Keangnam, Phạm Hùng, Nam Từ Liêm; - Hồ Chí Minh: 285 Cách Mạng Tháng 8, Phường Hòa Hưng, 0), Quận 10</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:00 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Thu thập, tổng hợp, làm sạch và xử lý dữ liệu từ nhiều nguồn (giao dịch ví điện tử, thanh toán QR, Mobile Money, eKYC, CRM, hệ thống ngân hàng liên kết).Trực quan hóa các kết quả phân tích dữ liệu. Phân tích dữ liệu kinh doanh nhằm tìm ra insight về hành vi khách hàng, hiệu quả sản phẩm và xu hướng thị trường. Phân khúc khách hàng theo hành vi, giá trị, rủi ro để hỗ trợ cá thể hóa sản phẩm/dịch vụ. Phát hiện gian lận (fraud detection) và phân tích bất thường trong giao dịch, phối hợp với đội Risk &amp; Compliance Xây dựng mô hình dự báo: churn rate, CLV (Customer Lifetime Value), xu hướng tăng trưởng giao dịch. Đánh giá hiệu quả các chiến dịch marketing, khuyến mãi, loyalty, voucher, cashback. Thiết kế dashboard và báo cáo quản trị realtime cho Ban lãnh đạo (doanh thu, số lượng giao dịch, tỷ lệ tăng trưởng, chi phí vận hành...). Đề xuất cải tiến quy trình vận hành, tối ưu sản phẩm và chiến lược kinh doanh dựa trên dữ liệu. Phối hợp chặt chẽ với Product, Marketing, Finance, Risk trong quá trình phân tích và ra quyết định.</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp đại học loại Khá/ Giỏi trở lên các ngành khoa học dữ liệu, kinh tế, quản trị kinh doanh, tài chính,…hoặc chuyên ngành liên quan. Ưu tiên các trường như FTU, NEU, UEB, AOF,… Tiếng Anh tương đương 650+ Toeic Có 2–3 năm kinh nghiệm trong vai trò Data Analyst/BI Analyst, ưu tiên trong lĩnh vực Fintech/Ngân hàng/Thanh toán số. Hiểu biết về các chỉ số trọng yếu trong Fintech như GMV, ARPU, Take rate, CAC, CLV, Churn rate, Active users,… Ngôn ngữ: SQL, Python, Power BI, Tableau, Google Data Studio. Hệ thống dữ liệu: MySQL, PostgreSQL, Oracle, NoSQL (MongoDB, Cassandra), Big Data Phân tích hành vi khách hàng, xây dựng mô hình dự báo, phân khúc dữ liệu. Kỹ năng trực quan hóa dữ liệu và storytelling để hỗ trợ quyết định kinh doanh. Khả năng giao tiếp, làm việc nhóm, phối hợp đa phòng ban.</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Thời gian làm việc: 8h00 - 17h30 từ thứ 2 tới thứ 6 Địa điểm làm việc: Làm việc tại tòa nhà văn phòng hạng A cao nhất Thủ đô – Keangnam Landmark 72, Phạm Hùng, Nam Từ Liêm, Hà Nội Mức lương thu hút và cạnh tranh, ứng viên thỏa thuận khi tham gia phỏng vấn Chính sách thưởng hấp dẫn: thưởng theo tháng, thưởng quý, thưởng năm, ngày lễ Tết, ... theo quy định chung của Tập đoàn Viettel Đóng BHXH, BHYT, BHTN theo quy định Nhà nước; khám sức khỏe định kỳ hàng năm Cơ hội tiếp xúc với các dự án lớn, mới mẻ &amp; tham gia xây dựng những sản phẩm lớn và có chỗ đứng trên thị trường Fintech Việt Nam Cơ hội thăng tiến rõ ràng với nhiều cấp bậc Cơ hội ứng tuyển thử sức đi học tập và làm việc tại nước ngoài theo các khóa ngắn hạn, dài hạn Công việc luôn thay đổi, thách thức, không thỏa hiệp với sự lỗi thời. Lãnh đạo trẻ trung, biết lắng nghe và sẵn sàng tạo cơ hội để cá nhân phát triển bản thân. Đồng nghiệp thân thiện và nhiệt tình. Nghỉ dưỡng 3 ngày nguyên lương trong năm, hỗ trợ nghỉ dưỡng lên đến 9 triệu/ người Tham gia các hoạt động thể thao văn hóa, team building, Ngày hội Sáng tạo, giải bóng đá, Viettel’s Got Talent, event quý, event năm, event ngày nghỉ lễ tết,… Được thư giãn, khơi nguồn sáng tạo với Happy Time mỗi ngày Thưởng thức bữa trưa được phục vụ ngay tại VDS, được chọn lọc bởi các chuyên gia dinh dưỡng.</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu (Data Analyst)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Chuyên Viên Phân Tích Dữ Liệu ( Data Analyst )</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/chuyen-vien-phan-tich-du-lieu-data-analyst/1658215.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>VNDIRECT</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/vndirect/198956.html</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3 năm</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>- Hà Nội</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1. Xây dựng nền tảng dữ liệu: - Khảo sát yêu cầu nghiệp vụ, trao đổi với Biz owner/ PO sản phẩm, phòng ban nghiệp vụ có liên quan để hiểu được các quy trình phát sinh dữ liệu từ hệ thống nhằm xây dựng tài liệu mô tả nguồn dữ liệu và tài liệu thiết kế tổ chức dữ liệu. - Xây dựng ra các bộ công thức để đảm bảo chất lượng của dữ liệu và kiểm tra được tính chính xác của dữ liệu. - Xây dựng tài liệu dictionary về phân loại, định nghĩa các loại dữ liệu nhằm ghi nhận các trường dữ liệu từ nguồn, đảm bảo khoa học, logic và tính thống nhất của dữ liệu. - Thiết kế các tầng xử lý dữ liệu từ dữ liệu thô, dữ liệu tổng hợp, các master data nhằm đảm bảo tối ưu cho các nhiệm vụ phân quyền và khai thác dữ liệu. - Xây dựng các data model và business model, backtest dữ liệu các cơ chế kinh doanh phục vụ cho các mục tiêu phân tích theo yêu cầu của ban lãnh đạo. 2. Xây dựng báo cáo/ phân tích insights, trực quan hóa dữ liệu cho người sử dụng: - Tìm hiểu các bài toán kinh doanh hoặc nghiệp vụ và xây dựng các luồng tích hợp, thiết kế nhiệm vụ tính toán dữ liệu cung cấp báo cáo, dữ liệu tổng hợp cho các nền tảng số của công ty. - Sử dụng các tool visualize dữ liệu nhằm xây dựng hệ thống báo cáo quản trị, báo cáo tự động, thiết kế biểu đồ, đồ thị phù hợp với nhu cầu từ Biz owner/ ban lãnh đạo. 3. Đảm bảo chất lượng, chuẩn mực và chuẩn hóa hạ tầng dữ liệu: - Hỗ trợ cùng với bộ phận Data governance/ Data engineer và các team sản phẩm khác xây dựng bộ định nghĩa dữ liệu và chuẩn hóa dữ liệu đầu vào đảm bảo tính thống nhất, tính đúng và kịp thời của dữ liệu. - Xây dựng văn hóa data driven đến với các bộ phận, phòng ban của tổ chức. - Xây dựng và tuân thủ các chuẩn mực về meta data và data catalog của tổ chức. 4. Quản lý dự án: - Xây dựng master plan cho nhiệm vụ theo dõi tiến độ dự án, quản lý rủi ro và báo cáo cho các bên có liên quan. - Sử dụng được các công cụ quản lý dự án như Microsoft Project, Trello... nhằm bám sát các yêu cầu phát triển trong quá trình triển khai dự án để trao đổi kịp thời và đảm bảo dự án đi đúng hướng. - Chịu trách nhiệm giải trình được kết quả và tiến độ của dự án được giao. 5. Đào tạo và phát triển đội ngũ: - Xây dựng bài giảng trên hệ thống đào tạo về sử dụng tool visualize và tài liệu thiết kế dữ liệu, data modeling - Hỗ trợ nhân sự mới nắm được phương pháp làm việc. - Điều phối nguồn lực triển khai và đánh giá kết quả công việc của nhân sự trong dự án. - Thực hiện hỗ trợ người sử dụng cuối sử dụng phần mềm hệ thống theo tài liệu hỗ trợ đào tạo hoặc các team phát triển khác về tích hợp lấy dữ liệu theo tài liệu API hoặc dataset mà bộ phận cung cấp. 6. Cải tiến quy trình và tự động hóa các luồng xử lý dữ liệu và báo cáo: - Đánh giá quy trình hiện tại, xác định các điểm chưa phù hợp và cần cải tiến. - Ghi nhận các điểm pain point và yêu cầu từ stake holders để chủ động trong việc đưa ra quy trình phối hợp giữa hệ thống nguồn, bộ phận vận hành, bộ phận vận hành ứng dụng nhằm cải tiến quy trình, nâng cao chất lượng dữ liệu và giảm các yêu cầu nhập liệu thủ công. - Định kỳ review và hỗ trợ xây dựng các quy trình cải tiến dữ liệu. 7. Khả năng nghiên cứu và phát triển chuyên môn: - Tìm hiểu các bài toán nghiệp vụ của ngành, tham khảo các best practice trên thị trường nhằm đáp ứng được mục tiêu customer centric theo domain chuyên sâu như nghiệp vụ giao dịch, tài chính ngân hàng, F&amp;B. - Tìm hiểu về các công cụ, kỹ thuật mới, trao đổi với đội ngũ data engineer/ Data architech nhằm đưa ra các giải pháp giải quyết vấn đề, đáp ứng kịp thời yêu cầu phát triển và sử dụng dữ liệu của tổ chức.</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1. Trình độ học vấn/Chứng chỉ Tốt nghiệp đại học chuyên ngành quản trị kinh tế, công nghệ thông tin, tài chính ngân hàng, có các chứng chỉ quốc tế như CFA, CAAC là 1 lợi thế. 2. Kinh nghiệm làm việc Ít nhất 3-5 năm kinh nghiệm trong lĩnh vực phân tích nghiệp vụ, ưu tiên ứng viên có kinh nghiệm trong ngành tài chính, chứng khoán, bảo hiểm. 3. Kiến thức/Năng lực chuyên môn/Kỹ năng Kỹ năng phân tích, tư duy phản biện và giải quyết vấn đề xuất sắc. Kỹ năng giao tiếp và thuyết trình tốt. Sử dụng thành thạo các công cụ phân tích dữ liệu và phần mềm quản lý dự án. Kỹ năng viết tài liệu phân tích rõ ràng, logic, đảm bảo đủ tính năng phát triển. Kỹ năng thu thập, xử lý dữ và sử dụng dữ liệu cho mục tiêu phân tích ( Áp dụng mô hình DIKW). Kỹ năng sử dụng các công cụ thiết kế và mô hình hóa tài liệu: UI-UX tool, visio, Figma... Kỹ năng về phân tích các bài toán nghiệp vụ ngành tài chính. Kĩ năng về sử dụng các tool visualize dữ liệu. Kĩ năng hiểu biết về data governance. Kỹ năng quản trị dự án và quản lý sự thay đổi. Kỹ năng sử dụng AI và big data/ AI and big data proficiency. Tư duy hệ thống. Tư duy khách hàng và định hướng dịch vụ. 4. Năng lực cốt lõi Có tố chất và tư duy phù hợp với hệ giá trị cốt lõi của công ty (IPAM &amp; 4C).</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1. Cộng đồng những người làm nghề chính trực và dấn thân phụng sự Môi trường làm nghề tài chính chuyên nghiệp. Làm việc với tinh thần làm chủ, sáng tạo và thách thức. 2. Tổng thu nhập theo năng lực Thu nhập xứng đáng theo năng lực và giá trị đóng góp. Xem xét thay đổi thu nhập hàng năm. 3. Chế độ đãi ngộ Tham gia BHXH, BHYT, BHTN theo đúng quy định luật lao động. Được tham gia đóng bảo hiểm sức khỏe và bảo hiểm tai nạn 24/24. 4. Tổ chức học tập và văn hóa sôi nổi Không gian làm việc mở với trang thiết bị hiện đại. Các hoạt động văn hóa, gắn kết đội ngũ, thiện nguyện phong phú, ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>&gt;1500 thành viên</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Senior Data Product Owner (Life Insurance Project)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tin tuyển dụng</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/brand/techcombank/tuyen-dung/senior-data-product-owner-life-insurance-project-j1866378.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN KỸ THƯƠNG VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN KỸ THƯƠNG VIỆT NAM - Chuyên trang tuyển dụng</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/brand/techcombank?id=16716</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Trên 5 năm</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst (Growth Project)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst (Growth Project)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/viec-lam/senior-data-analyst-growth-project/1866371.html?ta_source=JobSearchList_LinkDetail&amp;u_sr_id=803gurN5KAOTWVx9RGtDckkS0BWB7J0JUNN9sREy_1758699355</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN GOLDEN GATE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN GOLDEN GATE</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-tap-doan-golden-gate/199030.html</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.topcv.vn/cong-ty/cong-ty-co-phan-tap-doan-golden-gate/199030.html</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Thoả thuận</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2 năm</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Chuyên môn Data Analyst; Nghỉ thứ 7</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>- Hà Nội: Toà nhà Toyota, Trường Chinh, Thanh Xuân</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Thứ 2 - Thứ 6 (từ 08:30 đến 17:30)</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Analyze and interpret complex datasets to identify trends, patterns, and actionable insights linked to customer lifecycle &amp; campaign impact using statistics or ML models. Build predictive models and machine learning algorithms. Propose solutions and strategies to business challenges. Design and maintain campaign dashboards (Power BI / Superset); track campaign performance: loyalty, voucher, A/B testing, conversion rate &amp; retention. Maintain Marketing &amp; Loyalty Datamart, ensure data quality &amp; consistency. Collaborate with GRO/Marketing/Sales team to define user stories, maintain backlog &amp; priorities.</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree in Statistics, Applied Math, Econometrics, Computer Science, or a related field. 2+ years of experience in marketing data analysis: loyalty, CRM, campaign. Proficient in SQL, dbt, Power BI or Superset, cohort analysis, A/B testing. Ability to manage backlog, write user stories, and propose measurable OKRs (light PO mindset). Effective communicator with both Data &amp; GRO/Marketing teams.</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Work in a leading F&amp;B group in Vietnam with 21 concepts and nearly 400 restaurants nationwide. Professional, dynamic, and friendly environment. Training and development opportunities with access to large-scale loyalty &amp; marketing data systems. Competitive benefits package under Golden Gate Group policies.</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>